--- a/forms/app/hbc_registration.xlsx
+++ b/forms/app/hbc_registration.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="591">
   <si>
     <t>form_title</t>
   </si>
@@ -1741,9 +1741,6 @@
     <t>../inputs/contact/sex</t>
   </si>
   <si>
-    <t>beging group</t>
-  </si>
-  <si>
     <t>clinical_conditions</t>
   </si>
   <si>
@@ -1805,6 +1802,21 @@
   </si>
   <si>
     <t>selected(../../existing_conditions/hiv, 'yes')</t>
+  </si>
+  <si>
+    <t>ddimer</t>
+  </si>
+  <si>
+    <t>ferritin</t>
+  </si>
+  <si>
+    <t>lc</t>
+  </si>
+  <si>
+    <t>plt_count</t>
+  </si>
+  <si>
+    <t>cd4_count</t>
   </si>
 </sst>
 </file>
@@ -2375,10 +2387,10 @@
   <dimension ref="A1:AI174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K66" sqref="K66"/>
+      <selection pane="bottomRight" activeCell="B67" sqref="B67:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4496,7 +4508,7 @@
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
       <c r="J50" s="35" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K50" s="35"/>
       <c r="L50" s="35"/>
@@ -4713,7 +4725,7 @@
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
       <c r="J55" s="35" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K55" s="35"/>
       <c r="L55" s="35"/>
@@ -4819,13 +4831,13 @@
     </row>
     <row r="58" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="37" t="s">
         <v>565</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="C58" s="35" t="s">
         <v>566</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>567</v>
       </c>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
@@ -4867,10 +4879,10 @@
         <v>383</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
@@ -4910,10 +4922,10 @@
         <v>383</v>
       </c>
       <c r="B60" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="C60" s="35" t="s">
         <v>569</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>570</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
@@ -4953,10 +4965,10 @@
         <v>383</v>
       </c>
       <c r="B61" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="C61" s="35" t="s">
         <v>571</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>572</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
@@ -4996,10 +5008,10 @@
         <v>383</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
@@ -5039,10 +5051,10 @@
         <v>383</v>
       </c>
       <c r="B63" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="C63" s="35" t="s">
         <v>575</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>576</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
@@ -5158,10 +5170,10 @@
         <v>42</v>
       </c>
       <c r="B66" s="37" t="s">
+        <v>576</v>
+      </c>
+      <c r="C66" s="35" t="s">
         <v>577</v>
-      </c>
-      <c r="C66" s="35" t="s">
-        <v>578</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -5202,9 +5214,11 @@
       <c r="A67" s="37" t="s">
         <v>383</v>
       </c>
-      <c r="B67" s="37"/>
+      <c r="B67" s="37" t="s">
+        <v>586</v>
+      </c>
       <c r="C67" s="35" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
@@ -5243,9 +5257,11 @@
       <c r="A68" s="37" t="s">
         <v>383</v>
       </c>
-      <c r="B68" s="37"/>
+      <c r="B68" s="37" t="s">
+        <v>587</v>
+      </c>
       <c r="C68" s="35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
@@ -5284,9 +5300,11 @@
       <c r="A69" s="37" t="s">
         <v>383</v>
       </c>
-      <c r="B69" s="37"/>
+      <c r="B69" s="37" t="s">
+        <v>588</v>
+      </c>
       <c r="C69" s="35" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -5325,9 +5343,11 @@
       <c r="A70" s="37" t="s">
         <v>383</v>
       </c>
-      <c r="B70" s="37"/>
+      <c r="B70" s="37" t="s">
+        <v>589</v>
+      </c>
       <c r="C70" s="35" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -5366,9 +5386,11 @@
       <c r="A71" s="37" t="s">
         <v>383</v>
       </c>
-      <c r="B71" s="37"/>
+      <c r="B71" s="37" t="s">
+        <v>590</v>
+      </c>
       <c r="C71" s="35" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
@@ -5377,7 +5399,7 @@
       <c r="H71" s="35"/>
       <c r="I71" s="35"/>
       <c r="J71" s="35" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K71" s="35"/>
       <c r="L71" s="35"/>
@@ -12027,7 +12049,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44122.833433449072</v>
+        <v>44123.376075578701</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>

--- a/forms/app/hbc_registration.xlsx
+++ b/forms/app/hbc_registration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -2386,7 +2386,7 @@
   </sheetPr>
   <dimension ref="A1:AI174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -11985,7 +11985,7 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
@@ -12049,7 +12049,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44123.376075578701</v>
+        <v>44125.801324074077</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>

--- a/forms/app/hbc_registration.xlsx
+++ b/forms/app/hbc_registration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="590">
   <si>
     <t>form_title</t>
   </si>
@@ -1736,9 +1736,6 @@
   </si>
   <si>
     <t>Sex</t>
-  </si>
-  <si>
-    <t>../inputs/contact/sex</t>
   </si>
   <si>
     <t>clinical_conditions</t>
@@ -2384,13 +2381,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI174"/>
+  <dimension ref="A1:AI173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B67" sqref="B67:B71"/>
+      <selection pane="bottomRight" activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3051,58 +3048,66 @@
       <c r="AA16" s="22"/>
     </row>
     <row r="17" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>562</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="21" t="s">
-        <v>564</v>
-      </c>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
+      <c r="A18" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
     </row>
     <row r="19" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>517</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>516</v>
+        <v>518</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>519</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
@@ -3111,9 +3116,7 @@
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
       <c r="J19" s="34"/>
-      <c r="K19" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="K19" s="35"/>
       <c r="L19" s="35"/>
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
@@ -3141,21 +3144,23 @@
     </row>
     <row r="20" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>518</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>519</v>
+        <v>202</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>520</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="34"/>
+      <c r="I20" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="35"/>
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
       <c r="M20" s="35"/>
@@ -3184,23 +3189,23 @@
     </row>
     <row r="21" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>520</v>
+        <v>203</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
-      <c r="I21" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35" t="s">
+        <v>204</v>
+      </c>
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
@@ -3221,7 +3226,9 @@
       <c r="AB21" s="35"/>
       <c r="AC21" s="35"/>
       <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
+      <c r="AE21" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="AF21" s="35"/>
       <c r="AG21" s="35"/>
       <c r="AH21" s="35"/>
@@ -3229,20 +3236,22 @@
     </row>
     <row r="22" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>203</v>
+        <v>522</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
+      <c r="I22" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="J22" s="35" t="s">
         <v>204</v>
       </c>
@@ -3266,9 +3275,7 @@
       <c r="AB22" s="35"/>
       <c r="AC22" s="35"/>
       <c r="AD22" s="35"/>
-      <c r="AE22" s="35" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE22" s="35"/>
       <c r="AF22" s="35"/>
       <c r="AG22" s="35"/>
       <c r="AH22" s="35"/>
@@ -3279,10 +3286,10 @@
         <v>110</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
@@ -3326,10 +3333,10 @@
         <v>110</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>521</v>
+        <v>209</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>523</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
@@ -3340,7 +3347,7 @@
         <v>57</v>
       </c>
       <c r="J24" s="35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K24" s="35"/>
       <c r="L24" s="35"/>
@@ -3373,10 +3380,10 @@
         <v>110</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>209</v>
+        <v>529</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
@@ -3420,10 +3427,10 @@
         <v>110</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
@@ -3467,10 +3474,10 @@
         <v>110</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>531</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>530</v>
+        <v>216</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>210</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
@@ -3481,7 +3488,7 @@
         <v>57</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K27" s="35"/>
       <c r="L27" s="35"/>
@@ -3514,10 +3521,10 @@
         <v>110</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
@@ -3528,7 +3535,7 @@
         <v>57</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K28" s="35"/>
       <c r="L28" s="35"/>
@@ -3561,10 +3568,10 @@
         <v>110</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
@@ -3608,10 +3615,10 @@
         <v>110</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
@@ -3622,7 +3629,7 @@
         <v>57</v>
       </c>
       <c r="J30" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K30" s="35"/>
       <c r="L30" s="35"/>
@@ -3655,10 +3662,10 @@
         <v>110</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -3702,10 +3709,10 @@
         <v>110</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
@@ -3716,7 +3723,7 @@
         <v>57</v>
       </c>
       <c r="J32" s="35" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K32" s="35"/>
       <c r="L32" s="35"/>
@@ -3749,10 +3756,10 @@
         <v>110</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>221</v>
+        <v>524</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>215</v>
+        <v>525</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
@@ -3796,10 +3803,10 @@
         <v>110</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
@@ -3840,25 +3847,21 @@
     </row>
     <row r="35" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>527</v>
+        <v>225</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>526</v>
+        <v>45</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
       <c r="H35" s="35"/>
-      <c r="I35" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J35" s="35" t="s">
-        <v>206</v>
-      </c>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
       <c r="K35" s="35"/>
       <c r="L35" s="35"/>
       <c r="M35" s="35"/>
@@ -3868,7 +3871,9 @@
       <c r="Q35" s="35"/>
       <c r="R35" s="35"/>
       <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
+      <c r="T35" s="34" t="s">
+        <v>228</v>
+      </c>
       <c r="U35" s="35"/>
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
@@ -3879,7 +3884,9 @@
       <c r="AB35" s="35"/>
       <c r="AC35" s="35"/>
       <c r="AD35" s="35"/>
-      <c r="AE35" s="35"/>
+      <c r="AE35" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="AF35" s="35"/>
       <c r="AG35" s="35"/>
       <c r="AH35" s="35"/>
@@ -3887,13 +3894,13 @@
     </row>
     <row r="36" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -3901,7 +3908,9 @@
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
+      <c r="J36" s="35" t="s">
+        <v>226</v>
+      </c>
       <c r="K36" s="35"/>
       <c r="L36" s="35"/>
       <c r="M36" s="35"/>
@@ -3911,9 +3920,7 @@
       <c r="Q36" s="35"/>
       <c r="R36" s="35"/>
       <c r="S36" s="35"/>
-      <c r="T36" s="34" t="s">
-        <v>228</v>
-      </c>
+      <c r="T36" s="35"/>
       <c r="U36" s="35"/>
       <c r="V36" s="35"/>
       <c r="W36" s="35"/>
@@ -3937,10 +3944,10 @@
         <v>117</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
@@ -3949,7 +3956,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
       <c r="J37" s="35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K37" s="35"/>
       <c r="L37" s="35"/>
@@ -3981,23 +3988,17 @@
     </row>
     <row r="38" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>224</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
-      <c r="J38" s="35" t="s">
-        <v>227</v>
-      </c>
+      <c r="J38" s="35"/>
       <c r="K38" s="35"/>
       <c r="L38" s="35"/>
       <c r="M38" s="35"/>
@@ -4018,99 +4019,103 @@
       <c r="AB38" s="35"/>
       <c r="AC38" s="35"/>
       <c r="AD38" s="35"/>
-      <c r="AE38" s="35" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE38" s="35"/>
       <c r="AF38" s="35"/>
       <c r="AG38" s="35"/>
       <c r="AH38" s="35"/>
       <c r="AI38" s="35"/>
     </row>
-    <row r="39" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="35"/>
-      <c r="Z39" s="35"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="35"/>
-      <c r="AD39" s="35"/>
-      <c r="AE39" s="35"/>
-      <c r="AF39" s="35"/>
-      <c r="AG39" s="35"/>
-      <c r="AH39" s="35"/>
-      <c r="AI39" s="35"/>
-    </row>
-    <row r="40" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="54"/>
-      <c r="Y40" s="54"/>
-      <c r="Z40" s="54"/>
-      <c r="AA40" s="54"/>
-      <c r="AB40" s="54"/>
-      <c r="AC40" s="54"/>
-      <c r="AD40" s="54"/>
-      <c r="AE40" s="54"/>
-      <c r="AF40" s="54"/>
-      <c r="AG40" s="54"/>
-      <c r="AH40" s="54"/>
-      <c r="AI40" s="54"/>
+    <row r="39" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="54"/>
+      <c r="Y39" s="54"/>
+      <c r="Z39" s="54"/>
+      <c r="AA39" s="54"/>
+      <c r="AB39" s="54"/>
+      <c r="AC39" s="54"/>
+      <c r="AD39" s="54"/>
+      <c r="AE39" s="54"/>
+      <c r="AF39" s="54"/>
+      <c r="AG39" s="54"/>
+      <c r="AH39" s="54"/>
+      <c r="AI39" s="54"/>
+    </row>
+    <row r="40" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>533</v>
+      </c>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="35"/>
+      <c r="AE40" s="35"/>
+      <c r="AF40" s="35"/>
+      <c r="AG40" s="35"/>
+      <c r="AH40" s="35"/>
+      <c r="AI40" s="35"/>
     </row>
     <row r="41" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>532</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>533</v>
+        <v>534</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>535</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
@@ -4119,9 +4124,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
       <c r="J41" s="35"/>
-      <c r="K41" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="K41" s="35"/>
       <c r="L41" s="35"/>
       <c r="M41" s="35"/>
       <c r="N41" s="35"/>
@@ -4152,10 +4155,10 @@
         <v>117</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
@@ -4192,13 +4195,13 @@
     </row>
     <row r="43" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>536</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>553</v>
+        <v>545</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>544</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -4238,10 +4241,10 @@
         <v>110</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
@@ -4281,10 +4284,10 @@
         <v>110</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
@@ -4324,10 +4327,10 @@
         <v>110</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
@@ -4367,10 +4370,10 @@
         <v>110</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -4410,10 +4413,10 @@
         <v>110</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -4453,10 +4456,10 @@
         <v>110</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -4464,7 +4467,9 @@
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
+      <c r="J49" s="35" t="s">
+        <v>583</v>
+      </c>
       <c r="K49" s="35"/>
       <c r="L49" s="35"/>
       <c r="M49" s="35"/>
@@ -4496,10 +4501,10 @@
         <v>110</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
@@ -4507,9 +4512,7 @@
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
-      <c r="J50" s="35" t="s">
-        <v>584</v>
-      </c>
+      <c r="J50" s="35"/>
       <c r="K50" s="35"/>
       <c r="L50" s="35"/>
       <c r="M50" s="35"/>
@@ -4541,10 +4544,10 @@
         <v>110</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
@@ -4584,10 +4587,10 @@
         <v>110</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>555</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>554</v>
+        <v>556</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>557</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -4627,10 +4630,10 @@
         <v>110</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>556</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>557</v>
+        <v>559</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>558</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
@@ -4670,10 +4673,10 @@
         <v>110</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>559</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>558</v>
+        <v>560</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>561</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
@@ -4681,7 +4684,9 @@
       <c r="G54" s="35"/>
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
+      <c r="J54" s="35" t="s">
+        <v>582</v>
+      </c>
       <c r="K54" s="35"/>
       <c r="L54" s="35"/>
       <c r="M54" s="35"/>
@@ -4710,23 +4715,17 @@
     </row>
     <row r="55" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B55" s="37" t="s">
-        <v>560</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>561</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B55" s="37"/>
+      <c r="C55" s="35"/>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
-      <c r="J55" s="35" t="s">
-        <v>583</v>
-      </c>
+      <c r="J55" s="35"/>
       <c r="K55" s="35"/>
       <c r="L55" s="35"/>
       <c r="M55" s="35"/>
@@ -4753,88 +4752,94 @@
       <c r="AH55" s="35"/>
       <c r="AI55" s="35"/>
     </row>
-    <row r="56" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="37"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
-      <c r="S56" s="35"/>
-      <c r="T56" s="35"/>
-      <c r="U56" s="35"/>
-      <c r="V56" s="35"/>
-      <c r="W56" s="35"/>
-      <c r="X56" s="35"/>
-      <c r="Y56" s="35"/>
-      <c r="Z56" s="35"/>
-      <c r="AA56" s="35"/>
-      <c r="AB56" s="35"/>
-      <c r="AC56" s="35"/>
-      <c r="AD56" s="35"/>
-      <c r="AE56" s="35"/>
-      <c r="AF56" s="35"/>
-      <c r="AG56" s="35"/>
-      <c r="AH56" s="35"/>
-      <c r="AI56" s="35"/>
-    </row>
-    <row r="57" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="54"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="54"/>
-      <c r="P57" s="54"/>
-      <c r="Q57" s="54"/>
-      <c r="R57" s="54"/>
-      <c r="S57" s="54"/>
-      <c r="T57" s="54"/>
-      <c r="U57" s="54"/>
-      <c r="V57" s="54"/>
-      <c r="W57" s="54"/>
-      <c r="X57" s="54"/>
-      <c r="Y57" s="54"/>
-      <c r="Z57" s="54"/>
-      <c r="AA57" s="54"/>
-      <c r="AB57" s="54"/>
-      <c r="AC57" s="54"/>
-      <c r="AD57" s="54"/>
-      <c r="AE57" s="54"/>
-      <c r="AF57" s="54"/>
-      <c r="AG57" s="54"/>
-      <c r="AH57" s="54"/>
-      <c r="AI57" s="54"/>
+    <row r="56" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="54"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="54"/>
+      <c r="N56" s="54"/>
+      <c r="O56" s="54"/>
+      <c r="P56" s="54"/>
+      <c r="Q56" s="54"/>
+      <c r="R56" s="54"/>
+      <c r="S56" s="54"/>
+      <c r="T56" s="54"/>
+      <c r="U56" s="54"/>
+      <c r="V56" s="54"/>
+      <c r="W56" s="54"/>
+      <c r="X56" s="54"/>
+      <c r="Y56" s="54"/>
+      <c r="Z56" s="54"/>
+      <c r="AA56" s="54"/>
+      <c r="AB56" s="54"/>
+      <c r="AC56" s="54"/>
+      <c r="AD56" s="54"/>
+      <c r="AE56" s="54"/>
+      <c r="AF56" s="54"/>
+      <c r="AG56" s="54"/>
+      <c r="AH56" s="54"/>
+      <c r="AI56" s="54"/>
+    </row>
+    <row r="57" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>564</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>565</v>
+      </c>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="35"/>
+      <c r="U57" s="35"/>
+      <c r="V57" s="35"/>
+      <c r="W57" s="35"/>
+      <c r="X57" s="35"/>
+      <c r="Y57" s="35"/>
+      <c r="Z57" s="35"/>
+      <c r="AA57" s="35"/>
+      <c r="AB57" s="35"/>
+      <c r="AC57" s="35"/>
+      <c r="AD57" s="35"/>
+      <c r="AE57" s="35"/>
+      <c r="AF57" s="35"/>
+      <c r="AG57" s="35"/>
+      <c r="AH57" s="35"/>
+      <c r="AI57" s="35"/>
     </row>
     <row r="58" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="37" t="s">
-        <v>42</v>
+        <v>383</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C58" s="35" t="s">
         <v>566</v>
@@ -4846,9 +4851,7 @@
       <c r="H58" s="35"/>
       <c r="I58" s="35"/>
       <c r="J58" s="35"/>
-      <c r="K58" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="K58" s="35"/>
       <c r="L58" s="35"/>
       <c r="M58" s="35"/>
       <c r="N58" s="35"/>
@@ -4882,7 +4885,7 @@
         <v>567</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
@@ -4922,10 +4925,10 @@
         <v>383</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
@@ -4965,7 +4968,7 @@
         <v>383</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C61" s="35" t="s">
         <v>571</v>
@@ -5011,7 +5014,7 @@
         <v>573</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
@@ -5048,14 +5051,10 @@
     </row>
     <row r="63" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="37" t="s">
-        <v>383</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>575</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B63" s="37"/>
+      <c r="C63" s="35"/>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
       <c r="F63" s="35"/>
@@ -5089,88 +5088,94 @@
       <c r="AH63" s="35"/>
       <c r="AI63" s="35"/>
     </row>
-    <row r="64" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" s="37"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="35"/>
-      <c r="V64" s="35"/>
-      <c r="W64" s="35"/>
-      <c r="X64" s="35"/>
-      <c r="Y64" s="35"/>
-      <c r="Z64" s="35"/>
-      <c r="AA64" s="35"/>
-      <c r="AB64" s="35"/>
-      <c r="AC64" s="35"/>
-      <c r="AD64" s="35"/>
-      <c r="AE64" s="35"/>
-      <c r="AF64" s="35"/>
-      <c r="AG64" s="35"/>
-      <c r="AH64" s="35"/>
-      <c r="AI64" s="35"/>
-    </row>
-    <row r="65" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="54"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="54"/>
-      <c r="O65" s="54"/>
-      <c r="P65" s="54"/>
-      <c r="Q65" s="54"/>
-      <c r="R65" s="54"/>
-      <c r="S65" s="54"/>
-      <c r="T65" s="54"/>
-      <c r="U65" s="54"/>
-      <c r="V65" s="54"/>
-      <c r="W65" s="54"/>
-      <c r="X65" s="54"/>
-      <c r="Y65" s="54"/>
-      <c r="Z65" s="54"/>
-      <c r="AA65" s="54"/>
-      <c r="AB65" s="54"/>
-      <c r="AC65" s="54"/>
-      <c r="AD65" s="54"/>
-      <c r="AE65" s="54"/>
-      <c r="AF65" s="54"/>
-      <c r="AG65" s="54"/>
-      <c r="AH65" s="54"/>
-      <c r="AI65" s="54"/>
+    <row r="64" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="54"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="54"/>
+      <c r="M64" s="54"/>
+      <c r="N64" s="54"/>
+      <c r="O64" s="54"/>
+      <c r="P64" s="54"/>
+      <c r="Q64" s="54"/>
+      <c r="R64" s="54"/>
+      <c r="S64" s="54"/>
+      <c r="T64" s="54"/>
+      <c r="U64" s="54"/>
+      <c r="V64" s="54"/>
+      <c r="W64" s="54"/>
+      <c r="X64" s="54"/>
+      <c r="Y64" s="54"/>
+      <c r="Z64" s="54"/>
+      <c r="AA64" s="54"/>
+      <c r="AB64" s="54"/>
+      <c r="AC64" s="54"/>
+      <c r="AD64" s="54"/>
+      <c r="AE64" s="54"/>
+      <c r="AF64" s="54"/>
+      <c r="AG64" s="54"/>
+      <c r="AH64" s="54"/>
+      <c r="AI64" s="54"/>
+    </row>
+    <row r="65" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>576</v>
+      </c>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="35"/>
+      <c r="V65" s="35"/>
+      <c r="W65" s="35"/>
+      <c r="X65" s="35"/>
+      <c r="Y65" s="35"/>
+      <c r="Z65" s="35"/>
+      <c r="AA65" s="35"/>
+      <c r="AB65" s="35"/>
+      <c r="AC65" s="35"/>
+      <c r="AD65" s="35"/>
+      <c r="AE65" s="35"/>
+      <c r="AF65" s="35"/>
+      <c r="AG65" s="35"/>
+      <c r="AH65" s="35"/>
+      <c r="AI65" s="35"/>
     </row>
     <row r="66" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="37" t="s">
-        <v>42</v>
+        <v>383</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="C66" s="35" t="s">
         <v>577</v>
@@ -5182,9 +5187,7 @@
       <c r="H66" s="35"/>
       <c r="I66" s="35"/>
       <c r="J66" s="35"/>
-      <c r="K66" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="K66" s="35"/>
       <c r="L66" s="35"/>
       <c r="M66" s="35"/>
       <c r="N66" s="35"/>
@@ -5355,7 +5358,9 @@
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
       <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
+      <c r="J70" s="35" t="s">
+        <v>584</v>
+      </c>
       <c r="K70" s="35"/>
       <c r="L70" s="35"/>
       <c r="M70" s="35"/>
@@ -5384,23 +5389,17 @@
     </row>
     <row r="71" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="37" t="s">
-        <v>383</v>
-      </c>
-      <c r="B71" s="37" t="s">
-        <v>590</v>
-      </c>
-      <c r="C71" s="35" t="s">
-        <v>582</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B71" s="37"/>
+      <c r="C71" s="35"/>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
       <c r="I71" s="35"/>
-      <c r="J71" s="35" t="s">
-        <v>585</v>
-      </c>
+      <c r="J71" s="35"/>
       <c r="K71" s="35"/>
       <c r="L71" s="35"/>
       <c r="M71" s="35"/>
@@ -5428,80 +5427,90 @@
       <c r="AI71" s="35"/>
     </row>
     <row r="72" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" s="37"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="35"/>
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
-      <c r="R72" s="35"/>
-      <c r="S72" s="35"/>
-      <c r="T72" s="35"/>
-      <c r="U72" s="35"/>
-      <c r="V72" s="35"/>
-      <c r="W72" s="35"/>
-      <c r="X72" s="35"/>
-      <c r="Y72" s="35"/>
-      <c r="Z72" s="35"/>
-      <c r="AA72" s="35"/>
-      <c r="AB72" s="35"/>
-      <c r="AC72" s="35"/>
-      <c r="AD72" s="35"/>
-      <c r="AE72" s="35"/>
-      <c r="AF72" s="35"/>
-      <c r="AG72" s="35"/>
-      <c r="AH72" s="35"/>
-      <c r="AI72" s="35"/>
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="AE72" s="31"/>
+      <c r="AF72" s="31"/>
+      <c r="AG72" s="31"/>
+      <c r="AH72" s="31"/>
+      <c r="AI72" s="31"/>
     </row>
     <row r="73" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="AE73" s="31"/>
-      <c r="AF73" s="31"/>
-      <c r="AG73" s="31"/>
-      <c r="AH73" s="31"/>
-      <c r="AI73" s="31"/>
+      <c r="A73" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="K73" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L73" s="34"/>
+      <c r="M73" s="34"/>
+      <c r="N73" s="34"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
+      <c r="Q73" s="34"/>
+      <c r="R73" s="34"/>
+      <c r="S73" s="34"/>
+      <c r="T73" s="34"/>
+      <c r="U73" s="36"/>
+      <c r="V73" s="34"/>
+      <c r="W73" s="36"/>
+      <c r="X73" s="36"/>
+      <c r="Y73" s="36"/>
+      <c r="Z73" s="36"/>
+      <c r="AA73" s="36"/>
+      <c r="AB73" s="36"/>
+      <c r="AC73" s="36"/>
+      <c r="AD73" s="36"/>
+      <c r="AE73" s="36"/>
+      <c r="AF73" s="36"/>
+      <c r="AG73" s="36"/>
+      <c r="AH73" s="36"/>
+      <c r="AI73" s="36"/>
     </row>
     <row r="74" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="33" t="s">
-        <v>42</v>
+        <v>335</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>382</v>
+        <v>336</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36" t="s">
-        <v>376</v>
-      </c>
-      <c r="K74" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="L74" s="34"/>
-      <c r="M74" s="34"/>
+      <c r="I74" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="M74" s="34" t="s">
+        <v>338</v>
+      </c>
       <c r="N74" s="34"/>
       <c r="O74" s="34"/>
       <c r="P74" s="34"/>
@@ -5527,13 +5536,13 @@
     </row>
     <row r="75" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="33" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D75" s="35"/>
       <c r="E75" s="35"/>
@@ -5545,12 +5554,8 @@
       </c>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
-      <c r="L75" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="M75" s="34" t="s">
-        <v>338</v>
-      </c>
+      <c r="L75" s="36"/>
+      <c r="M75" s="34"/>
       <c r="N75" s="34"/>
       <c r="O75" s="34"/>
       <c r="P75" s="34"/>
@@ -5576,13 +5581,13 @@
     </row>
     <row r="76" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="33" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D76" s="35"/>
       <c r="E76" s="35"/>
@@ -5590,12 +5595,16 @@
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
       <c r="I76" s="36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="34"/>
+      <c r="L76" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="M76" s="34" t="s">
+        <v>344</v>
+      </c>
       <c r="N76" s="34"/>
       <c r="O76" s="34"/>
       <c r="P76" s="34"/>
@@ -5621,30 +5630,26 @@
     </row>
     <row r="77" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="33" t="s">
-        <v>341</v>
+        <v>117</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="35"/>
       <c r="F77" s="35"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
-      <c r="I77" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="J77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36" t="s">
+        <v>377</v>
+      </c>
       <c r="K77" s="36"/>
-      <c r="L77" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="M77" s="34" t="s">
-        <v>344</v>
-      </c>
+      <c r="L77" s="36"/>
+      <c r="M77" s="34"/>
       <c r="N77" s="34"/>
       <c r="O77" s="34"/>
       <c r="P77" s="34"/>
@@ -5673,10 +5678,10 @@
         <v>117</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="35"/>
@@ -5685,7 +5690,7 @@
       <c r="H78" s="35"/>
       <c r="I78" s="36"/>
       <c r="J78" s="36" t="s">
-        <v>377</v>
+        <v>496</v>
       </c>
       <c r="K78" s="36"/>
       <c r="L78" s="36"/>
@@ -5707,43 +5712,43 @@
       <c r="AB78" s="36"/>
       <c r="AC78" s="36"/>
       <c r="AD78" s="36"/>
-      <c r="AE78" s="36"/>
+      <c r="AE78" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="AF78" s="36"/>
       <c r="AG78" s="36"/>
       <c r="AH78" s="36"/>
       <c r="AI78" s="36"/>
     </row>
     <row r="79" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B79" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="C79" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
+      <c r="A79" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="C79" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D79" s="36"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
       <c r="I79" s="36"/>
-      <c r="J79" s="36" t="s">
-        <v>496</v>
-      </c>
+      <c r="J79" s="39"/>
       <c r="K79" s="36"/>
       <c r="L79" s="36"/>
-      <c r="M79" s="34"/>
-      <c r="N79" s="34"/>
-      <c r="O79" s="34"/>
-      <c r="P79" s="34"/>
-      <c r="Q79" s="34"/>
-      <c r="R79" s="34"/>
-      <c r="S79" s="34"/>
-      <c r="T79" s="34"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="36"/>
+      <c r="Q79" s="36"/>
+      <c r="R79" s="36"/>
+      <c r="S79" s="36"/>
+      <c r="T79" s="36"/>
       <c r="U79" s="36"/>
-      <c r="V79" s="34"/>
+      <c r="V79" s="36"/>
       <c r="W79" s="36"/>
       <c r="X79" s="36"/>
       <c r="Y79" s="36"/>
@@ -5757,76 +5762,76 @@
       </c>
       <c r="AF79" s="36"/>
       <c r="AG79" s="36"/>
-      <c r="AH79" s="36"/>
+      <c r="AH79" s="40" t="s">
+        <v>350</v>
+      </c>
       <c r="AI79" s="36"/>
     </row>
     <row r="80" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="38" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C80" s="39" t="s">
         <v>45</v>
       </c>
       <c r="D80" s="36"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
+      <c r="I80" s="39"/>
       <c r="J80" s="39"/>
-      <c r="K80" s="36"/>
-      <c r="L80" s="36"/>
-      <c r="M80" s="36"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="39"/>
+      <c r="M80" s="39"/>
       <c r="N80" s="36"/>
-      <c r="O80" s="39"/>
+      <c r="O80" s="36"/>
       <c r="P80" s="36"/>
       <c r="Q80" s="36"/>
       <c r="R80" s="36"/>
       <c r="S80" s="36"/>
-      <c r="T80" s="36"/>
-      <c r="U80" s="36"/>
-      <c r="V80" s="36"/>
-      <c r="W80" s="36"/>
-      <c r="X80" s="36"/>
-      <c r="Y80" s="36"/>
-      <c r="Z80" s="36"/>
-      <c r="AA80" s="36"/>
-      <c r="AB80" s="36"/>
-      <c r="AC80" s="36"/>
-      <c r="AD80" s="36"/>
-      <c r="AE80" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF80" s="36"/>
-      <c r="AG80" s="36"/>
-      <c r="AH80" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="AI80" s="36"/>
+      <c r="T80" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="U80" s="39"/>
+      <c r="V80" s="39"/>
+      <c r="W80" s="39"/>
+      <c r="X80" s="39"/>
+      <c r="Y80" s="39"/>
+      <c r="Z80" s="39"/>
+      <c r="AA80" s="39"/>
+      <c r="AB80" s="39"/>
+      <c r="AC80" s="39"/>
+      <c r="AD80" s="39"/>
+      <c r="AE80" s="39"/>
+      <c r="AF80" s="39"/>
+      <c r="AG80" s="39"/>
+      <c r="AH80" s="39"/>
+      <c r="AI80" s="39"/>
     </row>
     <row r="81" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>351</v>
+        <v>3</v>
       </c>
       <c r="C81" s="39" t="s">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="D81" s="36"/>
       <c r="E81" s="36"/>
       <c r="F81" s="36"/>
       <c r="G81" s="36"/>
       <c r="H81" s="36"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="39"/>
-      <c r="K81" s="39"/>
-      <c r="L81" s="39"/>
-      <c r="M81" s="39"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="36"/>
       <c r="N81" s="36"/>
       <c r="O81" s="36"/>
       <c r="P81" s="36"/>
@@ -5834,33 +5839,33 @@
       <c r="R81" s="36"/>
       <c r="S81" s="36"/>
       <c r="T81" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="U81" s="39"/>
-      <c r="V81" s="39"/>
-      <c r="W81" s="39"/>
-      <c r="X81" s="39"/>
-      <c r="Y81" s="39"/>
-      <c r="Z81" s="39"/>
-      <c r="AA81" s="39"/>
-      <c r="AB81" s="39"/>
-      <c r="AC81" s="39"/>
-      <c r="AD81" s="39"/>
-      <c r="AE81" s="39"/>
-      <c r="AF81" s="39"/>
-      <c r="AG81" s="39"/>
-      <c r="AH81" s="39"/>
-      <c r="AI81" s="39"/>
+        <v>354</v>
+      </c>
+      <c r="U81" s="36"/>
+      <c r="V81" s="36"/>
+      <c r="W81" s="36"/>
+      <c r="X81" s="36"/>
+      <c r="Y81" s="36"/>
+      <c r="Z81" s="36"/>
+      <c r="AA81" s="36"/>
+      <c r="AB81" s="36"/>
+      <c r="AC81" s="36"/>
+      <c r="AD81" s="36"/>
+      <c r="AE81" s="36"/>
+      <c r="AF81" s="36"/>
+      <c r="AG81" s="36"/>
+      <c r="AH81" s="36"/>
+      <c r="AI81" s="36"/>
     </row>
     <row r="82" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>3</v>
+        <v>355</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="D82" s="36"/>
       <c r="E82" s="36"/>
@@ -5879,30 +5884,30 @@
       <c r="R82" s="36"/>
       <c r="S82" s="36"/>
       <c r="T82" s="39" t="s">
-        <v>354</v>
-      </c>
-      <c r="U82" s="36"/>
-      <c r="V82" s="36"/>
-      <c r="W82" s="36"/>
-      <c r="X82" s="36"/>
-      <c r="Y82" s="36"/>
-      <c r="Z82" s="36"/>
-      <c r="AA82" s="36"/>
-      <c r="AB82" s="36"/>
-      <c r="AC82" s="36"/>
-      <c r="AD82" s="36"/>
-      <c r="AE82" s="36"/>
-      <c r="AF82" s="36"/>
-      <c r="AG82" s="36"/>
-      <c r="AH82" s="36"/>
-      <c r="AI82" s="36"/>
+        <v>356</v>
+      </c>
+      <c r="U82" s="39"/>
+      <c r="V82" s="39"/>
+      <c r="W82" s="39"/>
+      <c r="X82" s="39"/>
+      <c r="Y82" s="39"/>
+      <c r="Z82" s="39"/>
+      <c r="AA82" s="39"/>
+      <c r="AB82" s="39"/>
+      <c r="AC82" s="39"/>
+      <c r="AD82" s="39"/>
+      <c r="AE82" s="39"/>
+      <c r="AF82" s="39"/>
+      <c r="AG82" s="39"/>
+      <c r="AH82" s="39"/>
+      <c r="AI82" s="39"/>
     </row>
     <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C83" s="39" t="s">
         <v>45</v>
@@ -5912,19 +5917,19 @@
       <c r="F83" s="36"/>
       <c r="G83" s="36"/>
       <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="36"/>
-      <c r="O83" s="36"/>
-      <c r="P83" s="36"/>
-      <c r="Q83" s="36"/>
-      <c r="R83" s="36"/>
-      <c r="S83" s="36"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="39"/>
+      <c r="M83" s="39"/>
+      <c r="N83" s="39"/>
+      <c r="O83" s="39"/>
+      <c r="P83" s="39"/>
+      <c r="Q83" s="39"/>
+      <c r="R83" s="39"/>
+      <c r="S83" s="39"/>
       <c r="T83" s="39" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="U83" s="39"/>
       <c r="V83" s="39"/>
@@ -5944,10 +5949,10 @@
     </row>
     <row r="84" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C84" s="39" t="s">
         <v>45</v>
@@ -5957,85 +5962,85 @@
       <c r="F84" s="36"/>
       <c r="G84" s="36"/>
       <c r="H84" s="36"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="39"/>
-      <c r="L84" s="39"/>
-      <c r="M84" s="39"/>
-      <c r="N84" s="39"/>
-      <c r="O84" s="39"/>
-      <c r="P84" s="39"/>
-      <c r="Q84" s="39"/>
-      <c r="R84" s="39"/>
-      <c r="S84" s="39"/>
-      <c r="T84" s="39" t="s">
-        <v>358</v>
-      </c>
-      <c r="U84" s="39"/>
-      <c r="V84" s="39"/>
-      <c r="W84" s="39"/>
-      <c r="X84" s="39"/>
-      <c r="Y84" s="39"/>
-      <c r="Z84" s="39"/>
-      <c r="AA84" s="39"/>
-      <c r="AB84" s="39"/>
-      <c r="AC84" s="39"/>
-      <c r="AD84" s="39"/>
-      <c r="AE84" s="39"/>
-      <c r="AF84" s="39"/>
-      <c r="AG84" s="39"/>
-      <c r="AH84" s="39"/>
-      <c r="AI84" s="39"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="36"/>
+      <c r="S84" s="36"/>
+      <c r="T84" s="36"/>
+      <c r="U84" s="36"/>
+      <c r="V84" s="36"/>
+      <c r="W84" s="36"/>
+      <c r="X84" s="36"/>
+      <c r="Y84" s="36"/>
+      <c r="Z84" s="36"/>
+      <c r="AA84" s="36"/>
+      <c r="AB84" s="36"/>
+      <c r="AC84" s="36"/>
+      <c r="AD84" s="36"/>
+      <c r="AE84" s="36"/>
+      <c r="AF84" s="36"/>
+      <c r="AG84" s="36"/>
+      <c r="AH84" s="36"/>
+      <c r="AI84" s="36"/>
     </row>
     <row r="85" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>359</v>
+        <v>66</v>
       </c>
       <c r="C85" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="36"/>
-      <c r="L85" s="36"/>
-      <c r="M85" s="36"/>
-      <c r="N85" s="36"/>
-      <c r="O85" s="36"/>
-      <c r="P85" s="36"/>
-      <c r="Q85" s="36"/>
-      <c r="R85" s="36"/>
-      <c r="S85" s="36"/>
-      <c r="T85" s="36"/>
-      <c r="U85" s="36"/>
-      <c r="V85" s="36"/>
-      <c r="W85" s="36"/>
-      <c r="X85" s="36"/>
-      <c r="Y85" s="36"/>
-      <c r="Z85" s="36"/>
-      <c r="AA85" s="36"/>
-      <c r="AB85" s="36"/>
-      <c r="AC85" s="36"/>
-      <c r="AD85" s="36"/>
-      <c r="AE85" s="36"/>
-      <c r="AF85" s="36"/>
-      <c r="AG85" s="36"/>
-      <c r="AH85" s="36"/>
-      <c r="AI85" s="36"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="39"/>
+      <c r="L85" s="39"/>
+      <c r="M85" s="39"/>
+      <c r="N85" s="39"/>
+      <c r="O85" s="39"/>
+      <c r="P85" s="39"/>
+      <c r="Q85" s="39"/>
+      <c r="R85" s="39"/>
+      <c r="S85" s="39"/>
+      <c r="T85" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="U85" s="39"/>
+      <c r="V85" s="39"/>
+      <c r="W85" s="39"/>
+      <c r="X85" s="39"/>
+      <c r="Y85" s="39"/>
+      <c r="Z85" s="39"/>
+      <c r="AA85" s="39"/>
+      <c r="AB85" s="39"/>
+      <c r="AC85" s="39"/>
+      <c r="AD85" s="39"/>
+      <c r="AE85" s="39"/>
+      <c r="AF85" s="39"/>
+      <c r="AG85" s="39"/>
+      <c r="AH85" s="39"/>
+      <c r="AI85" s="39"/>
     </row>
     <row r="86" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C86" s="39" t="s">
         <v>45</v>
@@ -6057,7 +6062,7 @@
       <c r="R86" s="39"/>
       <c r="S86" s="39"/>
       <c r="T86" s="39" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="U86" s="39"/>
       <c r="V86" s="39"/>
@@ -6077,55 +6082,53 @@
     </row>
     <row r="87" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B87" s="38" t="s">
-        <v>84</v>
+        <v>362</v>
       </c>
       <c r="C87" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D87" s="39"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="39"/>
-      <c r="J87" s="39"/>
-      <c r="K87" s="39"/>
-      <c r="L87" s="39"/>
-      <c r="M87" s="39"/>
-      <c r="N87" s="39"/>
-      <c r="O87" s="39"/>
-      <c r="P87" s="39"/>
-      <c r="Q87" s="39"/>
-      <c r="R87" s="39"/>
-      <c r="S87" s="39"/>
-      <c r="T87" s="39" t="s">
-        <v>361</v>
-      </c>
-      <c r="U87" s="39"/>
-      <c r="V87" s="39"/>
-      <c r="W87" s="39"/>
-      <c r="X87" s="39"/>
-      <c r="Y87" s="39"/>
-      <c r="Z87" s="39"/>
-      <c r="AA87" s="39"/>
-      <c r="AB87" s="39"/>
-      <c r="AC87" s="39"/>
-      <c r="AD87" s="39"/>
-      <c r="AE87" s="39"/>
-      <c r="AF87" s="39"/>
-      <c r="AG87" s="39"/>
-      <c r="AH87" s="39"/>
-      <c r="AI87" s="39"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="36"/>
+      <c r="Q87" s="36"/>
+      <c r="R87" s="36"/>
+      <c r="S87" s="36"/>
+      <c r="T87" s="36"/>
+      <c r="U87" s="36"/>
+      <c r="V87" s="36"/>
+      <c r="W87" s="36"/>
+      <c r="X87" s="36"/>
+      <c r="Y87" s="36"/>
+      <c r="Z87" s="36"/>
+      <c r="AA87" s="36"/>
+      <c r="AB87" s="36"/>
+      <c r="AC87" s="36"/>
+      <c r="AD87" s="36"/>
+      <c r="AE87" s="36"/>
+      <c r="AF87" s="36"/>
+      <c r="AG87" s="36"/>
+      <c r="AH87" s="36"/>
+      <c r="AI87" s="36"/>
     </row>
     <row r="88" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="38" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C88" s="39" t="s">
         <v>45</v>
@@ -6146,7 +6149,9 @@
       <c r="Q88" s="36"/>
       <c r="R88" s="36"/>
       <c r="S88" s="36"/>
-      <c r="T88" s="36"/>
+      <c r="T88" s="39" t="s">
+        <v>378</v>
+      </c>
       <c r="U88" s="36"/>
       <c r="V88" s="36"/>
       <c r="W88" s="36"/>
@@ -6168,7 +6173,7 @@
         <v>78</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C89" s="39" t="s">
         <v>45</v>
@@ -6190,7 +6195,7 @@
       <c r="R89" s="36"/>
       <c r="S89" s="36"/>
       <c r="T89" s="39" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="U89" s="36"/>
       <c r="V89" s="36"/>
@@ -6213,7 +6218,7 @@
         <v>78</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C90" s="39" t="s">
         <v>45</v>
@@ -6235,7 +6240,7 @@
       <c r="R90" s="36"/>
       <c r="S90" s="36"/>
       <c r="T90" s="39" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="U90" s="36"/>
       <c r="V90" s="36"/>
@@ -6258,7 +6263,7 @@
         <v>78</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C91" s="39" t="s">
         <v>45</v>
@@ -6268,80 +6273,74 @@
       <c r="F91" s="36"/>
       <c r="G91" s="36"/>
       <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="36"/>
-      <c r="N91" s="36"/>
-      <c r="O91" s="36"/>
-      <c r="P91" s="36"/>
-      <c r="Q91" s="36"/>
-      <c r="R91" s="36"/>
-      <c r="S91" s="36"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="39"/>
+      <c r="L91" s="39"/>
+      <c r="M91" s="39"/>
+      <c r="N91" s="39"/>
+      <c r="O91" s="39"/>
+      <c r="P91" s="39"/>
+      <c r="Q91" s="39"/>
+      <c r="R91" s="39"/>
+      <c r="S91" s="39"/>
       <c r="T91" s="39" t="s">
-        <v>366</v>
-      </c>
-      <c r="U91" s="36"/>
-      <c r="V91" s="36"/>
-      <c r="W91" s="36"/>
-      <c r="X91" s="36"/>
-      <c r="Y91" s="36"/>
-      <c r="Z91" s="36"/>
-      <c r="AA91" s="36"/>
-      <c r="AB91" s="36"/>
-      <c r="AC91" s="36"/>
-      <c r="AD91" s="36"/>
-      <c r="AE91" s="36"/>
-      <c r="AF91" s="36"/>
-      <c r="AG91" s="36"/>
-      <c r="AH91" s="36"/>
-      <c r="AI91" s="36"/>
+        <v>380</v>
+      </c>
+      <c r="U91" s="39"/>
+      <c r="V91" s="39"/>
+      <c r="W91" s="39"/>
+      <c r="X91" s="39"/>
+      <c r="Y91" s="39"/>
+      <c r="Z91" s="39"/>
+      <c r="AA91" s="39"/>
+      <c r="AB91" s="39"/>
+      <c r="AC91" s="39"/>
+      <c r="AD91" s="39"/>
+      <c r="AE91" s="39"/>
+      <c r="AF91" s="39"/>
+      <c r="AG91" s="39"/>
+      <c r="AH91" s="39"/>
+      <c r="AI91" s="39"/>
     </row>
     <row r="92" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B92" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="C92" s="39" t="s">
-        <v>45</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B92" s="38"/>
+      <c r="C92" s="36"/>
       <c r="D92" s="36"/>
       <c r="E92" s="36"/>
       <c r="F92" s="36"/>
       <c r="G92" s="36"/>
       <c r="H92" s="36"/>
-      <c r="I92" s="39"/>
-      <c r="J92" s="39"/>
-      <c r="K92" s="39"/>
-      <c r="L92" s="39"/>
-      <c r="M92" s="39"/>
-      <c r="N92" s="39"/>
-      <c r="O92" s="39"/>
-      <c r="P92" s="39"/>
-      <c r="Q92" s="39"/>
-      <c r="R92" s="39"/>
-      <c r="S92" s="39"/>
-      <c r="T92" s="39" t="s">
-        <v>380</v>
-      </c>
-      <c r="U92" s="39"/>
-      <c r="V92" s="39"/>
-      <c r="W92" s="39"/>
-      <c r="X92" s="39"/>
-      <c r="Y92" s="39"/>
-      <c r="Z92" s="39"/>
-      <c r="AA92" s="39"/>
-      <c r="AB92" s="39"/>
-      <c r="AC92" s="39"/>
-      <c r="AD92" s="39"/>
-      <c r="AE92" s="39"/>
-      <c r="AF92" s="39"/>
-      <c r="AG92" s="39"/>
-      <c r="AH92" s="39"/>
-      <c r="AI92" s="39"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="36"/>
+      <c r="O92" s="36"/>
+      <c r="P92" s="36"/>
+      <c r="Q92" s="36"/>
+      <c r="R92" s="36"/>
+      <c r="S92" s="36"/>
+      <c r="T92" s="36"/>
+      <c r="U92" s="36"/>
+      <c r="V92" s="36"/>
+      <c r="W92" s="36"/>
+      <c r="X92" s="36"/>
+      <c r="Y92" s="36"/>
+      <c r="Z92" s="36"/>
+      <c r="AA92" s="36"/>
+      <c r="AB92" s="36"/>
+      <c r="AC92" s="36"/>
+      <c r="AD92" s="36"/>
+      <c r="AE92" s="36"/>
+      <c r="AF92" s="36"/>
+      <c r="AG92" s="36"/>
+      <c r="AH92" s="36"/>
+      <c r="AI92" s="36"/>
     </row>
     <row r="93" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="38" t="s">
@@ -6383,11 +6382,15 @@
       <c r="AI93" s="36"/>
     </row>
     <row r="94" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B94" s="38"/>
-      <c r="C94" s="36"/>
+      <c r="A94" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B94" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="C94" s="36" t="s">
+        <v>45</v>
+      </c>
       <c r="D94" s="36"/>
       <c r="E94" s="36"/>
       <c r="F94" s="36"/>
@@ -6404,7 +6407,9 @@
       <c r="Q94" s="36"/>
       <c r="R94" s="36"/>
       <c r="S94" s="36"/>
-      <c r="T94" s="36"/>
+      <c r="T94" s="36" t="s">
+        <v>369</v>
+      </c>
       <c r="U94" s="36"/>
       <c r="V94" s="36"/>
       <c r="W94" s="36"/>
@@ -6419,18 +6424,16 @@
       <c r="AF94" s="36"/>
       <c r="AG94" s="36"/>
       <c r="AH94" s="36"/>
-      <c r="AI94" s="36"/>
+      <c r="AI94" s="36" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="95" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B95" s="41" t="s">
-        <v>368</v>
-      </c>
-      <c r="C95" s="36" t="s">
-        <v>45</v>
-      </c>
+      <c r="A95" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B95" s="38"/>
+      <c r="C95" s="36"/>
       <c r="D95" s="36"/>
       <c r="E95" s="36"/>
       <c r="F95" s="36"/>
@@ -6447,9 +6450,7 @@
       <c r="Q95" s="36"/>
       <c r="R95" s="36"/>
       <c r="S95" s="36"/>
-      <c r="T95" s="36" t="s">
-        <v>369</v>
-      </c>
+      <c r="T95" s="36"/>
       <c r="U95" s="36"/>
       <c r="V95" s="36"/>
       <c r="W95" s="36"/>
@@ -6464,16 +6465,18 @@
       <c r="AF95" s="36"/>
       <c r="AG95" s="36"/>
       <c r="AH95" s="36"/>
-      <c r="AI95" s="36" t="s">
-        <v>370</v>
-      </c>
+      <c r="AI95" s="36"/>
     </row>
     <row r="96" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B96" s="38"/>
-      <c r="C96" s="36"/>
+      <c r="A96" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="C96" s="36" t="s">
+        <v>45</v>
+      </c>
       <c r="D96" s="36"/>
       <c r="E96" s="36"/>
       <c r="F96" s="36"/>
@@ -6490,7 +6493,9 @@
       <c r="Q96" s="36"/>
       <c r="R96" s="36"/>
       <c r="S96" s="36"/>
-      <c r="T96" s="36"/>
+      <c r="T96" s="36" t="s">
+        <v>371</v>
+      </c>
       <c r="U96" s="36"/>
       <c r="V96" s="36"/>
       <c r="W96" s="36"/>
@@ -6505,39 +6510,35 @@
       <c r="AF96" s="36"/>
       <c r="AG96" s="36"/>
       <c r="AH96" s="36"/>
-      <c r="AI96" s="36"/>
+      <c r="AI96" s="36" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="97" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B97" s="41" t="s">
-        <v>381</v>
-      </c>
-      <c r="C97" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
+      <c r="A97" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B97" s="33"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
       <c r="I97" s="36"/>
       <c r="J97" s="36"/>
       <c r="K97" s="36"/>
       <c r="L97" s="36"/>
-      <c r="M97" s="36"/>
-      <c r="N97" s="36"/>
-      <c r="O97" s="36"/>
-      <c r="P97" s="36"/>
-      <c r="Q97" s="36"/>
-      <c r="R97" s="36"/>
-      <c r="S97" s="36"/>
-      <c r="T97" s="36" t="s">
-        <v>371</v>
-      </c>
+      <c r="M97" s="34"/>
+      <c r="N97" s="34"/>
+      <c r="O97" s="34"/>
+      <c r="P97" s="34"/>
+      <c r="Q97" s="34"/>
+      <c r="R97" s="34"/>
+      <c r="S97" s="34"/>
+      <c r="T97" s="34"/>
       <c r="U97" s="36"/>
-      <c r="V97" s="36"/>
+      <c r="V97" s="34"/>
       <c r="W97" s="36"/>
       <c r="X97" s="36"/>
       <c r="Y97" s="36"/>
@@ -6550,85 +6551,93 @@
       <c r="AF97" s="36"/>
       <c r="AG97" s="36"/>
       <c r="AH97" s="36"/>
-      <c r="AI97" s="36" t="s">
-        <v>371</v>
-      </c>
+      <c r="AI97" s="36"/>
     </row>
     <row r="98" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B98" s="33"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="36"/>
-      <c r="J98" s="36"/>
-      <c r="K98" s="36"/>
-      <c r="L98" s="36"/>
-      <c r="M98" s="34"/>
-      <c r="N98" s="34"/>
-      <c r="O98" s="34"/>
-      <c r="P98" s="34"/>
-      <c r="Q98" s="34"/>
-      <c r="R98" s="34"/>
-      <c r="S98" s="34"/>
-      <c r="T98" s="34"/>
-      <c r="U98" s="36"/>
-      <c r="V98" s="34"/>
-      <c r="W98" s="36"/>
-      <c r="X98" s="36"/>
-      <c r="Y98" s="36"/>
-      <c r="Z98" s="36"/>
-      <c r="AA98" s="36"/>
-      <c r="AB98" s="36"/>
-      <c r="AC98" s="36"/>
-      <c r="AD98" s="36"/>
-      <c r="AE98" s="36"/>
-      <c r="AF98" s="36"/>
-      <c r="AG98" s="36"/>
-      <c r="AH98" s="36"/>
-      <c r="AI98" s="36"/>
+      <c r="A98" s="31"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
+      <c r="AE98" s="31"/>
+      <c r="AF98" s="31"/>
+      <c r="AG98" s="31"/>
+      <c r="AH98" s="31"/>
+      <c r="AI98" s="31"/>
     </row>
     <row r="99" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="31"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="31"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="31"/>
-      <c r="AE99" s="31"/>
-      <c r="AF99" s="31"/>
-      <c r="AG99" s="31"/>
-      <c r="AH99" s="31"/>
-      <c r="AI99" s="31"/>
+      <c r="A99" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B99" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C99" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="D99" s="35"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="K99" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L99" s="36"/>
+      <c r="M99" s="34"/>
+      <c r="N99" s="34"/>
+      <c r="O99" s="34"/>
+      <c r="P99" s="34"/>
+      <c r="Q99" s="34"/>
+      <c r="R99" s="34"/>
+      <c r="S99" s="34"/>
+      <c r="T99" s="34"/>
+      <c r="U99" s="36"/>
+      <c r="V99" s="34"/>
+      <c r="W99" s="36"/>
+      <c r="X99" s="36"/>
+      <c r="Y99" s="36"/>
+      <c r="Z99" s="36"/>
+      <c r="AA99" s="36"/>
+      <c r="AB99" s="36"/>
+      <c r="AC99" s="36"/>
+      <c r="AD99" s="36"/>
+      <c r="AE99" s="36"/>
+      <c r="AF99" s="36"/>
+      <c r="AG99" s="36"/>
+      <c r="AH99" s="36"/>
+      <c r="AI99" s="36"/>
     </row>
     <row r="100" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="33" t="s">
-        <v>42</v>
+        <v>335</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>239</v>
+        <v>391</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D100" s="35"/>
       <c r="E100" s="35"/>
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
       <c r="H100" s="35"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="K100" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="L100" s="36"/>
-      <c r="M100" s="34"/>
+      <c r="I100" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="J100" s="34"/>
+      <c r="K100" s="34"/>
+      <c r="L100" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="M100" s="34" t="s">
+        <v>338</v>
+      </c>
       <c r="N100" s="34"/>
       <c r="O100" s="34"/>
       <c r="P100" s="34"/>
@@ -6636,31 +6645,31 @@
       <c r="R100" s="34"/>
       <c r="S100" s="34"/>
       <c r="T100" s="34"/>
-      <c r="U100" s="36"/>
+      <c r="U100" s="34"/>
       <c r="V100" s="34"/>
-      <c r="W100" s="36"/>
-      <c r="X100" s="36"/>
-      <c r="Y100" s="36"/>
-      <c r="Z100" s="36"/>
-      <c r="AA100" s="36"/>
-      <c r="AB100" s="36"/>
-      <c r="AC100" s="36"/>
-      <c r="AD100" s="36"/>
-      <c r="AE100" s="36"/>
-      <c r="AF100" s="36"/>
-      <c r="AG100" s="36"/>
-      <c r="AH100" s="36"/>
-      <c r="AI100" s="36"/>
+      <c r="W100" s="34"/>
+      <c r="X100" s="34"/>
+      <c r="Y100" s="34"/>
+      <c r="Z100" s="34"/>
+      <c r="AA100" s="34"/>
+      <c r="AB100" s="34"/>
+      <c r="AC100" s="34"/>
+      <c r="AD100" s="34"/>
+      <c r="AE100" s="34"/>
+      <c r="AF100" s="34"/>
+      <c r="AG100" s="34"/>
+      <c r="AH100" s="34"/>
+      <c r="AI100" s="34"/>
     </row>
     <row r="101" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="33" t="s">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D101" s="35"/>
       <c r="E101" s="35"/>
@@ -6672,12 +6681,8 @@
       </c>
       <c r="J101" s="34"/>
       <c r="K101" s="34"/>
-      <c r="L101" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="M101" s="34" t="s">
-        <v>338</v>
-      </c>
+      <c r="L101" s="34"/>
+      <c r="M101" s="34"/>
       <c r="N101" s="34"/>
       <c r="O101" s="34"/>
       <c r="P101" s="34"/>
@@ -6703,13 +6708,13 @@
     </row>
     <row r="102" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="33" t="s">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="B102" s="33" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D102" s="35"/>
       <c r="E102" s="35"/>
@@ -6719,10 +6724,16 @@
       <c r="I102" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="J102" s="34"/>
+      <c r="J102" s="34" t="s">
+        <v>395</v>
+      </c>
       <c r="K102" s="34"/>
-      <c r="L102" s="34"/>
-      <c r="M102" s="34"/>
+      <c r="L102" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="M102" s="34" t="s">
+        <v>386</v>
+      </c>
       <c r="N102" s="34"/>
       <c r="O102" s="34"/>
       <c r="P102" s="34"/>
@@ -6748,32 +6759,20 @@
     </row>
     <row r="103" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="B103" s="33" t="s">
-        <v>394</v>
-      </c>
-      <c r="C103" s="34" t="s">
-        <v>384</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B103" s="33"/>
+      <c r="C103" s="34"/>
       <c r="D103" s="35"/>
       <c r="E103" s="35"/>
       <c r="F103" s="35"/>
       <c r="G103" s="35"/>
       <c r="H103" s="35"/>
-      <c r="I103" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J103" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="K103" s="34"/>
-      <c r="L103" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="M103" s="34" t="s">
-        <v>386</v>
-      </c>
+      <c r="I103" s="36"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="34"/>
       <c r="N103" s="34"/>
       <c r="O103" s="34"/>
       <c r="P103" s="34"/>
@@ -6781,82 +6780,92 @@
       <c r="R103" s="34"/>
       <c r="S103" s="34"/>
       <c r="T103" s="34"/>
-      <c r="U103" s="34"/>
+      <c r="U103" s="36"/>
       <c r="V103" s="34"/>
-      <c r="W103" s="34"/>
-      <c r="X103" s="34"/>
-      <c r="Y103" s="34"/>
-      <c r="Z103" s="34"/>
-      <c r="AA103" s="34"/>
-      <c r="AB103" s="34"/>
-      <c r="AC103" s="34"/>
-      <c r="AD103" s="34"/>
-      <c r="AE103" s="34"/>
-      <c r="AF103" s="34"/>
-      <c r="AG103" s="34"/>
-      <c r="AH103" s="34"/>
-      <c r="AI103" s="34"/>
+      <c r="W103" s="36"/>
+      <c r="X103" s="36"/>
+      <c r="Y103" s="36"/>
+      <c r="Z103" s="36"/>
+      <c r="AA103" s="36"/>
+      <c r="AB103" s="36"/>
+      <c r="AC103" s="36"/>
+      <c r="AD103" s="36"/>
+      <c r="AE103" s="36"/>
+      <c r="AF103" s="36"/>
+      <c r="AG103" s="36"/>
+      <c r="AH103" s="36"/>
+      <c r="AI103" s="36"/>
     </row>
     <row r="104" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B104" s="33"/>
-      <c r="C104" s="34"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="35"/>
-      <c r="G104" s="35"/>
-      <c r="H104" s="35"/>
-      <c r="I104" s="36"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="36"/>
-      <c r="L104" s="36"/>
-      <c r="M104" s="34"/>
-      <c r="N104" s="34"/>
-      <c r="O104" s="34"/>
-      <c r="P104" s="34"/>
-      <c r="Q104" s="34"/>
-      <c r="R104" s="34"/>
-      <c r="S104" s="34"/>
-      <c r="T104" s="34"/>
-      <c r="U104" s="36"/>
-      <c r="V104" s="34"/>
-      <c r="W104" s="36"/>
-      <c r="X104" s="36"/>
-      <c r="Y104" s="36"/>
-      <c r="Z104" s="36"/>
-      <c r="AA104" s="36"/>
-      <c r="AB104" s="36"/>
-      <c r="AC104" s="36"/>
-      <c r="AD104" s="36"/>
-      <c r="AE104" s="36"/>
-      <c r="AF104" s="36"/>
-      <c r="AG104" s="36"/>
-      <c r="AH104" s="36"/>
-      <c r="AI104" s="36"/>
+      <c r="A104" s="31"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+      <c r="AE104" s="31"/>
+      <c r="AF104" s="31"/>
+      <c r="AG104" s="31"/>
+      <c r="AH104" s="31"/>
+      <c r="AI104" s="31"/>
     </row>
     <row r="105" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="31"/>
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="31"/>
-      <c r="AE105" s="31"/>
-      <c r="AF105" s="31"/>
-      <c r="AG105" s="31"/>
-      <c r="AH105" s="31"/>
-      <c r="AI105" s="31"/>
+      <c r="A105" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B105" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="C105" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="D105" s="35"/>
+      <c r="E105" s="35"/>
+      <c r="F105" s="35"/>
+      <c r="G105" s="35"/>
+      <c r="H105" s="35"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="K105" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="L105" s="36"/>
+      <c r="M105" s="34"/>
+      <c r="N105" s="34"/>
+      <c r="O105" s="34"/>
+      <c r="P105" s="34"/>
+      <c r="Q105" s="34"/>
+      <c r="R105" s="34"/>
+      <c r="S105" s="34"/>
+      <c r="T105" s="34"/>
+      <c r="U105" s="36"/>
+      <c r="V105" s="34"/>
+      <c r="W105" s="36"/>
+      <c r="X105" s="36"/>
+      <c r="Y105" s="36"/>
+      <c r="Z105" s="36"/>
+      <c r="AA105" s="36"/>
+      <c r="AB105" s="36"/>
+      <c r="AC105" s="36"/>
+      <c r="AD105" s="36"/>
+      <c r="AE105" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF105" s="36"/>
+      <c r="AG105" s="36"/>
+      <c r="AH105" s="36"/>
+      <c r="AI105" s="36"/>
     </row>
     <row r="106" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="33" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B106" s="33" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D106" s="35"/>
       <c r="E106" s="35"/>
@@ -6864,12 +6873,8 @@
       <c r="G106" s="35"/>
       <c r="H106" s="35"/>
       <c r="I106" s="36"/>
-      <c r="J106" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="K106" s="36" t="s">
-        <v>396</v>
-      </c>
+      <c r="J106" s="36"/>
+      <c r="K106" s="36"/>
       <c r="L106" s="36"/>
       <c r="M106" s="34"/>
       <c r="N106" s="34"/>
@@ -6889,9 +6894,7 @@
       <c r="AB106" s="36"/>
       <c r="AC106" s="36"/>
       <c r="AD106" s="36"/>
-      <c r="AE106" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE106" s="36"/>
       <c r="AF106" s="36"/>
       <c r="AG106" s="36"/>
       <c r="AH106" s="36"/>
@@ -6902,10 +6905,10 @@
         <v>117</v>
       </c>
       <c r="B107" s="33" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D107" s="35"/>
       <c r="E107" s="35"/>
@@ -6945,10 +6948,10 @@
         <v>117</v>
       </c>
       <c r="B108" s="33" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D108" s="35"/>
       <c r="E108" s="35"/>
@@ -6988,10 +6991,10 @@
         <v>117</v>
       </c>
       <c r="B109" s="33" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D109" s="35"/>
       <c r="E109" s="35"/>
@@ -7031,10 +7034,10 @@
         <v>117</v>
       </c>
       <c r="B110" s="33" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D110" s="35"/>
       <c r="E110" s="35"/>
@@ -7071,30 +7074,26 @@
     </row>
     <row r="111" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B111" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="C111" s="34" t="s">
-        <v>458</v>
-      </c>
-      <c r="D111" s="35"/>
-      <c r="E111" s="35"/>
-      <c r="F111" s="35"/>
-      <c r="G111" s="35"/>
-      <c r="H111" s="35"/>
+        <v>68</v>
+      </c>
+      <c r="B111" s="33"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="36"/>
+      <c r="F111" s="36"/>
+      <c r="G111" s="36"/>
+      <c r="H111" s="36"/>
       <c r="I111" s="36"/>
       <c r="J111" s="36"/>
       <c r="K111" s="36"/>
       <c r="L111" s="36"/>
       <c r="M111" s="34"/>
-      <c r="N111" s="34"/>
-      <c r="O111" s="34"/>
-      <c r="P111" s="34"/>
-      <c r="Q111" s="34"/>
-      <c r="R111" s="34"/>
-      <c r="S111" s="34"/>
+      <c r="N111" s="36"/>
+      <c r="O111" s="36"/>
+      <c r="P111" s="36"/>
+      <c r="Q111" s="36"/>
+      <c r="R111" s="36"/>
+      <c r="S111" s="36"/>
       <c r="T111" s="34"/>
       <c r="U111" s="36"/>
       <c r="V111" s="34"/>
@@ -7113,90 +7112,98 @@
       <c r="AI111" s="36"/>
     </row>
     <row r="112" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B112" s="33"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="36"/>
-      <c r="H112" s="36"/>
-      <c r="I112" s="36"/>
-      <c r="J112" s="36"/>
-      <c r="K112" s="36"/>
-      <c r="L112" s="36"/>
-      <c r="M112" s="34"/>
-      <c r="N112" s="36"/>
-      <c r="O112" s="36"/>
-      <c r="P112" s="36"/>
-      <c r="Q112" s="36"/>
-      <c r="R112" s="36"/>
-      <c r="S112" s="36"/>
-      <c r="T112" s="34"/>
-      <c r="U112" s="36"/>
-      <c r="V112" s="34"/>
-      <c r="W112" s="36"/>
-      <c r="X112" s="36"/>
-      <c r="Y112" s="36"/>
-      <c r="Z112" s="36"/>
-      <c r="AA112" s="36"/>
-      <c r="AB112" s="36"/>
-      <c r="AC112" s="36"/>
-      <c r="AD112" s="36"/>
-      <c r="AE112" s="36"/>
-      <c r="AF112" s="36"/>
-      <c r="AG112" s="36"/>
-      <c r="AH112" s="36"/>
-      <c r="AI112" s="36"/>
+      <c r="A112" s="42"/>
+      <c r="B112" s="42"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="31"/>
+      <c r="I112" s="43"/>
+      <c r="J112" s="43"/>
+      <c r="K112" s="43"/>
+      <c r="L112" s="43"/>
+      <c r="M112" s="42"/>
+      <c r="N112" s="42"/>
+      <c r="O112" s="42"/>
+      <c r="P112" s="42"/>
+      <c r="Q112" s="42"/>
+      <c r="R112" s="42"/>
+      <c r="S112" s="42"/>
+      <c r="T112" s="42"/>
+      <c r="U112" s="43"/>
+      <c r="V112" s="42"/>
+      <c r="W112" s="43"/>
+      <c r="X112" s="43"/>
+      <c r="Y112" s="43"/>
+      <c r="Z112" s="43"/>
+      <c r="AA112" s="43"/>
+      <c r="AB112" s="43"/>
+      <c r="AC112" s="43"/>
+      <c r="AD112" s="43"/>
+      <c r="AE112" s="43"/>
+      <c r="AF112" s="43"/>
+      <c r="AG112" s="43"/>
+      <c r="AH112" s="43"/>
+      <c r="AI112" s="43"/>
     </row>
     <row r="113" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="42"/>
-      <c r="B113" s="42"/>
-      <c r="C113" s="42"/>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="43"/>
-      <c r="J113" s="43"/>
-      <c r="K113" s="43"/>
-      <c r="L113" s="43"/>
-      <c r="M113" s="42"/>
-      <c r="N113" s="42"/>
-      <c r="O113" s="42"/>
-      <c r="P113" s="42"/>
-      <c r="Q113" s="42"/>
-      <c r="R113" s="42"/>
-      <c r="S113" s="42"/>
-      <c r="T113" s="42"/>
-      <c r="U113" s="43"/>
-      <c r="V113" s="42"/>
-      <c r="W113" s="43"/>
-      <c r="X113" s="43"/>
-      <c r="Y113" s="43"/>
-      <c r="Z113" s="43"/>
-      <c r="AA113" s="43"/>
-      <c r="AB113" s="43"/>
-      <c r="AC113" s="43"/>
-      <c r="AD113" s="43"/>
-      <c r="AE113" s="43"/>
-      <c r="AF113" s="43"/>
-      <c r="AG113" s="43"/>
-      <c r="AH113" s="43"/>
-      <c r="AI113" s="43"/>
+      <c r="A113" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B113" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="C113" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D113" s="35"/>
+      <c r="E113" s="35"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="35"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="K113" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L113" s="36"/>
+      <c r="M113" s="34"/>
+      <c r="N113" s="34"/>
+      <c r="O113" s="34"/>
+      <c r="P113" s="34"/>
+      <c r="Q113" s="34"/>
+      <c r="R113" s="34"/>
+      <c r="S113" s="34"/>
+      <c r="T113" s="34"/>
+      <c r="U113" s="36"/>
+      <c r="V113" s="34"/>
+      <c r="W113" s="36"/>
+      <c r="X113" s="36"/>
+      <c r="Y113" s="36"/>
+      <c r="Z113" s="36"/>
+      <c r="AA113" s="36"/>
+      <c r="AB113" s="36"/>
+      <c r="AC113" s="36"/>
+      <c r="AD113" s="36"/>
+      <c r="AE113" s="36"/>
+      <c r="AF113" s="36"/>
+      <c r="AG113" s="36"/>
+      <c r="AH113" s="36"/>
+      <c r="AI113" s="36"/>
     </row>
     <row r="114" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="33" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B114" s="33" t="s">
-        <v>460</v>
+        <v>397</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>461</v>
+        <v>398</v>
       </c>
       <c r="D114" s="35"/>
       <c r="E114" s="35"/>
@@ -7204,12 +7211,8 @@
       <c r="G114" s="35"/>
       <c r="H114" s="35"/>
       <c r="I114" s="36"/>
-      <c r="J114" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="K114" s="36" t="s">
-        <v>47</v>
-      </c>
+      <c r="J114" s="36"/>
+      <c r="K114" s="36"/>
       <c r="L114" s="36"/>
       <c r="M114" s="34"/>
       <c r="N114" s="34"/>
@@ -7229,7 +7232,9 @@
       <c r="AB114" s="36"/>
       <c r="AC114" s="36"/>
       <c r="AD114" s="36"/>
-      <c r="AE114" s="36"/>
+      <c r="AE114" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="AF114" s="36"/>
       <c r="AG114" s="36"/>
       <c r="AH114" s="36"/>
@@ -7237,24 +7242,28 @@
     </row>
     <row r="115" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="33" t="s">
-        <v>117</v>
+        <v>399</v>
       </c>
       <c r="B115" s="33" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C115" s="34" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D115" s="35"/>
       <c r="E115" s="35"/>
       <c r="F115" s="35"/>
       <c r="G115" s="35"/>
       <c r="H115" s="35"/>
-      <c r="I115" s="36"/>
+      <c r="I115" s="36" t="s">
+        <v>57</v>
+      </c>
       <c r="J115" s="36"/>
       <c r="K115" s="36"/>
-      <c r="L115" s="36"/>
-      <c r="M115" s="34"/>
+      <c r="L115" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="M115" s="35"/>
       <c r="N115" s="34"/>
       <c r="O115" s="34"/>
       <c r="P115" s="34"/>
@@ -7262,7 +7271,9 @@
       <c r="R115" s="34"/>
       <c r="S115" s="34"/>
       <c r="T115" s="34"/>
-      <c r="U115" s="36"/>
+      <c r="U115" s="34" t="s">
+        <v>403</v>
+      </c>
       <c r="V115" s="34"/>
       <c r="W115" s="36"/>
       <c r="X115" s="36"/>
@@ -7272,9 +7283,7 @@
       <c r="AB115" s="36"/>
       <c r="AC115" s="36"/>
       <c r="AD115" s="36"/>
-      <c r="AE115" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE115" s="36"/>
       <c r="AF115" s="36"/>
       <c r="AG115" s="36"/>
       <c r="AH115" s="36"/>
@@ -7282,39 +7291,39 @@
     </row>
     <row r="116" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="33" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="B116" s="33" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C116" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="D116" s="35"/>
-      <c r="E116" s="35"/>
-      <c r="F116" s="35"/>
-      <c r="G116" s="35"/>
-      <c r="H116" s="35"/>
+        <v>405</v>
+      </c>
+      <c r="D116" s="36"/>
+      <c r="E116" s="36"/>
+      <c r="F116" s="36"/>
+      <c r="G116" s="36"/>
+      <c r="H116" s="36"/>
       <c r="I116" s="36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J116" s="36"/>
-      <c r="K116" s="36"/>
+      <c r="K116" s="34"/>
       <c r="L116" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="M116" s="35"/>
-      <c r="N116" s="34"/>
-      <c r="O116" s="34"/>
-      <c r="P116" s="34"/>
-      <c r="Q116" s="34"/>
-      <c r="R116" s="34"/>
-      <c r="S116" s="34"/>
-      <c r="T116" s="34"/>
-      <c r="U116" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="V116" s="34"/>
+        <v>406</v>
+      </c>
+      <c r="M116" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="N116" s="36"/>
+      <c r="O116" s="36"/>
+      <c r="P116" s="36"/>
+      <c r="Q116" s="36"/>
+      <c r="R116" s="36"/>
+      <c r="S116" s="36"/>
+      <c r="T116" s="36"/>
+      <c r="U116" s="36"/>
+      <c r="V116" s="36"/>
       <c r="W116" s="36"/>
       <c r="X116" s="36"/>
       <c r="Y116" s="36"/>
@@ -7331,37 +7340,33 @@
     </row>
     <row r="117" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="33" t="s">
-        <v>383</v>
+        <v>78</v>
       </c>
       <c r="B117" s="33" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C117" s="34" t="s">
-        <v>405</v>
+        <v>45</v>
       </c>
       <c r="D117" s="36"/>
       <c r="E117" s="36"/>
       <c r="F117" s="36"/>
       <c r="G117" s="36"/>
       <c r="H117" s="36"/>
-      <c r="I117" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="J117" s="36"/>
+      <c r="I117" s="36"/>
+      <c r="J117" s="34"/>
       <c r="K117" s="34"/>
-      <c r="L117" s="36" t="s">
-        <v>406</v>
-      </c>
-      <c r="M117" s="34" t="s">
-        <v>407</v>
-      </c>
+      <c r="L117" s="36"/>
+      <c r="M117" s="36"/>
       <c r="N117" s="36"/>
       <c r="O117" s="36"/>
       <c r="P117" s="36"/>
       <c r="Q117" s="36"/>
       <c r="R117" s="36"/>
       <c r="S117" s="36"/>
-      <c r="T117" s="36"/>
+      <c r="T117" s="36" t="s">
+        <v>508</v>
+      </c>
       <c r="U117" s="36"/>
       <c r="V117" s="36"/>
       <c r="W117" s="36"/>
@@ -7372,7 +7377,9 @@
       <c r="AB117" s="36"/>
       <c r="AC117" s="36"/>
       <c r="AD117" s="36"/>
-      <c r="AE117" s="36"/>
+      <c r="AE117" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="AF117" s="36"/>
       <c r="AG117" s="36"/>
       <c r="AH117" s="36"/>
@@ -7380,35 +7387,29 @@
     </row>
     <row r="118" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B118" s="33" t="s">
-        <v>408</v>
-      </c>
-      <c r="C118" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="36"/>
-      <c r="G118" s="36"/>
-      <c r="H118" s="36"/>
+        <v>68</v>
+      </c>
+      <c r="B118" s="33"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="35"/>
+      <c r="F118" s="35"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="35"/>
       <c r="I118" s="36"/>
-      <c r="J118" s="34"/>
-      <c r="K118" s="34"/>
+      <c r="J118" s="36"/>
+      <c r="K118" s="36"/>
       <c r="L118" s="36"/>
-      <c r="M118" s="36"/>
-      <c r="N118" s="36"/>
-      <c r="O118" s="36"/>
-      <c r="P118" s="36"/>
-      <c r="Q118" s="36"/>
-      <c r="R118" s="36"/>
-      <c r="S118" s="36"/>
-      <c r="T118" s="36" t="s">
-        <v>508</v>
-      </c>
+      <c r="M118" s="34"/>
+      <c r="N118" s="34"/>
+      <c r="O118" s="34"/>
+      <c r="P118" s="34"/>
+      <c r="Q118" s="34"/>
+      <c r="R118" s="34"/>
+      <c r="S118" s="34"/>
+      <c r="T118" s="34"/>
       <c r="U118" s="36"/>
-      <c r="V118" s="36"/>
+      <c r="V118" s="34"/>
       <c r="W118" s="36"/>
       <c r="X118" s="36"/>
       <c r="Y118" s="36"/>
@@ -7417,121 +7418,125 @@
       <c r="AB118" s="36"/>
       <c r="AC118" s="36"/>
       <c r="AD118" s="36"/>
-      <c r="AE118" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE118" s="36"/>
       <c r="AF118" s="36"/>
       <c r="AG118" s="36"/>
       <c r="AH118" s="36"/>
       <c r="AI118" s="36"/>
     </row>
     <row r="119" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B119" s="33"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="35"/>
-      <c r="F119" s="35"/>
-      <c r="G119" s="35"/>
-      <c r="H119" s="35"/>
-      <c r="I119" s="36"/>
-      <c r="J119" s="36"/>
-      <c r="K119" s="36"/>
-      <c r="L119" s="36"/>
-      <c r="M119" s="34"/>
-      <c r="N119" s="34"/>
-      <c r="O119" s="34"/>
-      <c r="P119" s="34"/>
-      <c r="Q119" s="34"/>
-      <c r="R119" s="34"/>
-      <c r="S119" s="34"/>
-      <c r="T119" s="34"/>
-      <c r="U119" s="36"/>
-      <c r="V119" s="34"/>
-      <c r="W119" s="36"/>
-      <c r="X119" s="36"/>
-      <c r="Y119" s="36"/>
-      <c r="Z119" s="36"/>
-      <c r="AA119" s="36"/>
-      <c r="AB119" s="36"/>
-      <c r="AC119" s="36"/>
-      <c r="AD119" s="36"/>
-      <c r="AE119" s="36"/>
-      <c r="AF119" s="36"/>
-      <c r="AG119" s="36"/>
-      <c r="AH119" s="36"/>
-      <c r="AI119" s="36"/>
+      <c r="A119" s="42"/>
+      <c r="B119" s="42"/>
+      <c r="C119" s="42"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="31"/>
+      <c r="G119" s="31"/>
+      <c r="H119" s="31"/>
+      <c r="I119" s="43"/>
+      <c r="J119" s="43"/>
+      <c r="K119" s="43"/>
+      <c r="L119" s="43"/>
+      <c r="M119" s="42"/>
+      <c r="N119" s="42"/>
+      <c r="O119" s="42"/>
+      <c r="P119" s="42"/>
+      <c r="Q119" s="42"/>
+      <c r="R119" s="42"/>
+      <c r="S119" s="42"/>
+      <c r="T119" s="42"/>
+      <c r="U119" s="43"/>
+      <c r="V119" s="42"/>
+      <c r="W119" s="43"/>
+      <c r="X119" s="43"/>
+      <c r="Y119" s="43"/>
+      <c r="Z119" s="43"/>
+      <c r="AA119" s="43"/>
+      <c r="AB119" s="43"/>
+      <c r="AC119" s="43"/>
+      <c r="AD119" s="43"/>
+      <c r="AE119" s="43"/>
+      <c r="AF119" s="43"/>
+      <c r="AG119" s="43"/>
+      <c r="AH119" s="43"/>
+      <c r="AI119" s="43"/>
     </row>
     <row r="120" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="42"/>
-      <c r="B120" s="42"/>
-      <c r="C120" s="42"/>
-      <c r="D120" s="31"/>
-      <c r="E120" s="31"/>
-      <c r="F120" s="31"/>
-      <c r="G120" s="31"/>
-      <c r="H120" s="31"/>
-      <c r="I120" s="43"/>
-      <c r="J120" s="43"/>
-      <c r="K120" s="43"/>
-      <c r="L120" s="43"/>
-      <c r="M120" s="42"/>
-      <c r="N120" s="42"/>
-      <c r="O120" s="42"/>
-      <c r="P120" s="42"/>
-      <c r="Q120" s="42"/>
-      <c r="R120" s="42"/>
-      <c r="S120" s="42"/>
-      <c r="T120" s="42"/>
-      <c r="U120" s="43"/>
-      <c r="V120" s="42"/>
-      <c r="W120" s="43"/>
-      <c r="X120" s="43"/>
-      <c r="Y120" s="43"/>
-      <c r="Z120" s="43"/>
-      <c r="AA120" s="43"/>
-      <c r="AB120" s="43"/>
-      <c r="AC120" s="43"/>
-      <c r="AD120" s="43"/>
-      <c r="AE120" s="43"/>
-      <c r="AF120" s="43"/>
-      <c r="AG120" s="43"/>
-      <c r="AH120" s="43"/>
-      <c r="AI120" s="43"/>
+      <c r="A120" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B120" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="C120" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D120" s="46"/>
+      <c r="E120" s="46"/>
+      <c r="F120" s="46"/>
+      <c r="G120" s="46"/>
+      <c r="H120" s="46"/>
+      <c r="I120" s="47"/>
+      <c r="J120" s="47"/>
+      <c r="K120" s="47" t="s">
+        <v>396</v>
+      </c>
+      <c r="L120" s="47"/>
+      <c r="M120" s="45"/>
+      <c r="N120" s="45"/>
+      <c r="O120" s="45"/>
+      <c r="P120" s="45"/>
+      <c r="Q120" s="45"/>
+      <c r="R120" s="45"/>
+      <c r="S120" s="45"/>
+      <c r="T120" s="45"/>
+      <c r="U120" s="47"/>
+      <c r="V120" s="45"/>
+      <c r="W120" s="47"/>
+      <c r="X120" s="47"/>
+      <c r="Y120" s="47"/>
+      <c r="Z120" s="47"/>
+      <c r="AA120" s="47"/>
+      <c r="AB120" s="47"/>
+      <c r="AC120" s="47"/>
+      <c r="AD120" s="47"/>
+      <c r="AE120" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF120" s="47"/>
+      <c r="AG120" s="47"/>
+      <c r="AH120" s="47"/>
+      <c r="AI120" s="47"/>
     </row>
     <row r="121" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B121" s="44" t="s">
-        <v>409</v>
+      <c r="A121" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B121" s="48" t="s">
+        <v>410</v>
       </c>
       <c r="C121" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D121" s="46"/>
-      <c r="E121" s="46"/>
-      <c r="F121" s="46"/>
-      <c r="G121" s="46"/>
-      <c r="H121" s="46"/>
+        <v>411</v>
+      </c>
+      <c r="D121" s="47"/>
+      <c r="E121" s="47"/>
+      <c r="F121" s="47"/>
+      <c r="G121" s="47"/>
+      <c r="H121" s="47"/>
       <c r="I121" s="47"/>
       <c r="J121" s="47"/>
-      <c r="K121" s="47" t="s">
-        <v>396</v>
-      </c>
+      <c r="K121" s="47"/>
       <c r="L121" s="47"/>
-      <c r="M121" s="45"/>
-      <c r="N121" s="45"/>
-      <c r="O121" s="45"/>
-      <c r="P121" s="45"/>
-      <c r="Q121" s="45"/>
-      <c r="R121" s="45"/>
-      <c r="S121" s="45"/>
-      <c r="T121" s="45"/>
+      <c r="M121" s="47"/>
+      <c r="N121" s="47"/>
+      <c r="O121" s="47"/>
+      <c r="P121" s="47"/>
+      <c r="Q121" s="47"/>
+      <c r="R121" s="47"/>
+      <c r="S121" s="47"/>
+      <c r="T121" s="47"/>
       <c r="U121" s="47"/>
-      <c r="V121" s="45"/>
+      <c r="V121" s="47"/>
       <c r="W121" s="47"/>
       <c r="X121" s="47"/>
       <c r="Y121" s="47"/>
@@ -7540,23 +7545,21 @@
       <c r="AB121" s="47"/>
       <c r="AC121" s="47"/>
       <c r="AD121" s="47"/>
-      <c r="AE121" s="47" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE121" s="47"/>
       <c r="AF121" s="47"/>
       <c r="AG121" s="47"/>
       <c r="AH121" s="47"/>
       <c r="AI121" s="47"/>
     </row>
     <row r="122" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="48" t="s">
+      <c r="A122" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B122" s="48" t="s">
-        <v>410</v>
+      <c r="B122" s="44" t="s">
+        <v>412</v>
       </c>
       <c r="C122" s="45" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D122" s="47"/>
       <c r="E122" s="47"/>
@@ -7565,7 +7568,9 @@
       <c r="H122" s="47"/>
       <c r="I122" s="47"/>
       <c r="J122" s="47"/>
-      <c r="K122" s="47"/>
+      <c r="K122" s="45" t="s">
+        <v>414</v>
+      </c>
       <c r="L122" s="47"/>
       <c r="M122" s="47"/>
       <c r="N122" s="47"/>
@@ -7596,10 +7601,10 @@
         <v>117</v>
       </c>
       <c r="B123" s="44" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C123" s="45" t="s">
-        <v>413</v>
+        <v>513</v>
       </c>
       <c r="D123" s="47"/>
       <c r="E123" s="47"/>
@@ -7608,9 +7613,7 @@
       <c r="H123" s="47"/>
       <c r="I123" s="47"/>
       <c r="J123" s="47"/>
-      <c r="K123" s="45" t="s">
-        <v>414</v>
-      </c>
+      <c r="K123" s="45"/>
       <c r="L123" s="47"/>
       <c r="M123" s="47"/>
       <c r="N123" s="47"/>
@@ -7641,10 +7644,10 @@
         <v>117</v>
       </c>
       <c r="B124" s="44" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="C124" s="45" t="s">
-        <v>513</v>
+        <v>462</v>
       </c>
       <c r="D124" s="47"/>
       <c r="E124" s="47"/>
@@ -7653,7 +7656,9 @@
       <c r="H124" s="47"/>
       <c r="I124" s="47"/>
       <c r="J124" s="47"/>
-      <c r="K124" s="45"/>
+      <c r="K124" s="45" t="s">
+        <v>414</v>
+      </c>
       <c r="L124" s="47"/>
       <c r="M124" s="47"/>
       <c r="N124" s="47"/>
@@ -7684,10 +7689,10 @@
         <v>117</v>
       </c>
       <c r="B125" s="44" t="s">
-        <v>466</v>
-      </c>
-      <c r="C125" s="45" t="s">
-        <v>462</v>
+        <v>416</v>
+      </c>
+      <c r="C125" s="47" t="s">
+        <v>463</v>
       </c>
       <c r="D125" s="47"/>
       <c r="E125" s="47"/>
@@ -7695,9 +7700,9 @@
       <c r="G125" s="47"/>
       <c r="H125" s="47"/>
       <c r="I125" s="47"/>
-      <c r="J125" s="47"/>
+      <c r="J125" s="46"/>
       <c r="K125" s="45" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L125" s="47"/>
       <c r="M125" s="47"/>
@@ -7729,32 +7734,34 @@
         <v>117</v>
       </c>
       <c r="B126" s="44" t="s">
-        <v>416</v>
-      </c>
-      <c r="C126" s="47" t="s">
-        <v>463</v>
-      </c>
-      <c r="D126" s="47"/>
-      <c r="E126" s="47"/>
-      <c r="F126" s="47"/>
-      <c r="G126" s="47"/>
-      <c r="H126" s="47"/>
+        <v>418</v>
+      </c>
+      <c r="C126" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D126" s="46"/>
+      <c r="E126" s="46"/>
+      <c r="F126" s="46"/>
+      <c r="G126" s="46"/>
+      <c r="H126" s="46"/>
       <c r="I126" s="47"/>
-      <c r="J126" s="46"/>
-      <c r="K126" s="45" t="s">
-        <v>417</v>
+      <c r="J126" s="45" t="s">
+        <v>467</v>
+      </c>
+      <c r="K126" s="47" t="s">
+        <v>419</v>
       </c>
       <c r="L126" s="47"/>
-      <c r="M126" s="47"/>
-      <c r="N126" s="47"/>
-      <c r="O126" s="47"/>
-      <c r="P126" s="47"/>
-      <c r="Q126" s="47"/>
-      <c r="R126" s="47"/>
-      <c r="S126" s="47"/>
-      <c r="T126" s="47"/>
+      <c r="M126" s="45"/>
+      <c r="N126" s="45"/>
+      <c r="O126" s="45"/>
+      <c r="P126" s="45"/>
+      <c r="Q126" s="45"/>
+      <c r="R126" s="45"/>
+      <c r="S126" s="45"/>
+      <c r="T126" s="45"/>
       <c r="U126" s="47"/>
-      <c r="V126" s="47"/>
+      <c r="V126" s="45"/>
       <c r="W126" s="47"/>
       <c r="X126" s="47"/>
       <c r="Y126" s="47"/>
@@ -7774,10 +7781,10 @@
         <v>117</v>
       </c>
       <c r="B127" s="44" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C127" s="45" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D127" s="46"/>
       <c r="E127" s="46"/>
@@ -7786,7 +7793,7 @@
       <c r="H127" s="46"/>
       <c r="I127" s="47"/>
       <c r="J127" s="45" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K127" s="47" t="s">
         <v>419</v>
@@ -7821,10 +7828,10 @@
         <v>117</v>
       </c>
       <c r="B128" s="44" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C128" s="45" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D128" s="46"/>
       <c r="E128" s="46"/>
@@ -7833,7 +7840,7 @@
       <c r="H128" s="46"/>
       <c r="I128" s="47"/>
       <c r="J128" s="45" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K128" s="47" t="s">
         <v>419</v>
@@ -7868,34 +7875,34 @@
         <v>117</v>
       </c>
       <c r="B129" s="44" t="s">
-        <v>421</v>
-      </c>
-      <c r="C129" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="D129" s="46"/>
-      <c r="E129" s="46"/>
-      <c r="F129" s="46"/>
-      <c r="G129" s="46"/>
-      <c r="H129" s="46"/>
+        <v>465</v>
+      </c>
+      <c r="C129" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="D129" s="47"/>
+      <c r="E129" s="47"/>
+      <c r="F129" s="47"/>
+      <c r="G129" s="47"/>
+      <c r="H129" s="47"/>
       <c r="I129" s="47"/>
       <c r="J129" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="K129" s="47" t="s">
-        <v>419</v>
+      <c r="K129" s="45" t="s">
+        <v>417</v>
       </c>
       <c r="L129" s="47"/>
-      <c r="M129" s="45"/>
-      <c r="N129" s="45"/>
-      <c r="O129" s="45"/>
-      <c r="P129" s="45"/>
-      <c r="Q129" s="45"/>
-      <c r="R129" s="45"/>
-      <c r="S129" s="45"/>
-      <c r="T129" s="45"/>
+      <c r="M129" s="47"/>
+      <c r="N129" s="47"/>
+      <c r="O129" s="47"/>
+      <c r="P129" s="47"/>
+      <c r="Q129" s="47"/>
+      <c r="R129" s="47"/>
+      <c r="S129" s="47"/>
+      <c r="T129" s="47"/>
       <c r="U129" s="47"/>
-      <c r="V129" s="45"/>
+      <c r="V129" s="47"/>
       <c r="W129" s="47"/>
       <c r="X129" s="47"/>
       <c r="Y129" s="47"/>
@@ -7915,34 +7922,34 @@
         <v>117</v>
       </c>
       <c r="B130" s="44" t="s">
-        <v>465</v>
-      </c>
-      <c r="C130" s="47" t="s">
-        <v>422</v>
-      </c>
-      <c r="D130" s="47"/>
-      <c r="E130" s="47"/>
-      <c r="F130" s="47"/>
-      <c r="G130" s="47"/>
-      <c r="H130" s="47"/>
+        <v>423</v>
+      </c>
+      <c r="C130" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="D130" s="46"/>
+      <c r="E130" s="46"/>
+      <c r="F130" s="46"/>
+      <c r="G130" s="46"/>
+      <c r="H130" s="46"/>
       <c r="I130" s="47"/>
       <c r="J130" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="K130" s="45" t="s">
-        <v>417</v>
+      <c r="K130" s="47" t="s">
+        <v>419</v>
       </c>
       <c r="L130" s="47"/>
-      <c r="M130" s="47"/>
-      <c r="N130" s="47"/>
-      <c r="O130" s="47"/>
-      <c r="P130" s="47"/>
-      <c r="Q130" s="47"/>
-      <c r="R130" s="47"/>
-      <c r="S130" s="47"/>
-      <c r="T130" s="47"/>
+      <c r="M130" s="45"/>
+      <c r="N130" s="45"/>
+      <c r="O130" s="45"/>
+      <c r="P130" s="45"/>
+      <c r="Q130" s="45"/>
+      <c r="R130" s="45"/>
+      <c r="S130" s="45"/>
+      <c r="T130" s="45"/>
       <c r="U130" s="47"/>
-      <c r="V130" s="47"/>
+      <c r="V130" s="45"/>
       <c r="W130" s="47"/>
       <c r="X130" s="47"/>
       <c r="Y130" s="47"/>
@@ -7962,10 +7969,10 @@
         <v>117</v>
       </c>
       <c r="B131" s="44" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C131" s="45" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="D131" s="46"/>
       <c r="E131" s="46"/>
@@ -8009,10 +8016,10 @@
         <v>117</v>
       </c>
       <c r="B132" s="44" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="C132" s="45" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="D132" s="46"/>
       <c r="E132" s="46"/>
@@ -8021,10 +8028,10 @@
       <c r="H132" s="46"/>
       <c r="I132" s="47"/>
       <c r="J132" s="45" t="s">
-        <v>469</v>
-      </c>
-      <c r="K132" s="47" t="s">
-        <v>419</v>
+        <v>482</v>
+      </c>
+      <c r="K132" s="45" t="s">
+        <v>417</v>
       </c>
       <c r="L132" s="47"/>
       <c r="M132" s="45"/>
@@ -8056,34 +8063,34 @@
         <v>117</v>
       </c>
       <c r="B133" s="44" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C133" s="45" t="s">
-        <v>481</v>
-      </c>
-      <c r="D133" s="46"/>
-      <c r="E133" s="46"/>
-      <c r="F133" s="46"/>
-      <c r="G133" s="46"/>
-      <c r="H133" s="46"/>
+        <v>492</v>
+      </c>
+      <c r="D133" s="47"/>
+      <c r="E133" s="47"/>
+      <c r="F133" s="47"/>
+      <c r="G133" s="47"/>
+      <c r="H133" s="47"/>
       <c r="I133" s="47"/>
       <c r="J133" s="45" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K133" s="45" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L133" s="47"/>
-      <c r="M133" s="45"/>
-      <c r="N133" s="45"/>
-      <c r="O133" s="45"/>
-      <c r="P133" s="45"/>
-      <c r="Q133" s="45"/>
-      <c r="R133" s="45"/>
-      <c r="S133" s="45"/>
-      <c r="T133" s="45"/>
+      <c r="M133" s="47"/>
+      <c r="N133" s="47"/>
+      <c r="O133" s="47"/>
+      <c r="P133" s="47"/>
+      <c r="Q133" s="47"/>
+      <c r="R133" s="47"/>
+      <c r="S133" s="47"/>
+      <c r="T133" s="47"/>
       <c r="U133" s="47"/>
-      <c r="V133" s="45"/>
+      <c r="V133" s="47"/>
       <c r="W133" s="47"/>
       <c r="X133" s="47"/>
       <c r="Y133" s="47"/>
@@ -8103,10 +8110,10 @@
         <v>117</v>
       </c>
       <c r="B134" s="44" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C134" s="45" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D134" s="47"/>
       <c r="E134" s="47"/>
@@ -8115,7 +8122,7 @@
       <c r="H134" s="47"/>
       <c r="I134" s="47"/>
       <c r="J134" s="45" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K134" s="45" t="s">
         <v>419</v>
@@ -8150,10 +8157,10 @@
         <v>117</v>
       </c>
       <c r="B135" s="44" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C135" s="45" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D135" s="47"/>
       <c r="E135" s="47"/>
@@ -8162,7 +8169,7 @@
       <c r="H135" s="47"/>
       <c r="I135" s="47"/>
       <c r="J135" s="45" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K135" s="45" t="s">
         <v>419</v>
@@ -8197,10 +8204,10 @@
         <v>117</v>
       </c>
       <c r="B136" s="44" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C136" s="45" t="s">
-        <v>494</v>
+        <v>210</v>
       </c>
       <c r="D136" s="47"/>
       <c r="E136" s="47"/>
@@ -8209,7 +8216,7 @@
       <c r="H136" s="47"/>
       <c r="I136" s="47"/>
       <c r="J136" s="45" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K136" s="45" t="s">
         <v>419</v>
@@ -8244,10 +8251,10 @@
         <v>117</v>
       </c>
       <c r="B137" s="44" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C137" s="45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D137" s="47"/>
       <c r="E137" s="47"/>
@@ -8256,7 +8263,7 @@
       <c r="H137" s="47"/>
       <c r="I137" s="47"/>
       <c r="J137" s="45" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K137" s="45" t="s">
         <v>419</v>
@@ -8291,10 +8298,10 @@
         <v>117</v>
       </c>
       <c r="B138" s="44" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C138" s="45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D138" s="47"/>
       <c r="E138" s="47"/>
@@ -8303,7 +8310,7 @@
       <c r="H138" s="47"/>
       <c r="I138" s="47"/>
       <c r="J138" s="45" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K138" s="45" t="s">
         <v>419</v>
@@ -8338,10 +8345,10 @@
         <v>117</v>
       </c>
       <c r="B139" s="44" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C139" s="45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D139" s="47"/>
       <c r="E139" s="47"/>
@@ -8350,7 +8357,7 @@
       <c r="H139" s="47"/>
       <c r="I139" s="47"/>
       <c r="J139" s="45" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K139" s="45" t="s">
         <v>419</v>
@@ -8385,10 +8392,10 @@
         <v>117</v>
       </c>
       <c r="B140" s="44" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C140" s="45" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D140" s="47"/>
       <c r="E140" s="47"/>
@@ -8397,7 +8404,7 @@
       <c r="H140" s="47"/>
       <c r="I140" s="47"/>
       <c r="J140" s="45" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K140" s="45" t="s">
         <v>419</v>
@@ -8432,10 +8439,10 @@
         <v>117</v>
       </c>
       <c r="B141" s="44" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C141" s="45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D141" s="47"/>
       <c r="E141" s="47"/>
@@ -8444,7 +8451,7 @@
       <c r="H141" s="47"/>
       <c r="I141" s="47"/>
       <c r="J141" s="45" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K141" s="45" t="s">
         <v>419</v>
@@ -8479,10 +8486,10 @@
         <v>117</v>
       </c>
       <c r="B142" s="44" t="s">
-        <v>480</v>
+        <v>426</v>
       </c>
       <c r="C142" s="45" t="s">
-        <v>215</v>
+        <v>427</v>
       </c>
       <c r="D142" s="47"/>
       <c r="E142" s="47"/>
@@ -8490,11 +8497,11 @@
       <c r="G142" s="47"/>
       <c r="H142" s="47"/>
       <c r="I142" s="47"/>
-      <c r="J142" s="45" t="s">
-        <v>491</v>
+      <c r="J142" s="47" t="s">
+        <v>495</v>
       </c>
       <c r="K142" s="45" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="L142" s="47"/>
       <c r="M142" s="47"/>
@@ -8526,10 +8533,10 @@
         <v>117</v>
       </c>
       <c r="B143" s="44" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C143" s="45" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D143" s="47"/>
       <c r="E143" s="47"/>
@@ -8537,12 +8544,10 @@
       <c r="G143" s="47"/>
       <c r="H143" s="47"/>
       <c r="I143" s="47"/>
-      <c r="J143" s="47" t="s">
-        <v>495</v>
-      </c>
-      <c r="K143" s="45" t="s">
-        <v>428</v>
-      </c>
+      <c r="J143" s="45" t="s">
+        <v>431</v>
+      </c>
+      <c r="K143" s="45"/>
       <c r="L143" s="47"/>
       <c r="M143" s="47"/>
       <c r="N143" s="47"/>
@@ -8573,10 +8578,10 @@
         <v>117</v>
       </c>
       <c r="B144" s="44" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C144" s="45" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D144" s="47"/>
       <c r="E144" s="47"/>
@@ -8585,9 +8590,11 @@
       <c r="H144" s="47"/>
       <c r="I144" s="47"/>
       <c r="J144" s="45" t="s">
-        <v>431</v>
-      </c>
-      <c r="K144" s="45"/>
+        <v>482</v>
+      </c>
+      <c r="K144" s="45" t="s">
+        <v>419</v>
+      </c>
       <c r="L144" s="47"/>
       <c r="M144" s="47"/>
       <c r="N144" s="47"/>
@@ -8618,34 +8625,34 @@
         <v>117</v>
       </c>
       <c r="B145" s="44" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C145" s="45" t="s">
-        <v>425</v>
-      </c>
-      <c r="D145" s="47"/>
-      <c r="E145" s="47"/>
-      <c r="F145" s="47"/>
-      <c r="G145" s="47"/>
-      <c r="H145" s="47"/>
+        <v>434</v>
+      </c>
+      <c r="D145" s="46"/>
+      <c r="E145" s="46"/>
+      <c r="F145" s="46"/>
+      <c r="G145" s="46"/>
+      <c r="H145" s="46"/>
       <c r="I145" s="47"/>
       <c r="J145" s="45" t="s">
-        <v>482</v>
-      </c>
-      <c r="K145" s="45" t="s">
+        <v>468</v>
+      </c>
+      <c r="K145" s="47" t="s">
         <v>419</v>
       </c>
       <c r="L145" s="47"/>
-      <c r="M145" s="47"/>
-      <c r="N145" s="47"/>
-      <c r="O145" s="47"/>
-      <c r="P145" s="47"/>
-      <c r="Q145" s="47"/>
-      <c r="R145" s="47"/>
-      <c r="S145" s="47"/>
-      <c r="T145" s="47"/>
+      <c r="M145" s="45"/>
+      <c r="N145" s="45"/>
+      <c r="O145" s="45"/>
+      <c r="P145" s="45"/>
+      <c r="Q145" s="45"/>
+      <c r="R145" s="45"/>
+      <c r="S145" s="45"/>
+      <c r="T145" s="45"/>
       <c r="U145" s="47"/>
-      <c r="V145" s="47"/>
+      <c r="V145" s="45"/>
       <c r="W145" s="47"/>
       <c r="X145" s="47"/>
       <c r="Y145" s="47"/>
@@ -8665,10 +8672,10 @@
         <v>117</v>
       </c>
       <c r="B146" s="44" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C146" s="45" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D146" s="46"/>
       <c r="E146" s="46"/>
@@ -8676,12 +8683,10 @@
       <c r="G146" s="46"/>
       <c r="H146" s="46"/>
       <c r="I146" s="47"/>
-      <c r="J146" s="45" t="s">
-        <v>468</v>
-      </c>
-      <c r="K146" s="47" t="s">
-        <v>419</v>
-      </c>
+      <c r="J146" s="47" t="s">
+        <v>470</v>
+      </c>
+      <c r="K146" s="47"/>
       <c r="L146" s="47"/>
       <c r="M146" s="45"/>
       <c r="N146" s="45"/>
@@ -8712,10 +8717,10 @@
         <v>117</v>
       </c>
       <c r="B147" s="44" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C147" s="45" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D147" s="46"/>
       <c r="E147" s="46"/>
@@ -8757,32 +8762,34 @@
         <v>117</v>
       </c>
       <c r="B148" s="44" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C148" s="45" t="s">
-        <v>438</v>
-      </c>
-      <c r="D148" s="46"/>
-      <c r="E148" s="46"/>
-      <c r="F148" s="46"/>
-      <c r="G148" s="46"/>
-      <c r="H148" s="46"/>
+        <v>440</v>
+      </c>
+      <c r="D148" s="47"/>
+      <c r="E148" s="47"/>
+      <c r="F148" s="47"/>
+      <c r="G148" s="47"/>
+      <c r="H148" s="47"/>
       <c r="I148" s="47"/>
-      <c r="J148" s="47" t="s">
-        <v>470</v>
-      </c>
-      <c r="K148" s="47"/>
+      <c r="J148" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="K148" s="45" t="s">
+        <v>441</v>
+      </c>
       <c r="L148" s="47"/>
-      <c r="M148" s="45"/>
-      <c r="N148" s="45"/>
-      <c r="O148" s="45"/>
-      <c r="P148" s="45"/>
-      <c r="Q148" s="45"/>
-      <c r="R148" s="45"/>
-      <c r="S148" s="45"/>
-      <c r="T148" s="45"/>
+      <c r="M148" s="47"/>
+      <c r="N148" s="47"/>
+      <c r="O148" s="47"/>
+      <c r="P148" s="47"/>
+      <c r="Q148" s="47"/>
+      <c r="R148" s="47"/>
+      <c r="S148" s="47"/>
+      <c r="T148" s="47"/>
       <c r="U148" s="47"/>
-      <c r="V148" s="45"/>
+      <c r="V148" s="47"/>
       <c r="W148" s="47"/>
       <c r="X148" s="47"/>
       <c r="Y148" s="47"/>
@@ -8802,10 +8809,10 @@
         <v>117</v>
       </c>
       <c r="B149" s="44" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C149" s="45" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D149" s="47"/>
       <c r="E149" s="47"/>
@@ -8816,9 +8823,7 @@
       <c r="J149" s="45" t="s">
         <v>482</v>
       </c>
-      <c r="K149" s="45" t="s">
-        <v>441</v>
-      </c>
+      <c r="K149" s="45"/>
       <c r="L149" s="47"/>
       <c r="M149" s="47"/>
       <c r="N149" s="47"/>
@@ -8849,10 +8854,10 @@
         <v>117</v>
       </c>
       <c r="B150" s="44" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C150" s="45" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D150" s="47"/>
       <c r="E150" s="47"/>
@@ -8894,10 +8899,10 @@
         <v>117</v>
       </c>
       <c r="B151" s="44" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C151" s="45" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D151" s="47"/>
       <c r="E151" s="47"/>
@@ -8936,35 +8941,29 @@
     </row>
     <row r="152" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B152" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="C152" s="45" t="s">
-        <v>447</v>
-      </c>
-      <c r="D152" s="47"/>
-      <c r="E152" s="47"/>
-      <c r="F152" s="47"/>
-      <c r="G152" s="47"/>
-      <c r="H152" s="47"/>
+        <v>68</v>
+      </c>
+      <c r="B152" s="44"/>
+      <c r="C152" s="45"/>
+      <c r="D152" s="46"/>
+      <c r="E152" s="46"/>
+      <c r="F152" s="46"/>
+      <c r="G152" s="46"/>
+      <c r="H152" s="46"/>
       <c r="I152" s="47"/>
-      <c r="J152" s="45" t="s">
-        <v>482</v>
-      </c>
-      <c r="K152" s="45"/>
+      <c r="J152" s="47"/>
+      <c r="K152" s="47"/>
       <c r="L152" s="47"/>
-      <c r="M152" s="47"/>
-      <c r="N152" s="47"/>
-      <c r="O152" s="47"/>
-      <c r="P152" s="47"/>
-      <c r="Q152" s="47"/>
-      <c r="R152" s="47"/>
-      <c r="S152" s="47"/>
-      <c r="T152" s="47"/>
+      <c r="M152" s="45"/>
+      <c r="N152" s="45"/>
+      <c r="O152" s="45"/>
+      <c r="P152" s="45"/>
+      <c r="Q152" s="45"/>
+      <c r="R152" s="45"/>
+      <c r="S152" s="45"/>
+      <c r="T152" s="45"/>
       <c r="U152" s="47"/>
-      <c r="V152" s="47"/>
+      <c r="V152" s="45"/>
       <c r="W152" s="47"/>
       <c r="X152" s="47"/>
       <c r="Y152" s="47"/>
@@ -8980,62 +8979,70 @@
       <c r="AI152" s="47"/>
     </row>
     <row r="153" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B153" s="44"/>
-      <c r="C153" s="45"/>
-      <c r="D153" s="46"/>
-      <c r="E153" s="46"/>
-      <c r="F153" s="46"/>
-      <c r="G153" s="46"/>
-      <c r="H153" s="46"/>
-      <c r="I153" s="47"/>
-      <c r="J153" s="47"/>
-      <c r="K153" s="47"/>
-      <c r="L153" s="47"/>
-      <c r="M153" s="45"/>
-      <c r="N153" s="45"/>
-      <c r="O153" s="45"/>
-      <c r="P153" s="45"/>
-      <c r="Q153" s="45"/>
-      <c r="R153" s="45"/>
-      <c r="S153" s="45"/>
-      <c r="T153" s="45"/>
-      <c r="U153" s="47"/>
-      <c r="V153" s="45"/>
-      <c r="W153" s="47"/>
-      <c r="X153" s="47"/>
-      <c r="Y153" s="47"/>
-      <c r="Z153" s="47"/>
-      <c r="AA153" s="47"/>
-      <c r="AB153" s="47"/>
-      <c r="AC153" s="47"/>
-      <c r="AD153" s="47"/>
-      <c r="AE153" s="47"/>
-      <c r="AF153" s="47"/>
-      <c r="AG153" s="47"/>
-      <c r="AH153" s="47"/>
-      <c r="AI153" s="47"/>
+      <c r="A153" s="31"/>
+      <c r="B153" s="31"/>
+      <c r="C153" s="31"/>
+      <c r="E153" s="31"/>
+      <c r="F153" s="31"/>
+      <c r="AE153" s="31"/>
+      <c r="AF153" s="31"/>
+      <c r="AG153" s="31"/>
+      <c r="AH153" s="31"/>
+      <c r="AI153" s="31"/>
     </row>
     <row r="154" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="31"/>
-      <c r="B154" s="31"/>
-      <c r="C154" s="31"/>
-      <c r="E154" s="31"/>
-      <c r="F154" s="31"/>
-      <c r="AE154" s="31"/>
-      <c r="AF154" s="31"/>
-      <c r="AG154" s="31"/>
-      <c r="AH154" s="31"/>
-      <c r="AI154" s="31"/>
+      <c r="A154" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B154" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C154" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D154" s="50"/>
+      <c r="E154" s="50"/>
+      <c r="F154" s="50"/>
+      <c r="G154" s="50"/>
+      <c r="H154" s="50"/>
+      <c r="I154" s="50"/>
+      <c r="J154" s="50"/>
+      <c r="K154" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="L154" s="50"/>
+      <c r="M154" s="50"/>
+      <c r="N154" s="50"/>
+      <c r="O154" s="50"/>
+      <c r="P154" s="50"/>
+      <c r="Q154" s="50"/>
+      <c r="R154" s="50"/>
+      <c r="S154" s="50"/>
+      <c r="T154" s="50"/>
+      <c r="U154" s="50"/>
+      <c r="V154" s="50"/>
+      <c r="W154" s="50"/>
+      <c r="X154" s="50"/>
+      <c r="Y154" s="50"/>
+      <c r="Z154" s="50"/>
+      <c r="AA154" s="50"/>
+      <c r="AB154" s="50"/>
+      <c r="AC154" s="50"/>
+      <c r="AD154" s="50"/>
+      <c r="AE154" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF154" s="50"/>
+      <c r="AG154" s="50"/>
+      <c r="AH154" s="50"/>
+      <c r="AI154" s="50"/>
     </row>
     <row r="155" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B155" s="49" t="s">
-        <v>48</v>
+        <v>78</v>
+      </c>
+      <c r="B155" s="52" t="s">
+        <v>238</v>
       </c>
       <c r="C155" s="50" t="s">
         <v>45</v>
@@ -9047,9 +9054,7 @@
       <c r="H155" s="50"/>
       <c r="I155" s="50"/>
       <c r="J155" s="50"/>
-      <c r="K155" s="51" t="s">
-        <v>50</v>
-      </c>
+      <c r="K155" s="50"/>
       <c r="L155" s="50"/>
       <c r="M155" s="50"/>
       <c r="N155" s="50"/>
@@ -9058,7 +9063,9 @@
       <c r="Q155" s="50"/>
       <c r="R155" s="50"/>
       <c r="S155" s="50"/>
-      <c r="T155" s="50"/>
+      <c r="T155" s="50" t="s">
+        <v>497</v>
+      </c>
       <c r="U155" s="50"/>
       <c r="V155" s="50"/>
       <c r="W155" s="50"/>
@@ -9069,11 +9076,11 @@
       <c r="AB155" s="50"/>
       <c r="AC155" s="50"/>
       <c r="AD155" s="50"/>
-      <c r="AE155" s="51" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE155" s="50"/>
       <c r="AF155" s="50"/>
-      <c r="AG155" s="50"/>
+      <c r="AG155" s="51" t="s">
+        <v>129</v>
+      </c>
       <c r="AH155" s="50"/>
       <c r="AI155" s="50"/>
     </row>
@@ -9082,7 +9089,7 @@
         <v>78</v>
       </c>
       <c r="B156" s="52" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C156" s="50" t="s">
         <v>45</v>
@@ -9104,7 +9111,7 @@
       <c r="R156" s="50"/>
       <c r="S156" s="50"/>
       <c r="T156" s="50" t="s">
-        <v>497</v>
+        <v>161</v>
       </c>
       <c r="U156" s="50"/>
       <c r="V156" s="50"/>
@@ -9119,7 +9126,7 @@
       <c r="AE156" s="50"/>
       <c r="AF156" s="50"/>
       <c r="AG156" s="51" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AH156" s="50"/>
       <c r="AI156" s="50"/>
@@ -9129,7 +9136,7 @@
         <v>78</v>
       </c>
       <c r="B157" s="52" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C157" s="50" t="s">
         <v>45</v>
@@ -9151,7 +9158,7 @@
       <c r="R157" s="50"/>
       <c r="S157" s="50"/>
       <c r="T157" s="50" t="s">
-        <v>161</v>
+        <v>498</v>
       </c>
       <c r="U157" s="50"/>
       <c r="V157" s="50"/>
@@ -9166,7 +9173,7 @@
       <c r="AE157" s="50"/>
       <c r="AF157" s="50"/>
       <c r="AG157" s="51" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AH157" s="50"/>
       <c r="AI157" s="50"/>
@@ -9176,7 +9183,7 @@
         <v>78</v>
       </c>
       <c r="B158" s="52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C158" s="50" t="s">
         <v>45</v>
@@ -9198,7 +9205,7 @@
       <c r="R158" s="50"/>
       <c r="S158" s="50"/>
       <c r="T158" s="50" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="U158" s="50"/>
       <c r="V158" s="50"/>
@@ -9213,7 +9220,7 @@
       <c r="AE158" s="50"/>
       <c r="AF158" s="50"/>
       <c r="AG158" s="51" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH158" s="50"/>
       <c r="AI158" s="50"/>
@@ -9223,7 +9230,7 @@
         <v>78</v>
       </c>
       <c r="B159" s="52" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C159" s="50" t="s">
         <v>45</v>
@@ -9245,7 +9252,7 @@
       <c r="R159" s="50"/>
       <c r="S159" s="50"/>
       <c r="T159" s="50" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="U159" s="50"/>
       <c r="V159" s="50"/>
@@ -9260,7 +9267,7 @@
       <c r="AE159" s="50"/>
       <c r="AF159" s="50"/>
       <c r="AG159" s="51" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH159" s="50"/>
       <c r="AI159" s="50"/>
@@ -9270,7 +9277,7 @@
         <v>78</v>
       </c>
       <c r="B160" s="52" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C160" s="50" t="s">
         <v>45</v>
@@ -9292,7 +9299,7 @@
       <c r="R160" s="50"/>
       <c r="S160" s="50"/>
       <c r="T160" s="50" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="U160" s="50"/>
       <c r="V160" s="50"/>
@@ -9307,7 +9314,7 @@
       <c r="AE160" s="50"/>
       <c r="AF160" s="50"/>
       <c r="AG160" s="51" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AH160" s="50"/>
       <c r="AI160" s="50"/>
@@ -9317,7 +9324,7 @@
         <v>78</v>
       </c>
       <c r="B161" s="52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C161" s="50" t="s">
         <v>45</v>
@@ -9339,7 +9346,7 @@
       <c r="R161" s="50"/>
       <c r="S161" s="50"/>
       <c r="T161" s="50" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="U161" s="50"/>
       <c r="V161" s="50"/>
@@ -9354,7 +9361,7 @@
       <c r="AE161" s="50"/>
       <c r="AF161" s="50"/>
       <c r="AG161" s="51" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="AH161" s="50"/>
       <c r="AI161" s="50"/>
@@ -9364,7 +9371,7 @@
         <v>78</v>
       </c>
       <c r="B162" s="52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C162" s="50" t="s">
         <v>45</v>
@@ -9386,7 +9393,7 @@
       <c r="R162" s="50"/>
       <c r="S162" s="50"/>
       <c r="T162" s="50" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="U162" s="50"/>
       <c r="V162" s="50"/>
@@ -9401,7 +9408,7 @@
       <c r="AE162" s="50"/>
       <c r="AF162" s="50"/>
       <c r="AG162" s="51" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AH162" s="50"/>
       <c r="AI162" s="50"/>
@@ -9411,7 +9418,7 @@
         <v>78</v>
       </c>
       <c r="B163" s="52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C163" s="50" t="s">
         <v>45</v>
@@ -9433,7 +9440,7 @@
       <c r="R163" s="50"/>
       <c r="S163" s="50"/>
       <c r="T163" s="50" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="U163" s="50"/>
       <c r="V163" s="50"/>
@@ -9448,7 +9455,7 @@
       <c r="AE163" s="50"/>
       <c r="AF163" s="50"/>
       <c r="AG163" s="51" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="AH163" s="50"/>
       <c r="AI163" s="50"/>
@@ -9458,7 +9465,7 @@
         <v>78</v>
       </c>
       <c r="B164" s="52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C164" s="50" t="s">
         <v>45</v>
@@ -9480,7 +9487,7 @@
       <c r="R164" s="50"/>
       <c r="S164" s="50"/>
       <c r="T164" s="50" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="U164" s="50"/>
       <c r="V164" s="50"/>
@@ -9495,7 +9502,7 @@
       <c r="AE164" s="50"/>
       <c r="AF164" s="50"/>
       <c r="AG164" s="51" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AH164" s="50"/>
       <c r="AI164" s="50"/>
@@ -9505,7 +9512,7 @@
         <v>78</v>
       </c>
       <c r="B165" s="52" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="C165" s="50" t="s">
         <v>45</v>
@@ -9527,7 +9534,7 @@
       <c r="R165" s="50"/>
       <c r="S165" s="50"/>
       <c r="T165" s="50" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="U165" s="50"/>
       <c r="V165" s="50"/>
@@ -9542,107 +9549,107 @@
       <c r="AE165" s="50"/>
       <c r="AF165" s="50"/>
       <c r="AG165" s="51" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AH165" s="50"/>
       <c r="AI165" s="50"/>
     </row>
     <row r="166" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B166" s="52" t="s">
-        <v>170</v>
+      <c r="A166" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B166" s="53" t="s">
+        <v>186</v>
       </c>
       <c r="C166" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D166" s="50"/>
-      <c r="E166" s="50"/>
-      <c r="F166" s="50"/>
-      <c r="G166" s="50"/>
-      <c r="H166" s="50"/>
-      <c r="I166" s="50"/>
-      <c r="J166" s="50"/>
-      <c r="K166" s="50"/>
-      <c r="L166" s="50"/>
-      <c r="M166" s="50"/>
-      <c r="N166" s="50"/>
-      <c r="O166" s="50"/>
-      <c r="P166" s="50"/>
-      <c r="Q166" s="50"/>
-      <c r="R166" s="50"/>
-      <c r="S166" s="50"/>
-      <c r="T166" s="50" t="s">
-        <v>506</v>
-      </c>
-      <c r="U166" s="50"/>
-      <c r="V166" s="50"/>
-      <c r="W166" s="50"/>
-      <c r="X166" s="50"/>
-      <c r="Y166" s="50"/>
-      <c r="Z166" s="50"/>
-      <c r="AA166" s="50"/>
-      <c r="AB166" s="50"/>
-      <c r="AC166" s="50"/>
-      <c r="AD166" s="50"/>
-      <c r="AE166" s="50"/>
-      <c r="AF166" s="50"/>
-      <c r="AG166" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="AH166" s="50"/>
-      <c r="AI166" s="50"/>
+      <c r="D166" s="51"/>
+      <c r="E166" s="51"/>
+      <c r="F166" s="51"/>
+      <c r="G166" s="51"/>
+      <c r="H166" s="51"/>
+      <c r="I166" s="51"/>
+      <c r="J166" s="51"/>
+      <c r="K166" s="51"/>
+      <c r="L166" s="51"/>
+      <c r="M166" s="51"/>
+      <c r="N166" s="51"/>
+      <c r="O166" s="51"/>
+      <c r="P166" s="51"/>
+      <c r="Q166" s="51"/>
+      <c r="R166" s="51"/>
+      <c r="S166" s="51"/>
+      <c r="T166" s="51"/>
+      <c r="U166" s="51"/>
+      <c r="V166" s="51"/>
+      <c r="W166" s="51"/>
+      <c r="X166" s="51"/>
+      <c r="Y166" s="51"/>
+      <c r="Z166" s="51"/>
+      <c r="AA166" s="51"/>
+      <c r="AB166" s="51"/>
+      <c r="AC166" s="51"/>
+      <c r="AD166" s="51"/>
+      <c r="AE166" s="51"/>
+      <c r="AF166" s="51"/>
+      <c r="AG166" s="51"/>
+      <c r="AH166" s="51"/>
+      <c r="AI166" s="51"/>
     </row>
     <row r="167" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B167" s="53" t="s">
-        <v>186</v>
+      <c r="A167" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B167" s="52" t="s">
+        <v>189</v>
       </c>
       <c r="C167" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D167" s="51"/>
-      <c r="E167" s="51"/>
-      <c r="F167" s="51"/>
-      <c r="G167" s="51"/>
-      <c r="H167" s="51"/>
-      <c r="I167" s="51"/>
-      <c r="J167" s="51"/>
-      <c r="K167" s="51"/>
-      <c r="L167" s="51"/>
-      <c r="M167" s="51"/>
-      <c r="N167" s="51"/>
-      <c r="O167" s="51"/>
-      <c r="P167" s="51"/>
-      <c r="Q167" s="51"/>
-      <c r="R167" s="51"/>
-      <c r="S167" s="51"/>
-      <c r="T167" s="51"/>
-      <c r="U167" s="51"/>
-      <c r="V167" s="51"/>
-      <c r="W167" s="51"/>
-      <c r="X167" s="51"/>
-      <c r="Y167" s="51"/>
-      <c r="Z167" s="51"/>
-      <c r="AA167" s="51"/>
-      <c r="AB167" s="51"/>
-      <c r="AC167" s="51"/>
-      <c r="AD167" s="51"/>
-      <c r="AE167" s="51"/>
-      <c r="AF167" s="51"/>
-      <c r="AG167" s="51"/>
-      <c r="AH167" s="51"/>
-      <c r="AI167" s="51"/>
+      <c r="D167" s="50"/>
+      <c r="E167" s="50"/>
+      <c r="F167" s="50"/>
+      <c r="G167" s="50"/>
+      <c r="H167" s="50"/>
+      <c r="I167" s="50"/>
+      <c r="J167" s="50"/>
+      <c r="K167" s="50"/>
+      <c r="L167" s="50"/>
+      <c r="M167" s="50"/>
+      <c r="N167" s="50"/>
+      <c r="O167" s="50"/>
+      <c r="P167" s="50"/>
+      <c r="Q167" s="50"/>
+      <c r="R167" s="50"/>
+      <c r="S167" s="50"/>
+      <c r="T167" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="U167" s="50"/>
+      <c r="V167" s="50"/>
+      <c r="W167" s="50"/>
+      <c r="X167" s="50"/>
+      <c r="Y167" s="50"/>
+      <c r="Z167" s="50"/>
+      <c r="AA167" s="50"/>
+      <c r="AB167" s="50"/>
+      <c r="AC167" s="50"/>
+      <c r="AD167" s="50"/>
+      <c r="AE167" s="50"/>
+      <c r="AF167" s="50"/>
+      <c r="AG167" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH167" s="50"/>
+      <c r="AI167" s="50"/>
     </row>
     <row r="168" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="49" t="s">
         <v>78</v>
       </c>
       <c r="B168" s="52" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C168" s="50" t="s">
         <v>45</v>
@@ -9664,7 +9671,7 @@
       <c r="R168" s="50"/>
       <c r="S168" s="50"/>
       <c r="T168" s="51" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="U168" s="50"/>
       <c r="V168" s="50"/>
@@ -9679,7 +9686,7 @@
       <c r="AE168" s="50"/>
       <c r="AF168" s="50"/>
       <c r="AG168" s="51" t="s">
-        <v>191</v>
+        <v>67</v>
       </c>
       <c r="AH168" s="50"/>
       <c r="AI168" s="50"/>
@@ -9689,7 +9696,7 @@
         <v>78</v>
       </c>
       <c r="B169" s="52" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C169" s="50" t="s">
         <v>45</v>
@@ -9711,7 +9718,7 @@
       <c r="R169" s="50"/>
       <c r="S169" s="50"/>
       <c r="T169" s="51" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U169" s="50"/>
       <c r="V169" s="50"/>
@@ -9726,7 +9733,7 @@
       <c r="AE169" s="50"/>
       <c r="AF169" s="50"/>
       <c r="AG169" s="51" t="s">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c r="AH169" s="50"/>
       <c r="AI169" s="50"/>
@@ -9736,7 +9743,7 @@
         <v>78</v>
       </c>
       <c r="B170" s="52" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C170" s="50" t="s">
         <v>45</v>
@@ -9758,7 +9765,7 @@
       <c r="R170" s="50"/>
       <c r="S170" s="50"/>
       <c r="T170" s="51" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="U170" s="50"/>
       <c r="V170" s="50"/>
@@ -9773,7 +9780,7 @@
       <c r="AE170" s="50"/>
       <c r="AF170" s="50"/>
       <c r="AG170" s="51" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="AH170" s="50"/>
       <c r="AI170" s="50"/>
@@ -9783,7 +9790,7 @@
         <v>78</v>
       </c>
       <c r="B171" s="52" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C171" s="50" t="s">
         <v>45</v>
@@ -9805,7 +9812,7 @@
       <c r="R171" s="50"/>
       <c r="S171" s="50"/>
       <c r="T171" s="51" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="U171" s="50"/>
       <c r="V171" s="50"/>
@@ -9820,64 +9827,58 @@
       <c r="AE171" s="50"/>
       <c r="AF171" s="50"/>
       <c r="AG171" s="51" t="s">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="AH171" s="50"/>
       <c r="AI171" s="50"/>
     </row>
     <row r="172" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B172" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="C172" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D172" s="50"/>
-      <c r="E172" s="50"/>
-      <c r="F172" s="50"/>
-      <c r="G172" s="50"/>
-      <c r="H172" s="50"/>
-      <c r="I172" s="50"/>
-      <c r="J172" s="50"/>
-      <c r="K172" s="50"/>
-      <c r="L172" s="50"/>
-      <c r="M172" s="50"/>
-      <c r="N172" s="50"/>
-      <c r="O172" s="50"/>
-      <c r="P172" s="50"/>
-      <c r="Q172" s="50"/>
-      <c r="R172" s="50"/>
-      <c r="S172" s="50"/>
-      <c r="T172" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="U172" s="50"/>
-      <c r="V172" s="50"/>
-      <c r="W172" s="50"/>
-      <c r="X172" s="50"/>
-      <c r="Y172" s="50"/>
-      <c r="Z172" s="50"/>
-      <c r="AA172" s="50"/>
-      <c r="AB172" s="50"/>
-      <c r="AC172" s="50"/>
-      <c r="AD172" s="50"/>
-      <c r="AE172" s="50"/>
-      <c r="AF172" s="50"/>
-      <c r="AG172" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="AH172" s="50"/>
-      <c r="AI172" s="50"/>
+      <c r="A172" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B172" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="C172" s="51"/>
+      <c r="D172" s="51"/>
+      <c r="E172" s="51"/>
+      <c r="F172" s="51"/>
+      <c r="G172" s="51"/>
+      <c r="H172" s="51"/>
+      <c r="I172" s="51"/>
+      <c r="J172" s="51"/>
+      <c r="K172" s="51"/>
+      <c r="L172" s="51"/>
+      <c r="M172" s="51"/>
+      <c r="N172" s="51"/>
+      <c r="O172" s="51"/>
+      <c r="P172" s="51"/>
+      <c r="Q172" s="51"/>
+      <c r="R172" s="51"/>
+      <c r="S172" s="51"/>
+      <c r="T172" s="51"/>
+      <c r="U172" s="51"/>
+      <c r="V172" s="51"/>
+      <c r="W172" s="51"/>
+      <c r="X172" s="51"/>
+      <c r="Y172" s="51"/>
+      <c r="Z172" s="51"/>
+      <c r="AA172" s="51"/>
+      <c r="AB172" s="51"/>
+      <c r="AC172" s="51"/>
+      <c r="AD172" s="51"/>
+      <c r="AE172" s="51"/>
+      <c r="AF172" s="51"/>
+      <c r="AG172" s="51"/>
+      <c r="AH172" s="51"/>
+      <c r="AI172" s="51"/>
     </row>
     <row r="173" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="53" t="s">
         <v>68</v>
       </c>
       <c r="B173" s="53" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="C173" s="51"/>
       <c r="D173" s="51"/>
@@ -9913,53 +9914,12 @@
       <c r="AH173" s="51"/>
       <c r="AI173" s="51"/>
     </row>
-    <row r="174" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B174" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C174" s="51"/>
-      <c r="D174" s="51"/>
-      <c r="E174" s="51"/>
-      <c r="F174" s="51"/>
-      <c r="G174" s="51"/>
-      <c r="H174" s="51"/>
-      <c r="I174" s="51"/>
-      <c r="J174" s="51"/>
-      <c r="K174" s="51"/>
-      <c r="L174" s="51"/>
-      <c r="M174" s="51"/>
-      <c r="N174" s="51"/>
-      <c r="O174" s="51"/>
-      <c r="P174" s="51"/>
-      <c r="Q174" s="51"/>
-      <c r="R174" s="51"/>
-      <c r="S174" s="51"/>
-      <c r="T174" s="51"/>
-      <c r="U174" s="51"/>
-      <c r="V174" s="51"/>
-      <c r="W174" s="51"/>
-      <c r="X174" s="51"/>
-      <c r="Y174" s="51"/>
-      <c r="Z174" s="51"/>
-      <c r="AA174" s="51"/>
-      <c r="AB174" s="51"/>
-      <c r="AC174" s="51"/>
-      <c r="AD174" s="51"/>
-      <c r="AE174" s="51"/>
-      <c r="AF174" s="51"/>
-      <c r="AG174" s="51"/>
-      <c r="AH174" s="51"/>
-      <c r="AI174" s="51"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="A74:A98 A100:A104 A106:A153">
+    <dataValidation type="list" allowBlank="1" sqref="A73:A97 A99:A103 A105:A152">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:F17 I18:I174">
+    <dataValidation type="list" allowBlank="1" sqref="E2:F16 I17:I173">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11985,7 +11945,7 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
@@ -12049,7 +12009,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44125.801324074077</v>
+        <v>44125.841781134259</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>

--- a/forms/app/hbc_registration.xlsx
+++ b/forms/app/hbc_registration.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="589">
   <si>
     <t>form_title</t>
   </si>
@@ -1568,9 +1568,6 @@
   </si>
   <si>
     <t>floor(decimal-date-time(today())) - decimal-date-time(${discharge_date})</t>
-  </si>
-  <si>
-    <t>What is the passenger's name?</t>
   </si>
   <si>
     <t>form_date</t>
@@ -2384,10 +2381,10 @@
   <dimension ref="A1:AI173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U16" sqref="U16"/>
+      <selection pane="bottomRight" activeCell="I177" sqref="I177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2671,7 +2668,7 @@
         <v>63</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>509</v>
+        <v>45</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
@@ -2775,10 +2772,10 @@
         <v>50</v>
       </c>
       <c r="B9" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>562</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>563</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -2810,10 +2807,10 @@
         <v>50</v>
       </c>
       <c r="B10" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>510</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>511</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
@@ -2963,7 +2960,7 @@
       <c r="R14" s="21"/>
       <c r="S14" s="22"/>
       <c r="T14" s="21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
@@ -3059,10 +3056,10 @@
         <v>42</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
@@ -3104,10 +3101,10 @@
         <v>117</v>
       </c>
       <c r="B19" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>518</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>519</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
@@ -3150,7 +3147,7 @@
         <v>202</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -3242,7 +3239,7 @@
         <v>118</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
@@ -3289,7 +3286,7 @@
         <v>208</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
@@ -3336,7 +3333,7 @@
         <v>209</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
@@ -3380,10 +3377,10 @@
         <v>110</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
@@ -3427,10 +3424,10 @@
         <v>110</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
@@ -3756,10 +3753,10 @@
         <v>110</v>
       </c>
       <c r="B33" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="C33" s="35" t="s">
         <v>524</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>525</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
@@ -3803,10 +3800,10 @@
         <v>110</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
@@ -4067,10 +4064,10 @@
         <v>42</v>
       </c>
       <c r="B40" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="C40" s="35" t="s">
         <v>532</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>533</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
@@ -4112,10 +4109,10 @@
         <v>117</v>
       </c>
       <c r="B41" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="C41" s="34" t="s">
         <v>534</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>535</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
@@ -4155,10 +4152,10 @@
         <v>117</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
@@ -4198,10 +4195,10 @@
         <v>110</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -4241,10 +4238,10 @@
         <v>110</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
@@ -4284,10 +4281,10 @@
         <v>110</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
@@ -4327,10 +4324,10 @@
         <v>110</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
@@ -4370,10 +4367,10 @@
         <v>110</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -4413,10 +4410,10 @@
         <v>110</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -4456,10 +4453,10 @@
         <v>110</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -4468,7 +4465,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
       <c r="J49" s="35" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K49" s="35"/>
       <c r="L49" s="35"/>
@@ -4501,10 +4498,10 @@
         <v>110</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
@@ -4544,10 +4541,10 @@
         <v>110</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
@@ -4587,10 +4584,10 @@
         <v>110</v>
       </c>
       <c r="B52" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="C52" s="34" t="s">
         <v>556</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>557</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -4630,10 +4627,10 @@
         <v>110</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
@@ -4673,10 +4670,10 @@
         <v>110</v>
       </c>
       <c r="B54" s="37" t="s">
+        <v>559</v>
+      </c>
+      <c r="C54" s="34" t="s">
         <v>560</v>
-      </c>
-      <c r="C54" s="34" t="s">
-        <v>561</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
@@ -4685,7 +4682,7 @@
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
       <c r="J54" s="35" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K54" s="35"/>
       <c r="L54" s="35"/>
@@ -4794,10 +4791,10 @@
         <v>42</v>
       </c>
       <c r="B57" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="C57" s="35" t="s">
         <v>564</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>565</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
@@ -4839,10 +4836,10 @@
         <v>383</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
@@ -4882,10 +4879,10 @@
         <v>383</v>
       </c>
       <c r="B59" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="C59" s="35" t="s">
         <v>567</v>
-      </c>
-      <c r="C59" s="35" t="s">
-        <v>568</v>
       </c>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
@@ -4925,10 +4922,10 @@
         <v>383</v>
       </c>
       <c r="B60" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="C60" s="35" t="s">
         <v>569</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>570</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
@@ -4968,10 +4965,10 @@
         <v>383</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
@@ -5011,10 +5008,10 @@
         <v>383</v>
       </c>
       <c r="B62" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="C62" s="35" t="s">
         <v>573</v>
-      </c>
-      <c r="C62" s="35" t="s">
-        <v>574</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
@@ -5130,10 +5127,10 @@
         <v>42</v>
       </c>
       <c r="B65" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="C65" s="35" t="s">
         <v>575</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>576</v>
       </c>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
@@ -5175,10 +5172,10 @@
         <v>383</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -5218,10 +5215,10 @@
         <v>383</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
@@ -5261,10 +5258,10 @@
         <v>383</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
@@ -5304,10 +5301,10 @@
         <v>383</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -5347,10 +5344,10 @@
         <v>383</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -5359,7 +5356,7 @@
       <c r="H70" s="35"/>
       <c r="I70" s="35"/>
       <c r="J70" s="35" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K70" s="35"/>
       <c r="L70" s="35"/>
@@ -7604,7 +7601,7 @@
         <v>415</v>
       </c>
       <c r="C123" s="45" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D123" s="47"/>
       <c r="E123" s="47"/>
@@ -11947,7 +11944,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12002,14 +11999,14 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>514</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>515</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44125.841781134259</v>
+        <v>44125.854735069443</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>

--- a/forms/app/hbc_registration.xlsx
+++ b/forms/app/hbc_registration.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="585">
   <si>
     <t>form_title</t>
   </si>
@@ -1729,12 +1729,6 @@
     <t>Recurrent miscarriages (for Females)</t>
   </si>
   <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
     <t>clinical_conditions</t>
   </si>
   <si>
@@ -1787,12 +1781,6 @@
   </si>
   <si>
     <t>CD4 Count</t>
-  </si>
-  <si>
-    <t>selected(../../sex = 'female' )</t>
-  </si>
-  <si>
-    <t>selected(../../sex = 'female')</t>
   </si>
   <si>
     <t>selected(../../existing_conditions/hiv, 'yes')</t>
@@ -2378,13 +2366,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI173"/>
+  <dimension ref="A1:AI172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I177" sqref="I177"/>
+      <selection pane="bottomRight" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2768,81 +2756,79 @@
       <c r="AA8" s="29"/>
     </row>
     <row r="9" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>561</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>562</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
+      <c r="B9" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
     </row>
     <row r="10" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>509</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>510</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
+      <c r="A10" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
     </row>
     <row r="11" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -2858,7 +2844,9 @@
       <c r="N11" s="28"/>
       <c r="O11" s="28"/>
       <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
+      <c r="Q11" s="28" t="s">
+        <v>50</v>
+      </c>
       <c r="R11" s="28"/>
       <c r="S11" s="29"/>
       <c r="T11" s="29"/>
@@ -2871,75 +2859,76 @@
       <c r="AA11" s="29"/>
     </row>
     <row r="12" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="R12" s="28"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
     </row>
     <row r="13" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
+      <c r="A13" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
     </row>
     <row r="14" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>45</v>
@@ -2951,6 +2940,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
@@ -2960,7 +2950,7 @@
       <c r="R14" s="21"/>
       <c r="S14" s="22"/>
       <c r="T14" s="21" t="s">
-        <v>511</v>
+        <v>91</v>
       </c>
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
@@ -2975,7 +2965,7 @@
         <v>78</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>45</v>
@@ -2997,7 +2987,7 @@
       <c r="R15" s="21"/>
       <c r="S15" s="22"/>
       <c r="T15" s="21" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="U15" s="22"/>
       <c r="V15" s="22"/>
@@ -3008,58 +2998,66 @@
       <c r="AA15" s="22"/>
     </row>
     <row r="16" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
+      <c r="A17" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>515</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35"/>
     </row>
     <row r="18" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>516</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>515</v>
+        <v>517</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>518</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
@@ -3068,9 +3066,7 @@
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
       <c r="J18" s="34"/>
-      <c r="K18" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="K18" s="35"/>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
       <c r="N18" s="35"/>
@@ -3098,21 +3094,23 @@
     </row>
     <row r="19" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>517</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>518</v>
+        <v>202</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>519</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="34"/>
+      <c r="I19" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="35"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
       <c r="M19" s="35"/>
@@ -3141,23 +3139,23 @@
     </row>
     <row r="20" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>519</v>
+        <v>203</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
-      <c r="I20" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35" t="s">
+        <v>204</v>
+      </c>
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
       <c r="M20" s="35"/>
@@ -3178,7 +3176,9 @@
       <c r="AB20" s="35"/>
       <c r="AC20" s="35"/>
       <c r="AD20" s="35"/>
-      <c r="AE20" s="35"/>
+      <c r="AE20" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="AF20" s="35"/>
       <c r="AG20" s="35"/>
       <c r="AH20" s="35"/>
@@ -3186,20 +3186,22 @@
     </row>
     <row r="21" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>203</v>
+        <v>521</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
+      <c r="I21" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="J21" s="35" t="s">
         <v>204</v>
       </c>
@@ -3223,9 +3225,7 @@
       <c r="AB21" s="35"/>
       <c r="AC21" s="35"/>
       <c r="AD21" s="35"/>
-      <c r="AE21" s="35" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE21" s="35"/>
       <c r="AF21" s="35"/>
       <c r="AG21" s="35"/>
       <c r="AH21" s="35"/>
@@ -3236,10 +3236,10 @@
         <v>110</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
@@ -3283,10 +3283,10 @@
         <v>110</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>520</v>
+        <v>209</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>522</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
@@ -3297,7 +3297,7 @@
         <v>57</v>
       </c>
       <c r="J23" s="35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
@@ -3330,10 +3330,10 @@
         <v>110</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>209</v>
+        <v>528</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
@@ -3377,10 +3377,10 @@
         <v>110</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
@@ -3424,10 +3424,10 @@
         <v>110</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>530</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>529</v>
+        <v>216</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>210</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
@@ -3438,7 +3438,7 @@
         <v>57</v>
       </c>
       <c r="J26" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K26" s="35"/>
       <c r="L26" s="35"/>
@@ -3471,10 +3471,10 @@
         <v>110</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
@@ -3485,7 +3485,7 @@
         <v>57</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K27" s="35"/>
       <c r="L27" s="35"/>
@@ -3518,10 +3518,10 @@
         <v>110</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
@@ -3565,10 +3565,10 @@
         <v>110</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
@@ -3579,7 +3579,7 @@
         <v>57</v>
       </c>
       <c r="J29" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K29" s="35"/>
       <c r="L29" s="35"/>
@@ -3612,10 +3612,10 @@
         <v>110</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
@@ -3659,10 +3659,10 @@
         <v>110</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -3673,7 +3673,7 @@
         <v>57</v>
       </c>
       <c r="J31" s="35" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K31" s="35"/>
       <c r="L31" s="35"/>
@@ -3706,10 +3706,10 @@
         <v>110</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>221</v>
+        <v>523</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>215</v>
+        <v>524</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
@@ -3753,10 +3753,10 @@
         <v>110</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
@@ -3797,25 +3797,21 @@
     </row>
     <row r="34" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>526</v>
+        <v>225</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>525</v>
+        <v>45</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
-      <c r="I34" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J34" s="35" t="s">
-        <v>206</v>
-      </c>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
       <c r="K34" s="35"/>
       <c r="L34" s="35"/>
       <c r="M34" s="35"/>
@@ -3825,7 +3821,9 @@
       <c r="Q34" s="35"/>
       <c r="R34" s="35"/>
       <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
+      <c r="T34" s="34" t="s">
+        <v>228</v>
+      </c>
       <c r="U34" s="35"/>
       <c r="V34" s="35"/>
       <c r="W34" s="35"/>
@@ -3836,7 +3834,9 @@
       <c r="AB34" s="35"/>
       <c r="AC34" s="35"/>
       <c r="AD34" s="35"/>
-      <c r="AE34" s="35"/>
+      <c r="AE34" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="AF34" s="35"/>
       <c r="AG34" s="35"/>
       <c r="AH34" s="35"/>
@@ -3844,13 +3844,13 @@
     </row>
     <row r="35" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
@@ -3858,7 +3858,9 @@
       <c r="G35" s="35"/>
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
+      <c r="J35" s="35" t="s">
+        <v>226</v>
+      </c>
       <c r="K35" s="35"/>
       <c r="L35" s="35"/>
       <c r="M35" s="35"/>
@@ -3868,9 +3870,7 @@
       <c r="Q35" s="35"/>
       <c r="R35" s="35"/>
       <c r="S35" s="35"/>
-      <c r="T35" s="34" t="s">
-        <v>228</v>
-      </c>
+      <c r="T35" s="35"/>
       <c r="U35" s="35"/>
       <c r="V35" s="35"/>
       <c r="W35" s="35"/>
@@ -3894,10 +3894,10 @@
         <v>117</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -3906,7 +3906,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
       <c r="J36" s="35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K36" s="35"/>
       <c r="L36" s="35"/>
@@ -3938,23 +3938,17 @@
     </row>
     <row r="37" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>224</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
-      <c r="J37" s="35" t="s">
-        <v>227</v>
-      </c>
+      <c r="J37" s="35"/>
       <c r="K37" s="35"/>
       <c r="L37" s="35"/>
       <c r="M37" s="35"/>
@@ -3975,99 +3969,103 @@
       <c r="AB37" s="35"/>
       <c r="AC37" s="35"/>
       <c r="AD37" s="35"/>
-      <c r="AE37" s="35" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE37" s="35"/>
       <c r="AF37" s="35"/>
       <c r="AG37" s="35"/>
       <c r="AH37" s="35"/>
       <c r="AI37" s="35"/>
     </row>
-    <row r="38" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="35"/>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="35"/>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="35"/>
-      <c r="AC38" s="35"/>
-      <c r="AD38" s="35"/>
-      <c r="AE38" s="35"/>
-      <c r="AF38" s="35"/>
-      <c r="AG38" s="35"/>
-      <c r="AH38" s="35"/>
-      <c r="AI38" s="35"/>
-    </row>
-    <row r="39" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="54"/>
-      <c r="U39" s="54"/>
-      <c r="V39" s="54"/>
-      <c r="W39" s="54"/>
-      <c r="X39" s="54"/>
-      <c r="Y39" s="54"/>
-      <c r="Z39" s="54"/>
-      <c r="AA39" s="54"/>
-      <c r="AB39" s="54"/>
-      <c r="AC39" s="54"/>
-      <c r="AD39" s="54"/>
-      <c r="AE39" s="54"/>
-      <c r="AF39" s="54"/>
-      <c r="AG39" s="54"/>
-      <c r="AH39" s="54"/>
-      <c r="AI39" s="54"/>
+    <row r="38" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="54"/>
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="54"/>
+      <c r="AB38" s="54"/>
+      <c r="AC38" s="54"/>
+      <c r="AD38" s="54"/>
+      <c r="AE38" s="54"/>
+      <c r="AF38" s="54"/>
+      <c r="AG38" s="54"/>
+      <c r="AH38" s="54"/>
+      <c r="AI38" s="54"/>
+    </row>
+    <row r="39" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>532</v>
+      </c>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
+      <c r="AD39" s="35"/>
+      <c r="AE39" s="35"/>
+      <c r="AF39" s="35"/>
+      <c r="AG39" s="35"/>
+      <c r="AH39" s="35"/>
+      <c r="AI39" s="35"/>
     </row>
     <row r="40" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>531</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>532</v>
+        <v>533</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>534</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
@@ -4076,9 +4074,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
       <c r="J40" s="35"/>
-      <c r="K40" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="K40" s="35"/>
       <c r="L40" s="35"/>
       <c r="M40" s="35"/>
       <c r="N40" s="35"/>
@@ -4109,10 +4105,10 @@
         <v>117</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
@@ -4149,13 +4145,13 @@
     </row>
     <row r="42" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>535</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>552</v>
+        <v>544</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>543</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
@@ -4195,10 +4191,10 @@
         <v>110</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -4238,10 +4234,10 @@
         <v>110</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
@@ -4281,10 +4277,10 @@
         <v>110</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
@@ -4324,10 +4320,10 @@
         <v>110</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
@@ -4367,10 +4363,10 @@
         <v>110</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -4410,10 +4406,10 @@
         <v>110</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -4453,10 +4449,10 @@
         <v>110</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -4464,9 +4460,7 @@
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
-      <c r="J49" s="35" t="s">
-        <v>582</v>
-      </c>
+      <c r="J49" s="35"/>
       <c r="K49" s="35"/>
       <c r="L49" s="35"/>
       <c r="M49" s="35"/>
@@ -4498,10 +4492,10 @@
         <v>110</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
@@ -4541,10 +4535,10 @@
         <v>110</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>554</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>553</v>
+        <v>555</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>556</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
@@ -4584,10 +4578,10 @@
         <v>110</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>555</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>556</v>
+        <v>558</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>557</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -4627,10 +4621,10 @@
         <v>110</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>558</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>557</v>
+        <v>559</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>560</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
@@ -4667,23 +4661,17 @@
     </row>
     <row r="54" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B54" s="37" t="s">
-        <v>559</v>
-      </c>
-      <c r="C54" s="34" t="s">
-        <v>560</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B54" s="37"/>
+      <c r="C54" s="35"/>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
-      <c r="J54" s="35" t="s">
-        <v>581</v>
-      </c>
+      <c r="J54" s="35"/>
       <c r="K54" s="35"/>
       <c r="L54" s="35"/>
       <c r="M54" s="35"/>
@@ -4710,91 +4698,97 @@
       <c r="AH54" s="35"/>
       <c r="AI54" s="35"/>
     </row>
-    <row r="55" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="37"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="35"/>
-      <c r="Y55" s="35"/>
-      <c r="Z55" s="35"/>
-      <c r="AA55" s="35"/>
-      <c r="AB55" s="35"/>
-      <c r="AC55" s="35"/>
-      <c r="AD55" s="35"/>
-      <c r="AE55" s="35"/>
-      <c r="AF55" s="35"/>
-      <c r="AG55" s="35"/>
-      <c r="AH55" s="35"/>
-      <c r="AI55" s="35"/>
-    </row>
-    <row r="56" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="54"/>
-      <c r="L56" s="54"/>
-      <c r="M56" s="54"/>
-      <c r="N56" s="54"/>
-      <c r="O56" s="54"/>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="54"/>
-      <c r="R56" s="54"/>
-      <c r="S56" s="54"/>
-      <c r="T56" s="54"/>
-      <c r="U56" s="54"/>
-      <c r="V56" s="54"/>
-      <c r="W56" s="54"/>
-      <c r="X56" s="54"/>
-      <c r="Y56" s="54"/>
-      <c r="Z56" s="54"/>
-      <c r="AA56" s="54"/>
-      <c r="AB56" s="54"/>
-      <c r="AC56" s="54"/>
-      <c r="AD56" s="54"/>
-      <c r="AE56" s="54"/>
-      <c r="AF56" s="54"/>
-      <c r="AG56" s="54"/>
-      <c r="AH56" s="54"/>
-      <c r="AI56" s="54"/>
+    <row r="55" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="54"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="54"/>
+      <c r="R55" s="54"/>
+      <c r="S55" s="54"/>
+      <c r="T55" s="54"/>
+      <c r="U55" s="54"/>
+      <c r="V55" s="54"/>
+      <c r="W55" s="54"/>
+      <c r="X55" s="54"/>
+      <c r="Y55" s="54"/>
+      <c r="Z55" s="54"/>
+      <c r="AA55" s="54"/>
+      <c r="AB55" s="54"/>
+      <c r="AC55" s="54"/>
+      <c r="AD55" s="54"/>
+      <c r="AE55" s="54"/>
+      <c r="AF55" s="54"/>
+      <c r="AG55" s="54"/>
+      <c r="AH55" s="54"/>
+      <c r="AI55" s="54"/>
+    </row>
+    <row r="56" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>561</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>562</v>
+      </c>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="35"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+      <c r="S56" s="35"/>
+      <c r="T56" s="35"/>
+      <c r="U56" s="35"/>
+      <c r="V56" s="35"/>
+      <c r="W56" s="35"/>
+      <c r="X56" s="35"/>
+      <c r="Y56" s="35"/>
+      <c r="Z56" s="35"/>
+      <c r="AA56" s="35"/>
+      <c r="AB56" s="35"/>
+      <c r="AC56" s="35"/>
+      <c r="AD56" s="35"/>
+      <c r="AE56" s="35"/>
+      <c r="AF56" s="35"/>
+      <c r="AG56" s="35"/>
+      <c r="AH56" s="35"/>
+      <c r="AI56" s="35"/>
     </row>
     <row r="57" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="37" t="s">
-        <v>42</v>
+        <v>383</v>
       </c>
       <c r="B57" s="37" t="s">
         <v>563</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
@@ -4803,9 +4797,7 @@
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
       <c r="J57" s="35"/>
-      <c r="K57" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="K57" s="35"/>
       <c r="L57" s="35"/>
       <c r="M57" s="35"/>
       <c r="N57" s="35"/>
@@ -4836,7 +4828,7 @@
         <v>383</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C58" s="35" t="s">
         <v>565</v>
@@ -4922,10 +4914,10 @@
         <v>383</v>
       </c>
       <c r="B60" s="37" t="s">
+        <v>569</v>
+      </c>
+      <c r="C60" s="35" t="s">
         <v>568</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>569</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
@@ -4965,10 +4957,10 @@
         <v>383</v>
       </c>
       <c r="B61" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="C61" s="35" t="s">
         <v>571</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>570</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
@@ -5005,14 +4997,10 @@
     </row>
     <row r="62" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="37" t="s">
-        <v>383</v>
-      </c>
-      <c r="B62" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="C62" s="35" t="s">
-        <v>573</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B62" s="37"/>
+      <c r="C62" s="35"/>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
       <c r="F62" s="35"/>
@@ -5046,91 +5034,97 @@
       <c r="AH62" s="35"/>
       <c r="AI62" s="35"/>
     </row>
-    <row r="63" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="37"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-      <c r="R63" s="35"/>
-      <c r="S63" s="35"/>
-      <c r="T63" s="35"/>
-      <c r="U63" s="35"/>
-      <c r="V63" s="35"/>
-      <c r="W63" s="35"/>
-      <c r="X63" s="35"/>
-      <c r="Y63" s="35"/>
-      <c r="Z63" s="35"/>
-      <c r="AA63" s="35"/>
-      <c r="AB63" s="35"/>
-      <c r="AC63" s="35"/>
-      <c r="AD63" s="35"/>
-      <c r="AE63" s="35"/>
-      <c r="AF63" s="35"/>
-      <c r="AG63" s="35"/>
-      <c r="AH63" s="35"/>
-      <c r="AI63" s="35"/>
-    </row>
-    <row r="64" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="54"/>
-      <c r="M64" s="54"/>
-      <c r="N64" s="54"/>
-      <c r="O64" s="54"/>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="54"/>
-      <c r="R64" s="54"/>
-      <c r="S64" s="54"/>
-      <c r="T64" s="54"/>
-      <c r="U64" s="54"/>
-      <c r="V64" s="54"/>
-      <c r="W64" s="54"/>
-      <c r="X64" s="54"/>
-      <c r="Y64" s="54"/>
-      <c r="Z64" s="54"/>
-      <c r="AA64" s="54"/>
-      <c r="AB64" s="54"/>
-      <c r="AC64" s="54"/>
-      <c r="AD64" s="54"/>
-      <c r="AE64" s="54"/>
-      <c r="AF64" s="54"/>
-      <c r="AG64" s="54"/>
-      <c r="AH64" s="54"/>
-      <c r="AI64" s="54"/>
+    <row r="63" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="54"/>
+      <c r="O63" s="54"/>
+      <c r="P63" s="54"/>
+      <c r="Q63" s="54"/>
+      <c r="R63" s="54"/>
+      <c r="S63" s="54"/>
+      <c r="T63" s="54"/>
+      <c r="U63" s="54"/>
+      <c r="V63" s="54"/>
+      <c r="W63" s="54"/>
+      <c r="X63" s="54"/>
+      <c r="Y63" s="54"/>
+      <c r="Z63" s="54"/>
+      <c r="AA63" s="54"/>
+      <c r="AB63" s="54"/>
+      <c r="AC63" s="54"/>
+      <c r="AD63" s="54"/>
+      <c r="AE63" s="54"/>
+      <c r="AF63" s="54"/>
+      <c r="AG63" s="54"/>
+      <c r="AH63" s="54"/>
+      <c r="AI63" s="54"/>
+    </row>
+    <row r="64" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>573</v>
+      </c>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="35"/>
+      <c r="S64" s="35"/>
+      <c r="T64" s="35"/>
+      <c r="U64" s="35"/>
+      <c r="V64" s="35"/>
+      <c r="W64" s="35"/>
+      <c r="X64" s="35"/>
+      <c r="Y64" s="35"/>
+      <c r="Z64" s="35"/>
+      <c r="AA64" s="35"/>
+      <c r="AB64" s="35"/>
+      <c r="AC64" s="35"/>
+      <c r="AD64" s="35"/>
+      <c r="AE64" s="35"/>
+      <c r="AF64" s="35"/>
+      <c r="AG64" s="35"/>
+      <c r="AH64" s="35"/>
+      <c r="AI64" s="35"/>
     </row>
     <row r="65" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="37" t="s">
-        <v>42</v>
+        <v>383</v>
       </c>
       <c r="B65" s="37" t="s">
+        <v>580</v>
+      </c>
+      <c r="C65" s="35" t="s">
         <v>574</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>575</v>
       </c>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
@@ -5139,9 +5133,7 @@
       <c r="H65" s="35"/>
       <c r="I65" s="35"/>
       <c r="J65" s="35"/>
-      <c r="K65" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="K65" s="35"/>
       <c r="L65" s="35"/>
       <c r="M65" s="35"/>
       <c r="N65" s="35"/>
@@ -5172,10 +5164,10 @@
         <v>383</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -5215,10 +5207,10 @@
         <v>383</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
@@ -5258,10 +5250,10 @@
         <v>383</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
@@ -5301,10 +5293,10 @@
         <v>383</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -5312,7 +5304,9 @@
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
       <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
+      <c r="J69" s="35" t="s">
+        <v>579</v>
+      </c>
       <c r="K69" s="35"/>
       <c r="L69" s="35"/>
       <c r="M69" s="35"/>
@@ -5341,23 +5335,17 @@
     </row>
     <row r="70" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="37" t="s">
-        <v>383</v>
-      </c>
-      <c r="B70" s="37" t="s">
-        <v>588</v>
-      </c>
-      <c r="C70" s="35" t="s">
-        <v>580</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B70" s="37"/>
+      <c r="C70" s="35"/>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
       <c r="I70" s="35"/>
-      <c r="J70" s="35" t="s">
-        <v>583</v>
-      </c>
+      <c r="J70" s="35"/>
       <c r="K70" s="35"/>
       <c r="L70" s="35"/>
       <c r="M70" s="35"/>
@@ -5385,80 +5373,90 @@
       <c r="AI70" s="35"/>
     </row>
     <row r="71" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B71" s="37"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="35"/>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35"/>
-      <c r="R71" s="35"/>
-      <c r="S71" s="35"/>
-      <c r="T71" s="35"/>
-      <c r="U71" s="35"/>
-      <c r="V71" s="35"/>
-      <c r="W71" s="35"/>
-      <c r="X71" s="35"/>
-      <c r="Y71" s="35"/>
-      <c r="Z71" s="35"/>
-      <c r="AA71" s="35"/>
-      <c r="AB71" s="35"/>
-      <c r="AC71" s="35"/>
-      <c r="AD71" s="35"/>
-      <c r="AE71" s="35"/>
-      <c r="AF71" s="35"/>
-      <c r="AG71" s="35"/>
-      <c r="AH71" s="35"/>
-      <c r="AI71" s="35"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="AE71" s="31"/>
+      <c r="AF71" s="31"/>
+      <c r="AG71" s="31"/>
+      <c r="AH71" s="31"/>
+      <c r="AI71" s="31"/>
     </row>
     <row r="72" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="AE72" s="31"/>
-      <c r="AF72" s="31"/>
-      <c r="AG72" s="31"/>
-      <c r="AH72" s="31"/>
-      <c r="AI72" s="31"/>
+      <c r="A72" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="K72" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L72" s="34"/>
+      <c r="M72" s="34"/>
+      <c r="N72" s="34"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
+      <c r="Q72" s="34"/>
+      <c r="R72" s="34"/>
+      <c r="S72" s="34"/>
+      <c r="T72" s="34"/>
+      <c r="U72" s="36"/>
+      <c r="V72" s="34"/>
+      <c r="W72" s="36"/>
+      <c r="X72" s="36"/>
+      <c r="Y72" s="36"/>
+      <c r="Z72" s="36"/>
+      <c r="AA72" s="36"/>
+      <c r="AB72" s="36"/>
+      <c r="AC72" s="36"/>
+      <c r="AD72" s="36"/>
+      <c r="AE72" s="36"/>
+      <c r="AF72" s="36"/>
+      <c r="AG72" s="36"/>
+      <c r="AH72" s="36"/>
+      <c r="AI72" s="36"/>
     </row>
     <row r="73" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="33" t="s">
-        <v>42</v>
+        <v>335</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>382</v>
+        <v>336</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36" t="s">
-        <v>376</v>
-      </c>
-      <c r="K73" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="L73" s="34"/>
-      <c r="M73" s="34"/>
+      <c r="I73" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="M73" s="34" t="s">
+        <v>338</v>
+      </c>
       <c r="N73" s="34"/>
       <c r="O73" s="34"/>
       <c r="P73" s="34"/>
@@ -5484,13 +5482,13 @@
     </row>
     <row r="74" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="33" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
@@ -5502,12 +5500,8 @@
       </c>
       <c r="J74" s="36"/>
       <c r="K74" s="36"/>
-      <c r="L74" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="M74" s="34" t="s">
-        <v>338</v>
-      </c>
+      <c r="L74" s="36"/>
+      <c r="M74" s="34"/>
       <c r="N74" s="34"/>
       <c r="O74" s="34"/>
       <c r="P74" s="34"/>
@@ -5533,13 +5527,13 @@
     </row>
     <row r="75" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="33" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D75" s="35"/>
       <c r="E75" s="35"/>
@@ -5547,12 +5541,16 @@
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
       <c r="I75" s="36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="34"/>
+      <c r="L75" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="M75" s="34" t="s">
+        <v>344</v>
+      </c>
       <c r="N75" s="34"/>
       <c r="O75" s="34"/>
       <c r="P75" s="34"/>
@@ -5578,30 +5576,26 @@
     </row>
     <row r="76" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="33" t="s">
-        <v>341</v>
+        <v>117</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D76" s="35"/>
       <c r="E76" s="35"/>
       <c r="F76" s="35"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
-      <c r="I76" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="J76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36" t="s">
+        <v>377</v>
+      </c>
       <c r="K76" s="36"/>
-      <c r="L76" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="M76" s="34" t="s">
-        <v>344</v>
-      </c>
+      <c r="L76" s="36"/>
+      <c r="M76" s="34"/>
       <c r="N76" s="34"/>
       <c r="O76" s="34"/>
       <c r="P76" s="34"/>
@@ -5630,10 +5624,10 @@
         <v>117</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="35"/>
@@ -5642,7 +5636,7 @@
       <c r="H77" s="35"/>
       <c r="I77" s="36"/>
       <c r="J77" s="36" t="s">
-        <v>377</v>
+        <v>496</v>
       </c>
       <c r="K77" s="36"/>
       <c r="L77" s="36"/>
@@ -5664,43 +5658,43 @@
       <c r="AB77" s="36"/>
       <c r="AC77" s="36"/>
       <c r="AD77" s="36"/>
-      <c r="AE77" s="36"/>
+      <c r="AE77" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="AF77" s="36"/>
       <c r="AG77" s="36"/>
       <c r="AH77" s="36"/>
       <c r="AI77" s="36"/>
     </row>
     <row r="78" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B78" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="C78" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
+      <c r="A78" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B78" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="C78" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D78" s="36"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
       <c r="I78" s="36"/>
-      <c r="J78" s="36" t="s">
-        <v>496</v>
-      </c>
+      <c r="J78" s="39"/>
       <c r="K78" s="36"/>
       <c r="L78" s="36"/>
-      <c r="M78" s="34"/>
-      <c r="N78" s="34"/>
-      <c r="O78" s="34"/>
-      <c r="P78" s="34"/>
-      <c r="Q78" s="34"/>
-      <c r="R78" s="34"/>
-      <c r="S78" s="34"/>
-      <c r="T78" s="34"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="36"/>
+      <c r="Q78" s="36"/>
+      <c r="R78" s="36"/>
+      <c r="S78" s="36"/>
+      <c r="T78" s="36"/>
       <c r="U78" s="36"/>
-      <c r="V78" s="34"/>
+      <c r="V78" s="36"/>
       <c r="W78" s="36"/>
       <c r="X78" s="36"/>
       <c r="Y78" s="36"/>
@@ -5714,76 +5708,76 @@
       </c>
       <c r="AF78" s="36"/>
       <c r="AG78" s="36"/>
-      <c r="AH78" s="36"/>
+      <c r="AH78" s="40" t="s">
+        <v>350</v>
+      </c>
       <c r="AI78" s="36"/>
     </row>
     <row r="79" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="38" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C79" s="39" t="s">
         <v>45</v>
       </c>
       <c r="D79" s="36"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
       <c r="G79" s="36"/>
       <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
+      <c r="I79" s="39"/>
       <c r="J79" s="39"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="36"/>
+      <c r="K79" s="39"/>
+      <c r="L79" s="39"/>
+      <c r="M79" s="39"/>
       <c r="N79" s="36"/>
-      <c r="O79" s="39"/>
+      <c r="O79" s="36"/>
       <c r="P79" s="36"/>
       <c r="Q79" s="36"/>
       <c r="R79" s="36"/>
       <c r="S79" s="36"/>
-      <c r="T79" s="36"/>
-      <c r="U79" s="36"/>
-      <c r="V79" s="36"/>
-      <c r="W79" s="36"/>
-      <c r="X79" s="36"/>
-      <c r="Y79" s="36"/>
-      <c r="Z79" s="36"/>
-      <c r="AA79" s="36"/>
-      <c r="AB79" s="36"/>
-      <c r="AC79" s="36"/>
-      <c r="AD79" s="36"/>
-      <c r="AE79" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF79" s="36"/>
-      <c r="AG79" s="36"/>
-      <c r="AH79" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="AI79" s="36"/>
+      <c r="T79" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="U79" s="39"/>
+      <c r="V79" s="39"/>
+      <c r="W79" s="39"/>
+      <c r="X79" s="39"/>
+      <c r="Y79" s="39"/>
+      <c r="Z79" s="39"/>
+      <c r="AA79" s="39"/>
+      <c r="AB79" s="39"/>
+      <c r="AC79" s="39"/>
+      <c r="AD79" s="39"/>
+      <c r="AE79" s="39"/>
+      <c r="AF79" s="39"/>
+      <c r="AG79" s="39"/>
+      <c r="AH79" s="39"/>
+      <c r="AI79" s="39"/>
     </row>
     <row r="80" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>351</v>
+        <v>3</v>
       </c>
       <c r="C80" s="39" t="s">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="D80" s="36"/>
       <c r="E80" s="36"/>
       <c r="F80" s="36"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
-      <c r="I80" s="39"/>
-      <c r="J80" s="39"/>
-      <c r="K80" s="39"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="39"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="36"/>
       <c r="N80" s="36"/>
       <c r="O80" s="36"/>
       <c r="P80" s="36"/>
@@ -5791,33 +5785,33 @@
       <c r="R80" s="36"/>
       <c r="S80" s="36"/>
       <c r="T80" s="39" t="s">
-        <v>352</v>
-      </c>
-      <c r="U80" s="39"/>
-      <c r="V80" s="39"/>
-      <c r="W80" s="39"/>
-      <c r="X80" s="39"/>
-      <c r="Y80" s="39"/>
-      <c r="Z80" s="39"/>
-      <c r="AA80" s="39"/>
-      <c r="AB80" s="39"/>
-      <c r="AC80" s="39"/>
-      <c r="AD80" s="39"/>
-      <c r="AE80" s="39"/>
-      <c r="AF80" s="39"/>
-      <c r="AG80" s="39"/>
-      <c r="AH80" s="39"/>
-      <c r="AI80" s="39"/>
+        <v>354</v>
+      </c>
+      <c r="U80" s="36"/>
+      <c r="V80" s="36"/>
+      <c r="W80" s="36"/>
+      <c r="X80" s="36"/>
+      <c r="Y80" s="36"/>
+      <c r="Z80" s="36"/>
+      <c r="AA80" s="36"/>
+      <c r="AB80" s="36"/>
+      <c r="AC80" s="36"/>
+      <c r="AD80" s="36"/>
+      <c r="AE80" s="36"/>
+      <c r="AF80" s="36"/>
+      <c r="AG80" s="36"/>
+      <c r="AH80" s="36"/>
+      <c r="AI80" s="36"/>
     </row>
     <row r="81" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>3</v>
+        <v>355</v>
       </c>
       <c r="C81" s="39" t="s">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="D81" s="36"/>
       <c r="E81" s="36"/>
@@ -5836,30 +5830,30 @@
       <c r="R81" s="36"/>
       <c r="S81" s="36"/>
       <c r="T81" s="39" t="s">
-        <v>354</v>
-      </c>
-      <c r="U81" s="36"/>
-      <c r="V81" s="36"/>
-      <c r="W81" s="36"/>
-      <c r="X81" s="36"/>
-      <c r="Y81" s="36"/>
-      <c r="Z81" s="36"/>
-      <c r="AA81" s="36"/>
-      <c r="AB81" s="36"/>
-      <c r="AC81" s="36"/>
-      <c r="AD81" s="36"/>
-      <c r="AE81" s="36"/>
-      <c r="AF81" s="36"/>
-      <c r="AG81" s="36"/>
-      <c r="AH81" s="36"/>
-      <c r="AI81" s="36"/>
+        <v>356</v>
+      </c>
+      <c r="U81" s="39"/>
+      <c r="V81" s="39"/>
+      <c r="W81" s="39"/>
+      <c r="X81" s="39"/>
+      <c r="Y81" s="39"/>
+      <c r="Z81" s="39"/>
+      <c r="AA81" s="39"/>
+      <c r="AB81" s="39"/>
+      <c r="AC81" s="39"/>
+      <c r="AD81" s="39"/>
+      <c r="AE81" s="39"/>
+      <c r="AF81" s="39"/>
+      <c r="AG81" s="39"/>
+      <c r="AH81" s="39"/>
+      <c r="AI81" s="39"/>
     </row>
     <row r="82" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C82" s="39" t="s">
         <v>45</v>
@@ -5869,19 +5863,19 @@
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
       <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="36"/>
-      <c r="L82" s="36"/>
-      <c r="M82" s="36"/>
-      <c r="N82" s="36"/>
-      <c r="O82" s="36"/>
-      <c r="P82" s="36"/>
-      <c r="Q82" s="36"/>
-      <c r="R82" s="36"/>
-      <c r="S82" s="36"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="39"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="39"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="39"/>
+      <c r="Q82" s="39"/>
+      <c r="R82" s="39"/>
+      <c r="S82" s="39"/>
       <c r="T82" s="39" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="U82" s="39"/>
       <c r="V82" s="39"/>
@@ -5901,10 +5895,10 @@
     </row>
     <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="38" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C83" s="39" t="s">
         <v>45</v>
@@ -5914,85 +5908,85 @@
       <c r="F83" s="36"/>
       <c r="G83" s="36"/>
       <c r="H83" s="36"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="39"/>
-      <c r="K83" s="39"/>
-      <c r="L83" s="39"/>
-      <c r="M83" s="39"/>
-      <c r="N83" s="39"/>
-      <c r="O83" s="39"/>
-      <c r="P83" s="39"/>
-      <c r="Q83" s="39"/>
-      <c r="R83" s="39"/>
-      <c r="S83" s="39"/>
-      <c r="T83" s="39" t="s">
-        <v>358</v>
-      </c>
-      <c r="U83" s="39"/>
-      <c r="V83" s="39"/>
-      <c r="W83" s="39"/>
-      <c r="X83" s="39"/>
-      <c r="Y83" s="39"/>
-      <c r="Z83" s="39"/>
-      <c r="AA83" s="39"/>
-      <c r="AB83" s="39"/>
-      <c r="AC83" s="39"/>
-      <c r="AD83" s="39"/>
-      <c r="AE83" s="39"/>
-      <c r="AF83" s="39"/>
-      <c r="AG83" s="39"/>
-      <c r="AH83" s="39"/>
-      <c r="AI83" s="39"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="36"/>
+      <c r="O83" s="36"/>
+      <c r="P83" s="36"/>
+      <c r="Q83" s="36"/>
+      <c r="R83" s="36"/>
+      <c r="S83" s="36"/>
+      <c r="T83" s="36"/>
+      <c r="U83" s="36"/>
+      <c r="V83" s="36"/>
+      <c r="W83" s="36"/>
+      <c r="X83" s="36"/>
+      <c r="Y83" s="36"/>
+      <c r="Z83" s="36"/>
+      <c r="AA83" s="36"/>
+      <c r="AB83" s="36"/>
+      <c r="AC83" s="36"/>
+      <c r="AD83" s="36"/>
+      <c r="AE83" s="36"/>
+      <c r="AF83" s="36"/>
+      <c r="AG83" s="36"/>
+      <c r="AH83" s="36"/>
+      <c r="AI83" s="36"/>
     </row>
     <row r="84" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>359</v>
+        <v>66</v>
       </c>
       <c r="C84" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="36"/>
-      <c r="L84" s="36"/>
-      <c r="M84" s="36"/>
-      <c r="N84" s="36"/>
-      <c r="O84" s="36"/>
-      <c r="P84" s="36"/>
-      <c r="Q84" s="36"/>
-      <c r="R84" s="36"/>
-      <c r="S84" s="36"/>
-      <c r="T84" s="36"/>
-      <c r="U84" s="36"/>
-      <c r="V84" s="36"/>
-      <c r="W84" s="36"/>
-      <c r="X84" s="36"/>
-      <c r="Y84" s="36"/>
-      <c r="Z84" s="36"/>
-      <c r="AA84" s="36"/>
-      <c r="AB84" s="36"/>
-      <c r="AC84" s="36"/>
-      <c r="AD84" s="36"/>
-      <c r="AE84" s="36"/>
-      <c r="AF84" s="36"/>
-      <c r="AG84" s="36"/>
-      <c r="AH84" s="36"/>
-      <c r="AI84" s="36"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="39"/>
+      <c r="L84" s="39"/>
+      <c r="M84" s="39"/>
+      <c r="N84" s="39"/>
+      <c r="O84" s="39"/>
+      <c r="P84" s="39"/>
+      <c r="Q84" s="39"/>
+      <c r="R84" s="39"/>
+      <c r="S84" s="39"/>
+      <c r="T84" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="U84" s="39"/>
+      <c r="V84" s="39"/>
+      <c r="W84" s="39"/>
+      <c r="X84" s="39"/>
+      <c r="Y84" s="39"/>
+      <c r="Z84" s="39"/>
+      <c r="AA84" s="39"/>
+      <c r="AB84" s="39"/>
+      <c r="AC84" s="39"/>
+      <c r="AD84" s="39"/>
+      <c r="AE84" s="39"/>
+      <c r="AF84" s="39"/>
+      <c r="AG84" s="39"/>
+      <c r="AH84" s="39"/>
+      <c r="AI84" s="39"/>
     </row>
     <row r="85" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C85" s="39" t="s">
         <v>45</v>
@@ -6014,7 +6008,7 @@
       <c r="R85" s="39"/>
       <c r="S85" s="39"/>
       <c r="T85" s="39" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="U85" s="39"/>
       <c r="V85" s="39"/>
@@ -6034,55 +6028,53 @@
     </row>
     <row r="86" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="38" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>84</v>
+        <v>362</v>
       </c>
       <c r="C86" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="39"/>
-      <c r="K86" s="39"/>
-      <c r="L86" s="39"/>
-      <c r="M86" s="39"/>
-      <c r="N86" s="39"/>
-      <c r="O86" s="39"/>
-      <c r="P86" s="39"/>
-      <c r="Q86" s="39"/>
-      <c r="R86" s="39"/>
-      <c r="S86" s="39"/>
-      <c r="T86" s="39" t="s">
-        <v>361</v>
-      </c>
-      <c r="U86" s="39"/>
-      <c r="V86" s="39"/>
-      <c r="W86" s="39"/>
-      <c r="X86" s="39"/>
-      <c r="Y86" s="39"/>
-      <c r="Z86" s="39"/>
-      <c r="AA86" s="39"/>
-      <c r="AB86" s="39"/>
-      <c r="AC86" s="39"/>
-      <c r="AD86" s="39"/>
-      <c r="AE86" s="39"/>
-      <c r="AF86" s="39"/>
-      <c r="AG86" s="39"/>
-      <c r="AH86" s="39"/>
-      <c r="AI86" s="39"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="36"/>
+      <c r="P86" s="36"/>
+      <c r="Q86" s="36"/>
+      <c r="R86" s="36"/>
+      <c r="S86" s="36"/>
+      <c r="T86" s="36"/>
+      <c r="U86" s="36"/>
+      <c r="V86" s="36"/>
+      <c r="W86" s="36"/>
+      <c r="X86" s="36"/>
+      <c r="Y86" s="36"/>
+      <c r="Z86" s="36"/>
+      <c r="AA86" s="36"/>
+      <c r="AB86" s="36"/>
+      <c r="AC86" s="36"/>
+      <c r="AD86" s="36"/>
+      <c r="AE86" s="36"/>
+      <c r="AF86" s="36"/>
+      <c r="AG86" s="36"/>
+      <c r="AH86" s="36"/>
+      <c r="AI86" s="36"/>
     </row>
     <row r="87" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="38" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B87" s="38" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C87" s="39" t="s">
         <v>45</v>
@@ -6103,7 +6095,9 @@
       <c r="Q87" s="36"/>
       <c r="R87" s="36"/>
       <c r="S87" s="36"/>
-      <c r="T87" s="36"/>
+      <c r="T87" s="39" t="s">
+        <v>378</v>
+      </c>
       <c r="U87" s="36"/>
       <c r="V87" s="36"/>
       <c r="W87" s="36"/>
@@ -6125,7 +6119,7 @@
         <v>78</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C88" s="39" t="s">
         <v>45</v>
@@ -6147,7 +6141,7 @@
       <c r="R88" s="36"/>
       <c r="S88" s="36"/>
       <c r="T88" s="39" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="U88" s="36"/>
       <c r="V88" s="36"/>
@@ -6170,7 +6164,7 @@
         <v>78</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C89" s="39" t="s">
         <v>45</v>
@@ -6192,7 +6186,7 @@
       <c r="R89" s="36"/>
       <c r="S89" s="36"/>
       <c r="T89" s="39" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="U89" s="36"/>
       <c r="V89" s="36"/>
@@ -6215,7 +6209,7 @@
         <v>78</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C90" s="39" t="s">
         <v>45</v>
@@ -6225,80 +6219,74 @@
       <c r="F90" s="36"/>
       <c r="G90" s="36"/>
       <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="36"/>
-      <c r="N90" s="36"/>
-      <c r="O90" s="36"/>
-      <c r="P90" s="36"/>
-      <c r="Q90" s="36"/>
-      <c r="R90" s="36"/>
-      <c r="S90" s="36"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="39"/>
+      <c r="M90" s="39"/>
+      <c r="N90" s="39"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="39"/>
+      <c r="Q90" s="39"/>
+      <c r="R90" s="39"/>
+      <c r="S90" s="39"/>
       <c r="T90" s="39" t="s">
-        <v>366</v>
-      </c>
-      <c r="U90" s="36"/>
-      <c r="V90" s="36"/>
-      <c r="W90" s="36"/>
-      <c r="X90" s="36"/>
-      <c r="Y90" s="36"/>
-      <c r="Z90" s="36"/>
-      <c r="AA90" s="36"/>
-      <c r="AB90" s="36"/>
-      <c r="AC90" s="36"/>
-      <c r="AD90" s="36"/>
-      <c r="AE90" s="36"/>
-      <c r="AF90" s="36"/>
-      <c r="AG90" s="36"/>
-      <c r="AH90" s="36"/>
-      <c r="AI90" s="36"/>
+        <v>380</v>
+      </c>
+      <c r="U90" s="39"/>
+      <c r="V90" s="39"/>
+      <c r="W90" s="39"/>
+      <c r="X90" s="39"/>
+      <c r="Y90" s="39"/>
+      <c r="Z90" s="39"/>
+      <c r="AA90" s="39"/>
+      <c r="AB90" s="39"/>
+      <c r="AC90" s="39"/>
+      <c r="AD90" s="39"/>
+      <c r="AE90" s="39"/>
+      <c r="AF90" s="39"/>
+      <c r="AG90" s="39"/>
+      <c r="AH90" s="39"/>
+      <c r="AI90" s="39"/>
     </row>
     <row r="91" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B91" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="C91" s="39" t="s">
-        <v>45</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B91" s="38"/>
+      <c r="C91" s="36"/>
       <c r="D91" s="36"/>
       <c r="E91" s="36"/>
       <c r="F91" s="36"/>
       <c r="G91" s="36"/>
       <c r="H91" s="36"/>
-      <c r="I91" s="39"/>
-      <c r="J91" s="39"/>
-      <c r="K91" s="39"/>
-      <c r="L91" s="39"/>
-      <c r="M91" s="39"/>
-      <c r="N91" s="39"/>
-      <c r="O91" s="39"/>
-      <c r="P91" s="39"/>
-      <c r="Q91" s="39"/>
-      <c r="R91" s="39"/>
-      <c r="S91" s="39"/>
-      <c r="T91" s="39" t="s">
-        <v>380</v>
-      </c>
-      <c r="U91" s="39"/>
-      <c r="V91" s="39"/>
-      <c r="W91" s="39"/>
-      <c r="X91" s="39"/>
-      <c r="Y91" s="39"/>
-      <c r="Z91" s="39"/>
-      <c r="AA91" s="39"/>
-      <c r="AB91" s="39"/>
-      <c r="AC91" s="39"/>
-      <c r="AD91" s="39"/>
-      <c r="AE91" s="39"/>
-      <c r="AF91" s="39"/>
-      <c r="AG91" s="39"/>
-      <c r="AH91" s="39"/>
-      <c r="AI91" s="39"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="36"/>
+      <c r="O91" s="36"/>
+      <c r="P91" s="36"/>
+      <c r="Q91" s="36"/>
+      <c r="R91" s="36"/>
+      <c r="S91" s="36"/>
+      <c r="T91" s="36"/>
+      <c r="U91" s="36"/>
+      <c r="V91" s="36"/>
+      <c r="W91" s="36"/>
+      <c r="X91" s="36"/>
+      <c r="Y91" s="36"/>
+      <c r="Z91" s="36"/>
+      <c r="AA91" s="36"/>
+      <c r="AB91" s="36"/>
+      <c r="AC91" s="36"/>
+      <c r="AD91" s="36"/>
+      <c r="AE91" s="36"/>
+      <c r="AF91" s="36"/>
+      <c r="AG91" s="36"/>
+      <c r="AH91" s="36"/>
+      <c r="AI91" s="36"/>
     </row>
     <row r="92" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="38" t="s">
@@ -6340,11 +6328,15 @@
       <c r="AI92" s="36"/>
     </row>
     <row r="93" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B93" s="38"/>
-      <c r="C93" s="36"/>
+      <c r="A93" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B93" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="C93" s="36" t="s">
+        <v>45</v>
+      </c>
       <c r="D93" s="36"/>
       <c r="E93" s="36"/>
       <c r="F93" s="36"/>
@@ -6361,7 +6353,9 @@
       <c r="Q93" s="36"/>
       <c r="R93" s="36"/>
       <c r="S93" s="36"/>
-      <c r="T93" s="36"/>
+      <c r="T93" s="36" t="s">
+        <v>369</v>
+      </c>
       <c r="U93" s="36"/>
       <c r="V93" s="36"/>
       <c r="W93" s="36"/>
@@ -6376,18 +6370,16 @@
       <c r="AF93" s="36"/>
       <c r="AG93" s="36"/>
       <c r="AH93" s="36"/>
-      <c r="AI93" s="36"/>
+      <c r="AI93" s="36" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="94" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B94" s="41" t="s">
-        <v>368</v>
-      </c>
-      <c r="C94" s="36" t="s">
-        <v>45</v>
-      </c>
+      <c r="A94" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B94" s="38"/>
+      <c r="C94" s="36"/>
       <c r="D94" s="36"/>
       <c r="E94" s="36"/>
       <c r="F94" s="36"/>
@@ -6404,9 +6396,7 @@
       <c r="Q94" s="36"/>
       <c r="R94" s="36"/>
       <c r="S94" s="36"/>
-      <c r="T94" s="36" t="s">
-        <v>369</v>
-      </c>
+      <c r="T94" s="36"/>
       <c r="U94" s="36"/>
       <c r="V94" s="36"/>
       <c r="W94" s="36"/>
@@ -6421,16 +6411,18 @@
       <c r="AF94" s="36"/>
       <c r="AG94" s="36"/>
       <c r="AH94" s="36"/>
-      <c r="AI94" s="36" t="s">
-        <v>370</v>
-      </c>
+      <c r="AI94" s="36"/>
     </row>
     <row r="95" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B95" s="38"/>
-      <c r="C95" s="36"/>
+      <c r="A95" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B95" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="C95" s="36" t="s">
+        <v>45</v>
+      </c>
       <c r="D95" s="36"/>
       <c r="E95" s="36"/>
       <c r="F95" s="36"/>
@@ -6447,7 +6439,9 @@
       <c r="Q95" s="36"/>
       <c r="R95" s="36"/>
       <c r="S95" s="36"/>
-      <c r="T95" s="36"/>
+      <c r="T95" s="36" t="s">
+        <v>371</v>
+      </c>
       <c r="U95" s="36"/>
       <c r="V95" s="36"/>
       <c r="W95" s="36"/>
@@ -6462,39 +6456,35 @@
       <c r="AF95" s="36"/>
       <c r="AG95" s="36"/>
       <c r="AH95" s="36"/>
-      <c r="AI95" s="36"/>
+      <c r="AI95" s="36" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="96" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B96" s="41" t="s">
-        <v>381</v>
-      </c>
-      <c r="C96" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
+      <c r="A96" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B96" s="33"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
       <c r="I96" s="36"/>
       <c r="J96" s="36"/>
       <c r="K96" s="36"/>
       <c r="L96" s="36"/>
-      <c r="M96" s="36"/>
-      <c r="N96" s="36"/>
-      <c r="O96" s="36"/>
-      <c r="P96" s="36"/>
-      <c r="Q96" s="36"/>
-      <c r="R96" s="36"/>
-      <c r="S96" s="36"/>
-      <c r="T96" s="36" t="s">
-        <v>371</v>
-      </c>
+      <c r="M96" s="34"/>
+      <c r="N96" s="34"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="34"/>
+      <c r="Q96" s="34"/>
+      <c r="R96" s="34"/>
+      <c r="S96" s="34"/>
+      <c r="T96" s="34"/>
       <c r="U96" s="36"/>
-      <c r="V96" s="36"/>
+      <c r="V96" s="34"/>
       <c r="W96" s="36"/>
       <c r="X96" s="36"/>
       <c r="Y96" s="36"/>
@@ -6507,85 +6497,93 @@
       <c r="AF96" s="36"/>
       <c r="AG96" s="36"/>
       <c r="AH96" s="36"/>
-      <c r="AI96" s="36" t="s">
-        <v>371</v>
-      </c>
+      <c r="AI96" s="36"/>
     </row>
     <row r="97" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B97" s="33"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="36"/>
-      <c r="K97" s="36"/>
-      <c r="L97" s="36"/>
-      <c r="M97" s="34"/>
-      <c r="N97" s="34"/>
-      <c r="O97" s="34"/>
-      <c r="P97" s="34"/>
-      <c r="Q97" s="34"/>
-      <c r="R97" s="34"/>
-      <c r="S97" s="34"/>
-      <c r="T97" s="34"/>
-      <c r="U97" s="36"/>
-      <c r="V97" s="34"/>
-      <c r="W97" s="36"/>
-      <c r="X97" s="36"/>
-      <c r="Y97" s="36"/>
-      <c r="Z97" s="36"/>
-      <c r="AA97" s="36"/>
-      <c r="AB97" s="36"/>
-      <c r="AC97" s="36"/>
-      <c r="AD97" s="36"/>
-      <c r="AE97" s="36"/>
-      <c r="AF97" s="36"/>
-      <c r="AG97" s="36"/>
-      <c r="AH97" s="36"/>
-      <c r="AI97" s="36"/>
+      <c r="A97" s="31"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="AE97" s="31"/>
+      <c r="AF97" s="31"/>
+      <c r="AG97" s="31"/>
+      <c r="AH97" s="31"/>
+      <c r="AI97" s="31"/>
     </row>
     <row r="98" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="31"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="31"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
-      <c r="AE98" s="31"/>
-      <c r="AF98" s="31"/>
-      <c r="AG98" s="31"/>
-      <c r="AH98" s="31"/>
-      <c r="AI98" s="31"/>
+      <c r="A98" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C98" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="K98" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L98" s="36"/>
+      <c r="M98" s="34"/>
+      <c r="N98" s="34"/>
+      <c r="O98" s="34"/>
+      <c r="P98" s="34"/>
+      <c r="Q98" s="34"/>
+      <c r="R98" s="34"/>
+      <c r="S98" s="34"/>
+      <c r="T98" s="34"/>
+      <c r="U98" s="36"/>
+      <c r="V98" s="34"/>
+      <c r="W98" s="36"/>
+      <c r="X98" s="36"/>
+      <c r="Y98" s="36"/>
+      <c r="Z98" s="36"/>
+      <c r="AA98" s="36"/>
+      <c r="AB98" s="36"/>
+      <c r="AC98" s="36"/>
+      <c r="AD98" s="36"/>
+      <c r="AE98" s="36"/>
+      <c r="AF98" s="36"/>
+      <c r="AG98" s="36"/>
+      <c r="AH98" s="36"/>
+      <c r="AI98" s="36"/>
     </row>
     <row r="99" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
-        <v>42</v>
+        <v>335</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>239</v>
+        <v>391</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D99" s="35"/>
       <c r="E99" s="35"/>
       <c r="F99" s="35"/>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
-      <c r="I99" s="36"/>
-      <c r="J99" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="K99" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="L99" s="36"/>
-      <c r="M99" s="34"/>
+      <c r="I99" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="J99" s="34"/>
+      <c r="K99" s="34"/>
+      <c r="L99" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="M99" s="34" t="s">
+        <v>338</v>
+      </c>
       <c r="N99" s="34"/>
       <c r="O99" s="34"/>
       <c r="P99" s="34"/>
@@ -6593,31 +6591,31 @@
       <c r="R99" s="34"/>
       <c r="S99" s="34"/>
       <c r="T99" s="34"/>
-      <c r="U99" s="36"/>
+      <c r="U99" s="34"/>
       <c r="V99" s="34"/>
-      <c r="W99" s="36"/>
-      <c r="X99" s="36"/>
-      <c r="Y99" s="36"/>
-      <c r="Z99" s="36"/>
-      <c r="AA99" s="36"/>
-      <c r="AB99" s="36"/>
-      <c r="AC99" s="36"/>
-      <c r="AD99" s="36"/>
-      <c r="AE99" s="36"/>
-      <c r="AF99" s="36"/>
-      <c r="AG99" s="36"/>
-      <c r="AH99" s="36"/>
-      <c r="AI99" s="36"/>
+      <c r="W99" s="34"/>
+      <c r="X99" s="34"/>
+      <c r="Y99" s="34"/>
+      <c r="Z99" s="34"/>
+      <c r="AA99" s="34"/>
+      <c r="AB99" s="34"/>
+      <c r="AC99" s="34"/>
+      <c r="AD99" s="34"/>
+      <c r="AE99" s="34"/>
+      <c r="AF99" s="34"/>
+      <c r="AG99" s="34"/>
+      <c r="AH99" s="34"/>
+      <c r="AI99" s="34"/>
     </row>
     <row r="100" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="33" t="s">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D100" s="35"/>
       <c r="E100" s="35"/>
@@ -6629,12 +6627,8 @@
       </c>
       <c r="J100" s="34"/>
       <c r="K100" s="34"/>
-      <c r="L100" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="M100" s="34" t="s">
-        <v>338</v>
-      </c>
+      <c r="L100" s="34"/>
+      <c r="M100" s="34"/>
       <c r="N100" s="34"/>
       <c r="O100" s="34"/>
       <c r="P100" s="34"/>
@@ -6660,13 +6654,13 @@
     </row>
     <row r="101" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="33" t="s">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D101" s="35"/>
       <c r="E101" s="35"/>
@@ -6676,10 +6670,16 @@
       <c r="I101" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="J101" s="34"/>
+      <c r="J101" s="34" t="s">
+        <v>395</v>
+      </c>
       <c r="K101" s="34"/>
-      <c r="L101" s="34"/>
-      <c r="M101" s="34"/>
+      <c r="L101" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="M101" s="34" t="s">
+        <v>386</v>
+      </c>
       <c r="N101" s="34"/>
       <c r="O101" s="34"/>
       <c r="P101" s="34"/>
@@ -6705,32 +6705,20 @@
     </row>
     <row r="102" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="B102" s="33" t="s">
-        <v>394</v>
-      </c>
-      <c r="C102" s="34" t="s">
-        <v>384</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B102" s="33"/>
+      <c r="C102" s="34"/>
       <c r="D102" s="35"/>
       <c r="E102" s="35"/>
       <c r="F102" s="35"/>
       <c r="G102" s="35"/>
       <c r="H102" s="35"/>
-      <c r="I102" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J102" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="K102" s="34"/>
-      <c r="L102" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="M102" s="34" t="s">
-        <v>386</v>
-      </c>
+      <c r="I102" s="36"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
+      <c r="L102" s="36"/>
+      <c r="M102" s="34"/>
       <c r="N102" s="34"/>
       <c r="O102" s="34"/>
       <c r="P102" s="34"/>
@@ -6738,82 +6726,92 @@
       <c r="R102" s="34"/>
       <c r="S102" s="34"/>
       <c r="T102" s="34"/>
-      <c r="U102" s="34"/>
+      <c r="U102" s="36"/>
       <c r="V102" s="34"/>
-      <c r="W102" s="34"/>
-      <c r="X102" s="34"/>
-      <c r="Y102" s="34"/>
-      <c r="Z102" s="34"/>
-      <c r="AA102" s="34"/>
-      <c r="AB102" s="34"/>
-      <c r="AC102" s="34"/>
-      <c r="AD102" s="34"/>
-      <c r="AE102" s="34"/>
-      <c r="AF102" s="34"/>
-      <c r="AG102" s="34"/>
-      <c r="AH102" s="34"/>
-      <c r="AI102" s="34"/>
+      <c r="W102" s="36"/>
+      <c r="X102" s="36"/>
+      <c r="Y102" s="36"/>
+      <c r="Z102" s="36"/>
+      <c r="AA102" s="36"/>
+      <c r="AB102" s="36"/>
+      <c r="AC102" s="36"/>
+      <c r="AD102" s="36"/>
+      <c r="AE102" s="36"/>
+      <c r="AF102" s="36"/>
+      <c r="AG102" s="36"/>
+      <c r="AH102" s="36"/>
+      <c r="AI102" s="36"/>
     </row>
     <row r="103" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B103" s="33"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="35"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
-      <c r="L103" s="36"/>
-      <c r="M103" s="34"/>
-      <c r="N103" s="34"/>
-      <c r="O103" s="34"/>
-      <c r="P103" s="34"/>
-      <c r="Q103" s="34"/>
-      <c r="R103" s="34"/>
-      <c r="S103" s="34"/>
-      <c r="T103" s="34"/>
-      <c r="U103" s="36"/>
-      <c r="V103" s="34"/>
-      <c r="W103" s="36"/>
-      <c r="X103" s="36"/>
-      <c r="Y103" s="36"/>
-      <c r="Z103" s="36"/>
-      <c r="AA103" s="36"/>
-      <c r="AB103" s="36"/>
-      <c r="AC103" s="36"/>
-      <c r="AD103" s="36"/>
-      <c r="AE103" s="36"/>
-      <c r="AF103" s="36"/>
-      <c r="AG103" s="36"/>
-      <c r="AH103" s="36"/>
-      <c r="AI103" s="36"/>
+      <c r="A103" s="31"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="31"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="31"/>
+      <c r="AE103" s="31"/>
+      <c r="AF103" s="31"/>
+      <c r="AG103" s="31"/>
+      <c r="AH103" s="31"/>
+      <c r="AI103" s="31"/>
     </row>
     <row r="104" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="31"/>
-      <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
-      <c r="AE104" s="31"/>
-      <c r="AF104" s="31"/>
-      <c r="AG104" s="31"/>
-      <c r="AH104" s="31"/>
-      <c r="AI104" s="31"/>
+      <c r="A104" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="C104" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="D104" s="35"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="K104" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="L104" s="36"/>
+      <c r="M104" s="34"/>
+      <c r="N104" s="34"/>
+      <c r="O104" s="34"/>
+      <c r="P104" s="34"/>
+      <c r="Q104" s="34"/>
+      <c r="R104" s="34"/>
+      <c r="S104" s="34"/>
+      <c r="T104" s="34"/>
+      <c r="U104" s="36"/>
+      <c r="V104" s="34"/>
+      <c r="W104" s="36"/>
+      <c r="X104" s="36"/>
+      <c r="Y104" s="36"/>
+      <c r="Z104" s="36"/>
+      <c r="AA104" s="36"/>
+      <c r="AB104" s="36"/>
+      <c r="AC104" s="36"/>
+      <c r="AD104" s="36"/>
+      <c r="AE104" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF104" s="36"/>
+      <c r="AG104" s="36"/>
+      <c r="AH104" s="36"/>
+      <c r="AI104" s="36"/>
     </row>
     <row r="105" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="33" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B105" s="33" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D105" s="35"/>
       <c r="E105" s="35"/>
@@ -6821,12 +6819,8 @@
       <c r="G105" s="35"/>
       <c r="H105" s="35"/>
       <c r="I105" s="36"/>
-      <c r="J105" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="K105" s="36" t="s">
-        <v>396</v>
-      </c>
+      <c r="J105" s="36"/>
+      <c r="K105" s="36"/>
       <c r="L105" s="36"/>
       <c r="M105" s="34"/>
       <c r="N105" s="34"/>
@@ -6846,9 +6840,7 @@
       <c r="AB105" s="36"/>
       <c r="AC105" s="36"/>
       <c r="AD105" s="36"/>
-      <c r="AE105" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE105" s="36"/>
       <c r="AF105" s="36"/>
       <c r="AG105" s="36"/>
       <c r="AH105" s="36"/>
@@ -6859,10 +6851,10 @@
         <v>117</v>
       </c>
       <c r="B106" s="33" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D106" s="35"/>
       <c r="E106" s="35"/>
@@ -6902,10 +6894,10 @@
         <v>117</v>
       </c>
       <c r="B107" s="33" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D107" s="35"/>
       <c r="E107" s="35"/>
@@ -6945,10 +6937,10 @@
         <v>117</v>
       </c>
       <c r="B108" s="33" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D108" s="35"/>
       <c r="E108" s="35"/>
@@ -6988,10 +6980,10 @@
         <v>117</v>
       </c>
       <c r="B109" s="33" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D109" s="35"/>
       <c r="E109" s="35"/>
@@ -7028,30 +7020,26 @@
     </row>
     <row r="110" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B110" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="C110" s="34" t="s">
-        <v>458</v>
-      </c>
-      <c r="D110" s="35"/>
-      <c r="E110" s="35"/>
-      <c r="F110" s="35"/>
-      <c r="G110" s="35"/>
-      <c r="H110" s="35"/>
+        <v>68</v>
+      </c>
+      <c r="B110" s="33"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="36"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="36"/>
+      <c r="H110" s="36"/>
       <c r="I110" s="36"/>
       <c r="J110" s="36"/>
       <c r="K110" s="36"/>
       <c r="L110" s="36"/>
       <c r="M110" s="34"/>
-      <c r="N110" s="34"/>
-      <c r="O110" s="34"/>
-      <c r="P110" s="34"/>
-      <c r="Q110" s="34"/>
-      <c r="R110" s="34"/>
-      <c r="S110" s="34"/>
+      <c r="N110" s="36"/>
+      <c r="O110" s="36"/>
+      <c r="P110" s="36"/>
+      <c r="Q110" s="36"/>
+      <c r="R110" s="36"/>
+      <c r="S110" s="36"/>
       <c r="T110" s="34"/>
       <c r="U110" s="36"/>
       <c r="V110" s="34"/>
@@ -7070,90 +7058,98 @@
       <c r="AI110" s="36"/>
     </row>
     <row r="111" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B111" s="33"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="36"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="36"/>
-      <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
-      <c r="I111" s="36"/>
-      <c r="J111" s="36"/>
-      <c r="K111" s="36"/>
-      <c r="L111" s="36"/>
-      <c r="M111" s="34"/>
-      <c r="N111" s="36"/>
-      <c r="O111" s="36"/>
-      <c r="P111" s="36"/>
-      <c r="Q111" s="36"/>
-      <c r="R111" s="36"/>
-      <c r="S111" s="36"/>
-      <c r="T111" s="34"/>
-      <c r="U111" s="36"/>
-      <c r="V111" s="34"/>
-      <c r="W111" s="36"/>
-      <c r="X111" s="36"/>
-      <c r="Y111" s="36"/>
-      <c r="Z111" s="36"/>
-      <c r="AA111" s="36"/>
-      <c r="AB111" s="36"/>
-      <c r="AC111" s="36"/>
-      <c r="AD111" s="36"/>
-      <c r="AE111" s="36"/>
-      <c r="AF111" s="36"/>
-      <c r="AG111" s="36"/>
-      <c r="AH111" s="36"/>
-      <c r="AI111" s="36"/>
+      <c r="A111" s="42"/>
+      <c r="B111" s="42"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="31"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="31"/>
+      <c r="I111" s="43"/>
+      <c r="J111" s="43"/>
+      <c r="K111" s="43"/>
+      <c r="L111" s="43"/>
+      <c r="M111" s="42"/>
+      <c r="N111" s="42"/>
+      <c r="O111" s="42"/>
+      <c r="P111" s="42"/>
+      <c r="Q111" s="42"/>
+      <c r="R111" s="42"/>
+      <c r="S111" s="42"/>
+      <c r="T111" s="42"/>
+      <c r="U111" s="43"/>
+      <c r="V111" s="42"/>
+      <c r="W111" s="43"/>
+      <c r="X111" s="43"/>
+      <c r="Y111" s="43"/>
+      <c r="Z111" s="43"/>
+      <c r="AA111" s="43"/>
+      <c r="AB111" s="43"/>
+      <c r="AC111" s="43"/>
+      <c r="AD111" s="43"/>
+      <c r="AE111" s="43"/>
+      <c r="AF111" s="43"/>
+      <c r="AG111" s="43"/>
+      <c r="AH111" s="43"/>
+      <c r="AI111" s="43"/>
     </row>
     <row r="112" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="42"/>
-      <c r="B112" s="42"/>
-      <c r="C112" s="42"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="31"/>
-      <c r="I112" s="43"/>
-      <c r="J112" s="43"/>
-      <c r="K112" s="43"/>
-      <c r="L112" s="43"/>
-      <c r="M112" s="42"/>
-      <c r="N112" s="42"/>
-      <c r="O112" s="42"/>
-      <c r="P112" s="42"/>
-      <c r="Q112" s="42"/>
-      <c r="R112" s="42"/>
-      <c r="S112" s="42"/>
-      <c r="T112" s="42"/>
-      <c r="U112" s="43"/>
-      <c r="V112" s="42"/>
-      <c r="W112" s="43"/>
-      <c r="X112" s="43"/>
-      <c r="Y112" s="43"/>
-      <c r="Z112" s="43"/>
-      <c r="AA112" s="43"/>
-      <c r="AB112" s="43"/>
-      <c r="AC112" s="43"/>
-      <c r="AD112" s="43"/>
-      <c r="AE112" s="43"/>
-      <c r="AF112" s="43"/>
-      <c r="AG112" s="43"/>
-      <c r="AH112" s="43"/>
-      <c r="AI112" s="43"/>
+      <c r="A112" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B112" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="C112" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D112" s="35"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="35"/>
+      <c r="I112" s="36"/>
+      <c r="J112" s="34" t="s">
+        <v>334</v>
+      </c>
+      <c r="K112" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L112" s="36"/>
+      <c r="M112" s="34"/>
+      <c r="N112" s="34"/>
+      <c r="O112" s="34"/>
+      <c r="P112" s="34"/>
+      <c r="Q112" s="34"/>
+      <c r="R112" s="34"/>
+      <c r="S112" s="34"/>
+      <c r="T112" s="34"/>
+      <c r="U112" s="36"/>
+      <c r="V112" s="34"/>
+      <c r="W112" s="36"/>
+      <c r="X112" s="36"/>
+      <c r="Y112" s="36"/>
+      <c r="Z112" s="36"/>
+      <c r="AA112" s="36"/>
+      <c r="AB112" s="36"/>
+      <c r="AC112" s="36"/>
+      <c r="AD112" s="36"/>
+      <c r="AE112" s="36"/>
+      <c r="AF112" s="36"/>
+      <c r="AG112" s="36"/>
+      <c r="AH112" s="36"/>
+      <c r="AI112" s="36"/>
     </row>
     <row r="113" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="33" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B113" s="33" t="s">
-        <v>460</v>
+        <v>397</v>
       </c>
       <c r="C113" s="34" t="s">
-        <v>461</v>
+        <v>398</v>
       </c>
       <c r="D113" s="35"/>
       <c r="E113" s="35"/>
@@ -7161,12 +7157,8 @@
       <c r="G113" s="35"/>
       <c r="H113" s="35"/>
       <c r="I113" s="36"/>
-      <c r="J113" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="K113" s="36" t="s">
-        <v>47</v>
-      </c>
+      <c r="J113" s="36"/>
+      <c r="K113" s="36"/>
       <c r="L113" s="36"/>
       <c r="M113" s="34"/>
       <c r="N113" s="34"/>
@@ -7186,7 +7178,9 @@
       <c r="AB113" s="36"/>
       <c r="AC113" s="36"/>
       <c r="AD113" s="36"/>
-      <c r="AE113" s="36"/>
+      <c r="AE113" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="AF113" s="36"/>
       <c r="AG113" s="36"/>
       <c r="AH113" s="36"/>
@@ -7194,24 +7188,28 @@
     </row>
     <row r="114" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="33" t="s">
-        <v>117</v>
+        <v>399</v>
       </c>
       <c r="B114" s="33" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D114" s="35"/>
       <c r="E114" s="35"/>
       <c r="F114" s="35"/>
       <c r="G114" s="35"/>
       <c r="H114" s="35"/>
-      <c r="I114" s="36"/>
+      <c r="I114" s="36" t="s">
+        <v>57</v>
+      </c>
       <c r="J114" s="36"/>
       <c r="K114" s="36"/>
-      <c r="L114" s="36"/>
-      <c r="M114" s="34"/>
+      <c r="L114" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="M114" s="35"/>
       <c r="N114" s="34"/>
       <c r="O114" s="34"/>
       <c r="P114" s="34"/>
@@ -7219,7 +7217,9 @@
       <c r="R114" s="34"/>
       <c r="S114" s="34"/>
       <c r="T114" s="34"/>
-      <c r="U114" s="36"/>
+      <c r="U114" s="34" t="s">
+        <v>403</v>
+      </c>
       <c r="V114" s="34"/>
       <c r="W114" s="36"/>
       <c r="X114" s="36"/>
@@ -7229,9 +7229,7 @@
       <c r="AB114" s="36"/>
       <c r="AC114" s="36"/>
       <c r="AD114" s="36"/>
-      <c r="AE114" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE114" s="36"/>
       <c r="AF114" s="36"/>
       <c r="AG114" s="36"/>
       <c r="AH114" s="36"/>
@@ -7239,39 +7237,39 @@
     </row>
     <row r="115" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="33" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="B115" s="33" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C115" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="D115" s="35"/>
-      <c r="E115" s="35"/>
-      <c r="F115" s="35"/>
-      <c r="G115" s="35"/>
-      <c r="H115" s="35"/>
+        <v>405</v>
+      </c>
+      <c r="D115" s="36"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="36"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="36"/>
       <c r="I115" s="36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J115" s="36"/>
-      <c r="K115" s="36"/>
+      <c r="K115" s="34"/>
       <c r="L115" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="M115" s="35"/>
-      <c r="N115" s="34"/>
-      <c r="O115" s="34"/>
-      <c r="P115" s="34"/>
-      <c r="Q115" s="34"/>
-      <c r="R115" s="34"/>
-      <c r="S115" s="34"/>
-      <c r="T115" s="34"/>
-      <c r="U115" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="V115" s="34"/>
+        <v>406</v>
+      </c>
+      <c r="M115" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="N115" s="36"/>
+      <c r="O115" s="36"/>
+      <c r="P115" s="36"/>
+      <c r="Q115" s="36"/>
+      <c r="R115" s="36"/>
+      <c r="S115" s="36"/>
+      <c r="T115" s="36"/>
+      <c r="U115" s="36"/>
+      <c r="V115" s="36"/>
       <c r="W115" s="36"/>
       <c r="X115" s="36"/>
       <c r="Y115" s="36"/>
@@ -7288,37 +7286,33 @@
     </row>
     <row r="116" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="33" t="s">
-        <v>383</v>
+        <v>78</v>
       </c>
       <c r="B116" s="33" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C116" s="34" t="s">
-        <v>405</v>
+        <v>45</v>
       </c>
       <c r="D116" s="36"/>
       <c r="E116" s="36"/>
       <c r="F116" s="36"/>
       <c r="G116" s="36"/>
       <c r="H116" s="36"/>
-      <c r="I116" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="J116" s="36"/>
+      <c r="I116" s="36"/>
+      <c r="J116" s="34"/>
       <c r="K116" s="34"/>
-      <c r="L116" s="36" t="s">
-        <v>406</v>
-      </c>
-      <c r="M116" s="34" t="s">
-        <v>407</v>
-      </c>
+      <c r="L116" s="36"/>
+      <c r="M116" s="36"/>
       <c r="N116" s="36"/>
       <c r="O116" s="36"/>
       <c r="P116" s="36"/>
       <c r="Q116" s="36"/>
       <c r="R116" s="36"/>
       <c r="S116" s="36"/>
-      <c r="T116" s="36"/>
+      <c r="T116" s="36" t="s">
+        <v>508</v>
+      </c>
       <c r="U116" s="36"/>
       <c r="V116" s="36"/>
       <c r="W116" s="36"/>
@@ -7329,7 +7323,9 @@
       <c r="AB116" s="36"/>
       <c r="AC116" s="36"/>
       <c r="AD116" s="36"/>
-      <c r="AE116" s="36"/>
+      <c r="AE116" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="AF116" s="36"/>
       <c r="AG116" s="36"/>
       <c r="AH116" s="36"/>
@@ -7337,35 +7333,29 @@
     </row>
     <row r="117" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B117" s="33" t="s">
-        <v>408</v>
-      </c>
-      <c r="C117" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D117" s="36"/>
-      <c r="E117" s="36"/>
-      <c r="F117" s="36"/>
-      <c r="G117" s="36"/>
-      <c r="H117" s="36"/>
+        <v>68</v>
+      </c>
+      <c r="B117" s="33"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="35"/>
+      <c r="F117" s="35"/>
+      <c r="G117" s="35"/>
+      <c r="H117" s="35"/>
       <c r="I117" s="36"/>
-      <c r="J117" s="34"/>
-      <c r="K117" s="34"/>
+      <c r="J117" s="36"/>
+      <c r="K117" s="36"/>
       <c r="L117" s="36"/>
-      <c r="M117" s="36"/>
-      <c r="N117" s="36"/>
-      <c r="O117" s="36"/>
-      <c r="P117" s="36"/>
-      <c r="Q117" s="36"/>
-      <c r="R117" s="36"/>
-      <c r="S117" s="36"/>
-      <c r="T117" s="36" t="s">
-        <v>508</v>
-      </c>
+      <c r="M117" s="34"/>
+      <c r="N117" s="34"/>
+      <c r="O117" s="34"/>
+      <c r="P117" s="34"/>
+      <c r="Q117" s="34"/>
+      <c r="R117" s="34"/>
+      <c r="S117" s="34"/>
+      <c r="T117" s="34"/>
       <c r="U117" s="36"/>
-      <c r="V117" s="36"/>
+      <c r="V117" s="34"/>
       <c r="W117" s="36"/>
       <c r="X117" s="36"/>
       <c r="Y117" s="36"/>
@@ -7374,121 +7364,125 @@
       <c r="AB117" s="36"/>
       <c r="AC117" s="36"/>
       <c r="AD117" s="36"/>
-      <c r="AE117" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE117" s="36"/>
       <c r="AF117" s="36"/>
       <c r="AG117" s="36"/>
       <c r="AH117" s="36"/>
       <c r="AI117" s="36"/>
     </row>
     <row r="118" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B118" s="33"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="35"/>
-      <c r="F118" s="35"/>
-      <c r="G118" s="35"/>
-      <c r="H118" s="35"/>
-      <c r="I118" s="36"/>
-      <c r="J118" s="36"/>
-      <c r="K118" s="36"/>
-      <c r="L118" s="36"/>
-      <c r="M118" s="34"/>
-      <c r="N118" s="34"/>
-      <c r="O118" s="34"/>
-      <c r="P118" s="34"/>
-      <c r="Q118" s="34"/>
-      <c r="R118" s="34"/>
-      <c r="S118" s="34"/>
-      <c r="T118" s="34"/>
-      <c r="U118" s="36"/>
-      <c r="V118" s="34"/>
-      <c r="W118" s="36"/>
-      <c r="X118" s="36"/>
-      <c r="Y118" s="36"/>
-      <c r="Z118" s="36"/>
-      <c r="AA118" s="36"/>
-      <c r="AB118" s="36"/>
-      <c r="AC118" s="36"/>
-      <c r="AD118" s="36"/>
-      <c r="AE118" s="36"/>
-      <c r="AF118" s="36"/>
-      <c r="AG118" s="36"/>
-      <c r="AH118" s="36"/>
-      <c r="AI118" s="36"/>
+      <c r="A118" s="42"/>
+      <c r="B118" s="42"/>
+      <c r="C118" s="42"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="31"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="31"/>
+      <c r="I118" s="43"/>
+      <c r="J118" s="43"/>
+      <c r="K118" s="43"/>
+      <c r="L118" s="43"/>
+      <c r="M118" s="42"/>
+      <c r="N118" s="42"/>
+      <c r="O118" s="42"/>
+      <c r="P118" s="42"/>
+      <c r="Q118" s="42"/>
+      <c r="R118" s="42"/>
+      <c r="S118" s="42"/>
+      <c r="T118" s="42"/>
+      <c r="U118" s="43"/>
+      <c r="V118" s="42"/>
+      <c r="W118" s="43"/>
+      <c r="X118" s="43"/>
+      <c r="Y118" s="43"/>
+      <c r="Z118" s="43"/>
+      <c r="AA118" s="43"/>
+      <c r="AB118" s="43"/>
+      <c r="AC118" s="43"/>
+      <c r="AD118" s="43"/>
+      <c r="AE118" s="43"/>
+      <c r="AF118" s="43"/>
+      <c r="AG118" s="43"/>
+      <c r="AH118" s="43"/>
+      <c r="AI118" s="43"/>
     </row>
     <row r="119" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="42"/>
-      <c r="B119" s="42"/>
-      <c r="C119" s="42"/>
-      <c r="D119" s="31"/>
-      <c r="E119" s="31"/>
-      <c r="F119" s="31"/>
-      <c r="G119" s="31"/>
-      <c r="H119" s="31"/>
-      <c r="I119" s="43"/>
-      <c r="J119" s="43"/>
-      <c r="K119" s="43"/>
-      <c r="L119" s="43"/>
-      <c r="M119" s="42"/>
-      <c r="N119" s="42"/>
-      <c r="O119" s="42"/>
-      <c r="P119" s="42"/>
-      <c r="Q119" s="42"/>
-      <c r="R119" s="42"/>
-      <c r="S119" s="42"/>
-      <c r="T119" s="42"/>
-      <c r="U119" s="43"/>
-      <c r="V119" s="42"/>
-      <c r="W119" s="43"/>
-      <c r="X119" s="43"/>
-      <c r="Y119" s="43"/>
-      <c r="Z119" s="43"/>
-      <c r="AA119" s="43"/>
-      <c r="AB119" s="43"/>
-      <c r="AC119" s="43"/>
-      <c r="AD119" s="43"/>
-      <c r="AE119" s="43"/>
-      <c r="AF119" s="43"/>
-      <c r="AG119" s="43"/>
-      <c r="AH119" s="43"/>
-      <c r="AI119" s="43"/>
+      <c r="A119" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B119" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="C119" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D119" s="46"/>
+      <c r="E119" s="46"/>
+      <c r="F119" s="46"/>
+      <c r="G119" s="46"/>
+      <c r="H119" s="46"/>
+      <c r="I119" s="47"/>
+      <c r="J119" s="47"/>
+      <c r="K119" s="47" t="s">
+        <v>396</v>
+      </c>
+      <c r="L119" s="47"/>
+      <c r="M119" s="45"/>
+      <c r="N119" s="45"/>
+      <c r="O119" s="45"/>
+      <c r="P119" s="45"/>
+      <c r="Q119" s="45"/>
+      <c r="R119" s="45"/>
+      <c r="S119" s="45"/>
+      <c r="T119" s="45"/>
+      <c r="U119" s="47"/>
+      <c r="V119" s="45"/>
+      <c r="W119" s="47"/>
+      <c r="X119" s="47"/>
+      <c r="Y119" s="47"/>
+      <c r="Z119" s="47"/>
+      <c r="AA119" s="47"/>
+      <c r="AB119" s="47"/>
+      <c r="AC119" s="47"/>
+      <c r="AD119" s="47"/>
+      <c r="AE119" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF119" s="47"/>
+      <c r="AG119" s="47"/>
+      <c r="AH119" s="47"/>
+      <c r="AI119" s="47"/>
     </row>
     <row r="120" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B120" s="44" t="s">
-        <v>409</v>
+      <c r="A120" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B120" s="48" t="s">
+        <v>410</v>
       </c>
       <c r="C120" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D120" s="46"/>
-      <c r="E120" s="46"/>
-      <c r="F120" s="46"/>
-      <c r="G120" s="46"/>
-      <c r="H120" s="46"/>
+        <v>411</v>
+      </c>
+      <c r="D120" s="47"/>
+      <c r="E120" s="47"/>
+      <c r="F120" s="47"/>
+      <c r="G120" s="47"/>
+      <c r="H120" s="47"/>
       <c r="I120" s="47"/>
       <c r="J120" s="47"/>
-      <c r="K120" s="47" t="s">
-        <v>396</v>
-      </c>
+      <c r="K120" s="47"/>
       <c r="L120" s="47"/>
-      <c r="M120" s="45"/>
-      <c r="N120" s="45"/>
-      <c r="O120" s="45"/>
-      <c r="P120" s="45"/>
-      <c r="Q120" s="45"/>
-      <c r="R120" s="45"/>
-      <c r="S120" s="45"/>
-      <c r="T120" s="45"/>
+      <c r="M120" s="47"/>
+      <c r="N120" s="47"/>
+      <c r="O120" s="47"/>
+      <c r="P120" s="47"/>
+      <c r="Q120" s="47"/>
+      <c r="R120" s="47"/>
+      <c r="S120" s="47"/>
+      <c r="T120" s="47"/>
       <c r="U120" s="47"/>
-      <c r="V120" s="45"/>
+      <c r="V120" s="47"/>
       <c r="W120" s="47"/>
       <c r="X120" s="47"/>
       <c r="Y120" s="47"/>
@@ -7497,23 +7491,21 @@
       <c r="AB120" s="47"/>
       <c r="AC120" s="47"/>
       <c r="AD120" s="47"/>
-      <c r="AE120" s="47" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE120" s="47"/>
       <c r="AF120" s="47"/>
       <c r="AG120" s="47"/>
       <c r="AH120" s="47"/>
       <c r="AI120" s="47"/>
     </row>
     <row r="121" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="48" t="s">
+      <c r="A121" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B121" s="48" t="s">
-        <v>410</v>
+      <c r="B121" s="44" t="s">
+        <v>412</v>
       </c>
       <c r="C121" s="45" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D121" s="47"/>
       <c r="E121" s="47"/>
@@ -7522,7 +7514,9 @@
       <c r="H121" s="47"/>
       <c r="I121" s="47"/>
       <c r="J121" s="47"/>
-      <c r="K121" s="47"/>
+      <c r="K121" s="45" t="s">
+        <v>414</v>
+      </c>
       <c r="L121" s="47"/>
       <c r="M121" s="47"/>
       <c r="N121" s="47"/>
@@ -7553,10 +7547,10 @@
         <v>117</v>
       </c>
       <c r="B122" s="44" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C122" s="45" t="s">
-        <v>413</v>
+        <v>512</v>
       </c>
       <c r="D122" s="47"/>
       <c r="E122" s="47"/>
@@ -7565,9 +7559,7 @@
       <c r="H122" s="47"/>
       <c r="I122" s="47"/>
       <c r="J122" s="47"/>
-      <c r="K122" s="45" t="s">
-        <v>414</v>
-      </c>
+      <c r="K122" s="45"/>
       <c r="L122" s="47"/>
       <c r="M122" s="47"/>
       <c r="N122" s="47"/>
@@ -7598,10 +7590,10 @@
         <v>117</v>
       </c>
       <c r="B123" s="44" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="C123" s="45" t="s">
-        <v>512</v>
+        <v>462</v>
       </c>
       <c r="D123" s="47"/>
       <c r="E123" s="47"/>
@@ -7610,7 +7602,9 @@
       <c r="H123" s="47"/>
       <c r="I123" s="47"/>
       <c r="J123" s="47"/>
-      <c r="K123" s="45"/>
+      <c r="K123" s="45" t="s">
+        <v>414</v>
+      </c>
       <c r="L123" s="47"/>
       <c r="M123" s="47"/>
       <c r="N123" s="47"/>
@@ -7641,10 +7635,10 @@
         <v>117</v>
       </c>
       <c r="B124" s="44" t="s">
-        <v>466</v>
-      </c>
-      <c r="C124" s="45" t="s">
-        <v>462</v>
+        <v>416</v>
+      </c>
+      <c r="C124" s="47" t="s">
+        <v>463</v>
       </c>
       <c r="D124" s="47"/>
       <c r="E124" s="47"/>
@@ -7652,9 +7646,9 @@
       <c r="G124" s="47"/>
       <c r="H124" s="47"/>
       <c r="I124" s="47"/>
-      <c r="J124" s="47"/>
+      <c r="J124" s="46"/>
       <c r="K124" s="45" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L124" s="47"/>
       <c r="M124" s="47"/>
@@ -7686,32 +7680,34 @@
         <v>117</v>
       </c>
       <c r="B125" s="44" t="s">
-        <v>416</v>
-      </c>
-      <c r="C125" s="47" t="s">
-        <v>463</v>
-      </c>
-      <c r="D125" s="47"/>
-      <c r="E125" s="47"/>
-      <c r="F125" s="47"/>
-      <c r="G125" s="47"/>
-      <c r="H125" s="47"/>
+        <v>418</v>
+      </c>
+      <c r="C125" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D125" s="46"/>
+      <c r="E125" s="46"/>
+      <c r="F125" s="46"/>
+      <c r="G125" s="46"/>
+      <c r="H125" s="46"/>
       <c r="I125" s="47"/>
-      <c r="J125" s="46"/>
-      <c r="K125" s="45" t="s">
-        <v>417</v>
+      <c r="J125" s="45" t="s">
+        <v>467</v>
+      </c>
+      <c r="K125" s="47" t="s">
+        <v>419</v>
       </c>
       <c r="L125" s="47"/>
-      <c r="M125" s="47"/>
-      <c r="N125" s="47"/>
-      <c r="O125" s="47"/>
-      <c r="P125" s="47"/>
-      <c r="Q125" s="47"/>
-      <c r="R125" s="47"/>
-      <c r="S125" s="47"/>
-      <c r="T125" s="47"/>
+      <c r="M125" s="45"/>
+      <c r="N125" s="45"/>
+      <c r="O125" s="45"/>
+      <c r="P125" s="45"/>
+      <c r="Q125" s="45"/>
+      <c r="R125" s="45"/>
+      <c r="S125" s="45"/>
+      <c r="T125" s="45"/>
       <c r="U125" s="47"/>
-      <c r="V125" s="47"/>
+      <c r="V125" s="45"/>
       <c r="W125" s="47"/>
       <c r="X125" s="47"/>
       <c r="Y125" s="47"/>
@@ -7731,10 +7727,10 @@
         <v>117</v>
       </c>
       <c r="B126" s="44" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C126" s="45" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D126" s="46"/>
       <c r="E126" s="46"/>
@@ -7743,7 +7739,7 @@
       <c r="H126" s="46"/>
       <c r="I126" s="47"/>
       <c r="J126" s="45" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K126" s="47" t="s">
         <v>419</v>
@@ -7778,10 +7774,10 @@
         <v>117</v>
       </c>
       <c r="B127" s="44" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C127" s="45" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D127" s="46"/>
       <c r="E127" s="46"/>
@@ -7790,7 +7786,7 @@
       <c r="H127" s="46"/>
       <c r="I127" s="47"/>
       <c r="J127" s="45" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K127" s="47" t="s">
         <v>419</v>
@@ -7825,34 +7821,34 @@
         <v>117</v>
       </c>
       <c r="B128" s="44" t="s">
-        <v>421</v>
-      </c>
-      <c r="C128" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="D128" s="46"/>
-      <c r="E128" s="46"/>
-      <c r="F128" s="46"/>
-      <c r="G128" s="46"/>
-      <c r="H128" s="46"/>
+        <v>465</v>
+      </c>
+      <c r="C128" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="D128" s="47"/>
+      <c r="E128" s="47"/>
+      <c r="F128" s="47"/>
+      <c r="G128" s="47"/>
+      <c r="H128" s="47"/>
       <c r="I128" s="47"/>
       <c r="J128" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="K128" s="47" t="s">
-        <v>419</v>
+      <c r="K128" s="45" t="s">
+        <v>417</v>
       </c>
       <c r="L128" s="47"/>
-      <c r="M128" s="45"/>
-      <c r="N128" s="45"/>
-      <c r="O128" s="45"/>
-      <c r="P128" s="45"/>
-      <c r="Q128" s="45"/>
-      <c r="R128" s="45"/>
-      <c r="S128" s="45"/>
-      <c r="T128" s="45"/>
+      <c r="M128" s="47"/>
+      <c r="N128" s="47"/>
+      <c r="O128" s="47"/>
+      <c r="P128" s="47"/>
+      <c r="Q128" s="47"/>
+      <c r="R128" s="47"/>
+      <c r="S128" s="47"/>
+      <c r="T128" s="47"/>
       <c r="U128" s="47"/>
-      <c r="V128" s="45"/>
+      <c r="V128" s="47"/>
       <c r="W128" s="47"/>
       <c r="X128" s="47"/>
       <c r="Y128" s="47"/>
@@ -7872,34 +7868,34 @@
         <v>117</v>
       </c>
       <c r="B129" s="44" t="s">
-        <v>465</v>
-      </c>
-      <c r="C129" s="47" t="s">
-        <v>422</v>
-      </c>
-      <c r="D129" s="47"/>
-      <c r="E129" s="47"/>
-      <c r="F129" s="47"/>
-      <c r="G129" s="47"/>
-      <c r="H129" s="47"/>
+        <v>423</v>
+      </c>
+      <c r="C129" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="D129" s="46"/>
+      <c r="E129" s="46"/>
+      <c r="F129" s="46"/>
+      <c r="G129" s="46"/>
+      <c r="H129" s="46"/>
       <c r="I129" s="47"/>
       <c r="J129" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="K129" s="45" t="s">
-        <v>417</v>
+      <c r="K129" s="47" t="s">
+        <v>419</v>
       </c>
       <c r="L129" s="47"/>
-      <c r="M129" s="47"/>
-      <c r="N129" s="47"/>
-      <c r="O129" s="47"/>
-      <c r="P129" s="47"/>
-      <c r="Q129" s="47"/>
-      <c r="R129" s="47"/>
-      <c r="S129" s="47"/>
-      <c r="T129" s="47"/>
+      <c r="M129" s="45"/>
+      <c r="N129" s="45"/>
+      <c r="O129" s="45"/>
+      <c r="P129" s="45"/>
+      <c r="Q129" s="45"/>
+      <c r="R129" s="45"/>
+      <c r="S129" s="45"/>
+      <c r="T129" s="45"/>
       <c r="U129" s="47"/>
-      <c r="V129" s="47"/>
+      <c r="V129" s="45"/>
       <c r="W129" s="47"/>
       <c r="X129" s="47"/>
       <c r="Y129" s="47"/>
@@ -7919,10 +7915,10 @@
         <v>117</v>
       </c>
       <c r="B130" s="44" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C130" s="45" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="D130" s="46"/>
       <c r="E130" s="46"/>
@@ -7966,10 +7962,10 @@
         <v>117</v>
       </c>
       <c r="B131" s="44" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="C131" s="45" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="D131" s="46"/>
       <c r="E131" s="46"/>
@@ -7978,10 +7974,10 @@
       <c r="H131" s="46"/>
       <c r="I131" s="47"/>
       <c r="J131" s="45" t="s">
-        <v>469</v>
-      </c>
-      <c r="K131" s="47" t="s">
-        <v>419</v>
+        <v>482</v>
+      </c>
+      <c r="K131" s="45" t="s">
+        <v>417</v>
       </c>
       <c r="L131" s="47"/>
       <c r="M131" s="45"/>
@@ -8013,34 +8009,34 @@
         <v>117</v>
       </c>
       <c r="B132" s="44" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C132" s="45" t="s">
-        <v>481</v>
-      </c>
-      <c r="D132" s="46"/>
-      <c r="E132" s="46"/>
-      <c r="F132" s="46"/>
-      <c r="G132" s="46"/>
-      <c r="H132" s="46"/>
+        <v>492</v>
+      </c>
+      <c r="D132" s="47"/>
+      <c r="E132" s="47"/>
+      <c r="F132" s="47"/>
+      <c r="G132" s="47"/>
+      <c r="H132" s="47"/>
       <c r="I132" s="47"/>
       <c r="J132" s="45" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K132" s="45" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L132" s="47"/>
-      <c r="M132" s="45"/>
-      <c r="N132" s="45"/>
-      <c r="O132" s="45"/>
-      <c r="P132" s="45"/>
-      <c r="Q132" s="45"/>
-      <c r="R132" s="45"/>
-      <c r="S132" s="45"/>
-      <c r="T132" s="45"/>
+      <c r="M132" s="47"/>
+      <c r="N132" s="47"/>
+      <c r="O132" s="47"/>
+      <c r="P132" s="47"/>
+      <c r="Q132" s="47"/>
+      <c r="R132" s="47"/>
+      <c r="S132" s="47"/>
+      <c r="T132" s="47"/>
       <c r="U132" s="47"/>
-      <c r="V132" s="45"/>
+      <c r="V132" s="47"/>
       <c r="W132" s="47"/>
       <c r="X132" s="47"/>
       <c r="Y132" s="47"/>
@@ -8060,10 +8056,10 @@
         <v>117</v>
       </c>
       <c r="B133" s="44" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C133" s="45" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D133" s="47"/>
       <c r="E133" s="47"/>
@@ -8072,7 +8068,7 @@
       <c r="H133" s="47"/>
       <c r="I133" s="47"/>
       <c r="J133" s="45" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K133" s="45" t="s">
         <v>419</v>
@@ -8107,10 +8103,10 @@
         <v>117</v>
       </c>
       <c r="B134" s="44" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C134" s="45" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D134" s="47"/>
       <c r="E134" s="47"/>
@@ -8119,7 +8115,7 @@
       <c r="H134" s="47"/>
       <c r="I134" s="47"/>
       <c r="J134" s="45" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K134" s="45" t="s">
         <v>419</v>
@@ -8154,10 +8150,10 @@
         <v>117</v>
       </c>
       <c r="B135" s="44" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C135" s="45" t="s">
-        <v>494</v>
+        <v>210</v>
       </c>
       <c r="D135" s="47"/>
       <c r="E135" s="47"/>
@@ -8166,7 +8162,7 @@
       <c r="H135" s="47"/>
       <c r="I135" s="47"/>
       <c r="J135" s="45" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K135" s="45" t="s">
         <v>419</v>
@@ -8201,10 +8197,10 @@
         <v>117</v>
       </c>
       <c r="B136" s="44" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C136" s="45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D136" s="47"/>
       <c r="E136" s="47"/>
@@ -8213,7 +8209,7 @@
       <c r="H136" s="47"/>
       <c r="I136" s="47"/>
       <c r="J136" s="45" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K136" s="45" t="s">
         <v>419</v>
@@ -8248,10 +8244,10 @@
         <v>117</v>
       </c>
       <c r="B137" s="44" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C137" s="45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D137" s="47"/>
       <c r="E137" s="47"/>
@@ -8260,7 +8256,7 @@
       <c r="H137" s="47"/>
       <c r="I137" s="47"/>
       <c r="J137" s="45" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K137" s="45" t="s">
         <v>419</v>
@@ -8295,10 +8291,10 @@
         <v>117</v>
       </c>
       <c r="B138" s="44" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C138" s="45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D138" s="47"/>
       <c r="E138" s="47"/>
@@ -8307,7 +8303,7 @@
       <c r="H138" s="47"/>
       <c r="I138" s="47"/>
       <c r="J138" s="45" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K138" s="45" t="s">
         <v>419</v>
@@ -8342,10 +8338,10 @@
         <v>117</v>
       </c>
       <c r="B139" s="44" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C139" s="45" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D139" s="47"/>
       <c r="E139" s="47"/>
@@ -8354,7 +8350,7 @@
       <c r="H139" s="47"/>
       <c r="I139" s="47"/>
       <c r="J139" s="45" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K139" s="45" t="s">
         <v>419</v>
@@ -8389,10 +8385,10 @@
         <v>117</v>
       </c>
       <c r="B140" s="44" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C140" s="45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D140" s="47"/>
       <c r="E140" s="47"/>
@@ -8401,7 +8397,7 @@
       <c r="H140" s="47"/>
       <c r="I140" s="47"/>
       <c r="J140" s="45" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K140" s="45" t="s">
         <v>419</v>
@@ -8436,10 +8432,10 @@
         <v>117</v>
       </c>
       <c r="B141" s="44" t="s">
-        <v>480</v>
+        <v>426</v>
       </c>
       <c r="C141" s="45" t="s">
-        <v>215</v>
+        <v>427</v>
       </c>
       <c r="D141" s="47"/>
       <c r="E141" s="47"/>
@@ -8447,11 +8443,11 @@
       <c r="G141" s="47"/>
       <c r="H141" s="47"/>
       <c r="I141" s="47"/>
-      <c r="J141" s="45" t="s">
-        <v>491</v>
+      <c r="J141" s="47" t="s">
+        <v>495</v>
       </c>
       <c r="K141" s="45" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="L141" s="47"/>
       <c r="M141" s="47"/>
@@ -8483,10 +8479,10 @@
         <v>117</v>
       </c>
       <c r="B142" s="44" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C142" s="45" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D142" s="47"/>
       <c r="E142" s="47"/>
@@ -8494,12 +8490,10 @@
       <c r="G142" s="47"/>
       <c r="H142" s="47"/>
       <c r="I142" s="47"/>
-      <c r="J142" s="47" t="s">
-        <v>495</v>
-      </c>
-      <c r="K142" s="45" t="s">
-        <v>428</v>
-      </c>
+      <c r="J142" s="45" t="s">
+        <v>431</v>
+      </c>
+      <c r="K142" s="45"/>
       <c r="L142" s="47"/>
       <c r="M142" s="47"/>
       <c r="N142" s="47"/>
@@ -8530,10 +8524,10 @@
         <v>117</v>
       </c>
       <c r="B143" s="44" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C143" s="45" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D143" s="47"/>
       <c r="E143" s="47"/>
@@ -8542,9 +8536,11 @@
       <c r="H143" s="47"/>
       <c r="I143" s="47"/>
       <c r="J143" s="45" t="s">
-        <v>431</v>
-      </c>
-      <c r="K143" s="45"/>
+        <v>482</v>
+      </c>
+      <c r="K143" s="45" t="s">
+        <v>419</v>
+      </c>
       <c r="L143" s="47"/>
       <c r="M143" s="47"/>
       <c r="N143" s="47"/>
@@ -8575,34 +8571,34 @@
         <v>117</v>
       </c>
       <c r="B144" s="44" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C144" s="45" t="s">
-        <v>425</v>
-      </c>
-      <c r="D144" s="47"/>
-      <c r="E144" s="47"/>
-      <c r="F144" s="47"/>
-      <c r="G144" s="47"/>
-      <c r="H144" s="47"/>
+        <v>434</v>
+      </c>
+      <c r="D144" s="46"/>
+      <c r="E144" s="46"/>
+      <c r="F144" s="46"/>
+      <c r="G144" s="46"/>
+      <c r="H144" s="46"/>
       <c r="I144" s="47"/>
       <c r="J144" s="45" t="s">
-        <v>482</v>
-      </c>
-      <c r="K144" s="45" t="s">
+        <v>468</v>
+      </c>
+      <c r="K144" s="47" t="s">
         <v>419</v>
       </c>
       <c r="L144" s="47"/>
-      <c r="M144" s="47"/>
-      <c r="N144" s="47"/>
-      <c r="O144" s="47"/>
-      <c r="P144" s="47"/>
-      <c r="Q144" s="47"/>
-      <c r="R144" s="47"/>
-      <c r="S144" s="47"/>
-      <c r="T144" s="47"/>
+      <c r="M144" s="45"/>
+      <c r="N144" s="45"/>
+      <c r="O144" s="45"/>
+      <c r="P144" s="45"/>
+      <c r="Q144" s="45"/>
+      <c r="R144" s="45"/>
+      <c r="S144" s="45"/>
+      <c r="T144" s="45"/>
       <c r="U144" s="47"/>
-      <c r="V144" s="47"/>
+      <c r="V144" s="45"/>
       <c r="W144" s="47"/>
       <c r="X144" s="47"/>
       <c r="Y144" s="47"/>
@@ -8622,10 +8618,10 @@
         <v>117</v>
       </c>
       <c r="B145" s="44" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C145" s="45" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D145" s="46"/>
       <c r="E145" s="46"/>
@@ -8633,12 +8629,10 @@
       <c r="G145" s="46"/>
       <c r="H145" s="46"/>
       <c r="I145" s="47"/>
-      <c r="J145" s="45" t="s">
-        <v>468</v>
-      </c>
-      <c r="K145" s="47" t="s">
-        <v>419</v>
-      </c>
+      <c r="J145" s="47" t="s">
+        <v>470</v>
+      </c>
+      <c r="K145" s="47"/>
       <c r="L145" s="47"/>
       <c r="M145" s="45"/>
       <c r="N145" s="45"/>
@@ -8669,10 +8663,10 @@
         <v>117</v>
       </c>
       <c r="B146" s="44" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C146" s="45" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D146" s="46"/>
       <c r="E146" s="46"/>
@@ -8714,32 +8708,34 @@
         <v>117</v>
       </c>
       <c r="B147" s="44" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C147" s="45" t="s">
-        <v>438</v>
-      </c>
-      <c r="D147" s="46"/>
-      <c r="E147" s="46"/>
-      <c r="F147" s="46"/>
-      <c r="G147" s="46"/>
-      <c r="H147" s="46"/>
+        <v>440</v>
+      </c>
+      <c r="D147" s="47"/>
+      <c r="E147" s="47"/>
+      <c r="F147" s="47"/>
+      <c r="G147" s="47"/>
+      <c r="H147" s="47"/>
       <c r="I147" s="47"/>
-      <c r="J147" s="47" t="s">
-        <v>470</v>
-      </c>
-      <c r="K147" s="47"/>
+      <c r="J147" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="K147" s="45" t="s">
+        <v>441</v>
+      </c>
       <c r="L147" s="47"/>
-      <c r="M147" s="45"/>
-      <c r="N147" s="45"/>
-      <c r="O147" s="45"/>
-      <c r="P147" s="45"/>
-      <c r="Q147" s="45"/>
-      <c r="R147" s="45"/>
-      <c r="S147" s="45"/>
-      <c r="T147" s="45"/>
+      <c r="M147" s="47"/>
+      <c r="N147" s="47"/>
+      <c r="O147" s="47"/>
+      <c r="P147" s="47"/>
+      <c r="Q147" s="47"/>
+      <c r="R147" s="47"/>
+      <c r="S147" s="47"/>
+      <c r="T147" s="47"/>
       <c r="U147" s="47"/>
-      <c r="V147" s="45"/>
+      <c r="V147" s="47"/>
       <c r="W147" s="47"/>
       <c r="X147" s="47"/>
       <c r="Y147" s="47"/>
@@ -8759,10 +8755,10 @@
         <v>117</v>
       </c>
       <c r="B148" s="44" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C148" s="45" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D148" s="47"/>
       <c r="E148" s="47"/>
@@ -8773,9 +8769,7 @@
       <c r="J148" s="45" t="s">
         <v>482</v>
       </c>
-      <c r="K148" s="45" t="s">
-        <v>441</v>
-      </c>
+      <c r="K148" s="45"/>
       <c r="L148" s="47"/>
       <c r="M148" s="47"/>
       <c r="N148" s="47"/>
@@ -8806,10 +8800,10 @@
         <v>117</v>
       </c>
       <c r="B149" s="44" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C149" s="45" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D149" s="47"/>
       <c r="E149" s="47"/>
@@ -8851,10 +8845,10 @@
         <v>117</v>
       </c>
       <c r="B150" s="44" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C150" s="45" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D150" s="47"/>
       <c r="E150" s="47"/>
@@ -8893,35 +8887,29 @@
     </row>
     <row r="151" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B151" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="C151" s="45" t="s">
-        <v>447</v>
-      </c>
-      <c r="D151" s="47"/>
-      <c r="E151" s="47"/>
-      <c r="F151" s="47"/>
-      <c r="G151" s="47"/>
-      <c r="H151" s="47"/>
+        <v>68</v>
+      </c>
+      <c r="B151" s="44"/>
+      <c r="C151" s="45"/>
+      <c r="D151" s="46"/>
+      <c r="E151" s="46"/>
+      <c r="F151" s="46"/>
+      <c r="G151" s="46"/>
+      <c r="H151" s="46"/>
       <c r="I151" s="47"/>
-      <c r="J151" s="45" t="s">
-        <v>482</v>
-      </c>
-      <c r="K151" s="45"/>
+      <c r="J151" s="47"/>
+      <c r="K151" s="47"/>
       <c r="L151" s="47"/>
-      <c r="M151" s="47"/>
-      <c r="N151" s="47"/>
-      <c r="O151" s="47"/>
-      <c r="P151" s="47"/>
-      <c r="Q151" s="47"/>
-      <c r="R151" s="47"/>
-      <c r="S151" s="47"/>
-      <c r="T151" s="47"/>
+      <c r="M151" s="45"/>
+      <c r="N151" s="45"/>
+      <c r="O151" s="45"/>
+      <c r="P151" s="45"/>
+      <c r="Q151" s="45"/>
+      <c r="R151" s="45"/>
+      <c r="S151" s="45"/>
+      <c r="T151" s="45"/>
       <c r="U151" s="47"/>
-      <c r="V151" s="47"/>
+      <c r="V151" s="45"/>
       <c r="W151" s="47"/>
       <c r="X151" s="47"/>
       <c r="Y151" s="47"/>
@@ -8937,62 +8925,70 @@
       <c r="AI151" s="47"/>
     </row>
     <row r="152" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B152" s="44"/>
-      <c r="C152" s="45"/>
-      <c r="D152" s="46"/>
-      <c r="E152" s="46"/>
-      <c r="F152" s="46"/>
-      <c r="G152" s="46"/>
-      <c r="H152" s="46"/>
-      <c r="I152" s="47"/>
-      <c r="J152" s="47"/>
-      <c r="K152" s="47"/>
-      <c r="L152" s="47"/>
-      <c r="M152" s="45"/>
-      <c r="N152" s="45"/>
-      <c r="O152" s="45"/>
-      <c r="P152" s="45"/>
-      <c r="Q152" s="45"/>
-      <c r="R152" s="45"/>
-      <c r="S152" s="45"/>
-      <c r="T152" s="45"/>
-      <c r="U152" s="47"/>
-      <c r="V152" s="45"/>
-      <c r="W152" s="47"/>
-      <c r="X152" s="47"/>
-      <c r="Y152" s="47"/>
-      <c r="Z152" s="47"/>
-      <c r="AA152" s="47"/>
-      <c r="AB152" s="47"/>
-      <c r="AC152" s="47"/>
-      <c r="AD152" s="47"/>
-      <c r="AE152" s="47"/>
-      <c r="AF152" s="47"/>
-      <c r="AG152" s="47"/>
-      <c r="AH152" s="47"/>
-      <c r="AI152" s="47"/>
+      <c r="A152" s="31"/>
+      <c r="B152" s="31"/>
+      <c r="C152" s="31"/>
+      <c r="E152" s="31"/>
+      <c r="F152" s="31"/>
+      <c r="AE152" s="31"/>
+      <c r="AF152" s="31"/>
+      <c r="AG152" s="31"/>
+      <c r="AH152" s="31"/>
+      <c r="AI152" s="31"/>
     </row>
     <row r="153" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="31"/>
-      <c r="B153" s="31"/>
-      <c r="C153" s="31"/>
-      <c r="E153" s="31"/>
-      <c r="F153" s="31"/>
-      <c r="AE153" s="31"/>
-      <c r="AF153" s="31"/>
-      <c r="AG153" s="31"/>
-      <c r="AH153" s="31"/>
-      <c r="AI153" s="31"/>
+      <c r="A153" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B153" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C153" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D153" s="50"/>
+      <c r="E153" s="50"/>
+      <c r="F153" s="50"/>
+      <c r="G153" s="50"/>
+      <c r="H153" s="50"/>
+      <c r="I153" s="50"/>
+      <c r="J153" s="50"/>
+      <c r="K153" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="L153" s="50"/>
+      <c r="M153" s="50"/>
+      <c r="N153" s="50"/>
+      <c r="O153" s="50"/>
+      <c r="P153" s="50"/>
+      <c r="Q153" s="50"/>
+      <c r="R153" s="50"/>
+      <c r="S153" s="50"/>
+      <c r="T153" s="50"/>
+      <c r="U153" s="50"/>
+      <c r="V153" s="50"/>
+      <c r="W153" s="50"/>
+      <c r="X153" s="50"/>
+      <c r="Y153" s="50"/>
+      <c r="Z153" s="50"/>
+      <c r="AA153" s="50"/>
+      <c r="AB153" s="50"/>
+      <c r="AC153" s="50"/>
+      <c r="AD153" s="50"/>
+      <c r="AE153" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF153" s="50"/>
+      <c r="AG153" s="50"/>
+      <c r="AH153" s="50"/>
+      <c r="AI153" s="50"/>
     </row>
     <row r="154" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B154" s="49" t="s">
-        <v>48</v>
+        <v>78</v>
+      </c>
+      <c r="B154" s="52" t="s">
+        <v>238</v>
       </c>
       <c r="C154" s="50" t="s">
         <v>45</v>
@@ -9004,9 +9000,7 @@
       <c r="H154" s="50"/>
       <c r="I154" s="50"/>
       <c r="J154" s="50"/>
-      <c r="K154" s="51" t="s">
-        <v>50</v>
-      </c>
+      <c r="K154" s="50"/>
       <c r="L154" s="50"/>
       <c r="M154" s="50"/>
       <c r="N154" s="50"/>
@@ -9015,7 +9009,9 @@
       <c r="Q154" s="50"/>
       <c r="R154" s="50"/>
       <c r="S154" s="50"/>
-      <c r="T154" s="50"/>
+      <c r="T154" s="50" t="s">
+        <v>497</v>
+      </c>
       <c r="U154" s="50"/>
       <c r="V154" s="50"/>
       <c r="W154" s="50"/>
@@ -9026,11 +9022,11 @@
       <c r="AB154" s="50"/>
       <c r="AC154" s="50"/>
       <c r="AD154" s="50"/>
-      <c r="AE154" s="51" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE154" s="50"/>
       <c r="AF154" s="50"/>
-      <c r="AG154" s="50"/>
+      <c r="AG154" s="51" t="s">
+        <v>129</v>
+      </c>
       <c r="AH154" s="50"/>
       <c r="AI154" s="50"/>
     </row>
@@ -9039,7 +9035,7 @@
         <v>78</v>
       </c>
       <c r="B155" s="52" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C155" s="50" t="s">
         <v>45</v>
@@ -9061,7 +9057,7 @@
       <c r="R155" s="50"/>
       <c r="S155" s="50"/>
       <c r="T155" s="50" t="s">
-        <v>497</v>
+        <v>161</v>
       </c>
       <c r="U155" s="50"/>
       <c r="V155" s="50"/>
@@ -9076,7 +9072,7 @@
       <c r="AE155" s="50"/>
       <c r="AF155" s="50"/>
       <c r="AG155" s="51" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AH155" s="50"/>
       <c r="AI155" s="50"/>
@@ -9086,7 +9082,7 @@
         <v>78</v>
       </c>
       <c r="B156" s="52" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C156" s="50" t="s">
         <v>45</v>
@@ -9108,7 +9104,7 @@
       <c r="R156" s="50"/>
       <c r="S156" s="50"/>
       <c r="T156" s="50" t="s">
-        <v>161</v>
+        <v>498</v>
       </c>
       <c r="U156" s="50"/>
       <c r="V156" s="50"/>
@@ -9123,7 +9119,7 @@
       <c r="AE156" s="50"/>
       <c r="AF156" s="50"/>
       <c r="AG156" s="51" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AH156" s="50"/>
       <c r="AI156" s="50"/>
@@ -9133,7 +9129,7 @@
         <v>78</v>
       </c>
       <c r="B157" s="52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C157" s="50" t="s">
         <v>45</v>
@@ -9155,7 +9151,7 @@
       <c r="R157" s="50"/>
       <c r="S157" s="50"/>
       <c r="T157" s="50" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="U157" s="50"/>
       <c r="V157" s="50"/>
@@ -9170,7 +9166,7 @@
       <c r="AE157" s="50"/>
       <c r="AF157" s="50"/>
       <c r="AG157" s="51" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH157" s="50"/>
       <c r="AI157" s="50"/>
@@ -9180,7 +9176,7 @@
         <v>78</v>
       </c>
       <c r="B158" s="52" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C158" s="50" t="s">
         <v>45</v>
@@ -9202,7 +9198,7 @@
       <c r="R158" s="50"/>
       <c r="S158" s="50"/>
       <c r="T158" s="50" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="U158" s="50"/>
       <c r="V158" s="50"/>
@@ -9217,7 +9213,7 @@
       <c r="AE158" s="50"/>
       <c r="AF158" s="50"/>
       <c r="AG158" s="51" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH158" s="50"/>
       <c r="AI158" s="50"/>
@@ -9227,7 +9223,7 @@
         <v>78</v>
       </c>
       <c r="B159" s="52" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C159" s="50" t="s">
         <v>45</v>
@@ -9249,7 +9245,7 @@
       <c r="R159" s="50"/>
       <c r="S159" s="50"/>
       <c r="T159" s="50" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="U159" s="50"/>
       <c r="V159" s="50"/>
@@ -9264,7 +9260,7 @@
       <c r="AE159" s="50"/>
       <c r="AF159" s="50"/>
       <c r="AG159" s="51" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AH159" s="50"/>
       <c r="AI159" s="50"/>
@@ -9274,7 +9270,7 @@
         <v>78</v>
       </c>
       <c r="B160" s="52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C160" s="50" t="s">
         <v>45</v>
@@ -9296,7 +9292,7 @@
       <c r="R160" s="50"/>
       <c r="S160" s="50"/>
       <c r="T160" s="50" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="U160" s="50"/>
       <c r="V160" s="50"/>
@@ -9311,7 +9307,7 @@
       <c r="AE160" s="50"/>
       <c r="AF160" s="50"/>
       <c r="AG160" s="51" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="AH160" s="50"/>
       <c r="AI160" s="50"/>
@@ -9321,7 +9317,7 @@
         <v>78</v>
       </c>
       <c r="B161" s="52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C161" s="50" t="s">
         <v>45</v>
@@ -9343,7 +9339,7 @@
       <c r="R161" s="50"/>
       <c r="S161" s="50"/>
       <c r="T161" s="50" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="U161" s="50"/>
       <c r="V161" s="50"/>
@@ -9358,7 +9354,7 @@
       <c r="AE161" s="50"/>
       <c r="AF161" s="50"/>
       <c r="AG161" s="51" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AH161" s="50"/>
       <c r="AI161" s="50"/>
@@ -9368,7 +9364,7 @@
         <v>78</v>
       </c>
       <c r="B162" s="52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C162" s="50" t="s">
         <v>45</v>
@@ -9390,7 +9386,7 @@
       <c r="R162" s="50"/>
       <c r="S162" s="50"/>
       <c r="T162" s="50" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="U162" s="50"/>
       <c r="V162" s="50"/>
@@ -9405,7 +9401,7 @@
       <c r="AE162" s="50"/>
       <c r="AF162" s="50"/>
       <c r="AG162" s="51" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="AH162" s="50"/>
       <c r="AI162" s="50"/>
@@ -9415,7 +9411,7 @@
         <v>78</v>
       </c>
       <c r="B163" s="52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C163" s="50" t="s">
         <v>45</v>
@@ -9437,7 +9433,7 @@
       <c r="R163" s="50"/>
       <c r="S163" s="50"/>
       <c r="T163" s="50" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="U163" s="50"/>
       <c r="V163" s="50"/>
@@ -9452,7 +9448,7 @@
       <c r="AE163" s="50"/>
       <c r="AF163" s="50"/>
       <c r="AG163" s="51" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AH163" s="50"/>
       <c r="AI163" s="50"/>
@@ -9462,7 +9458,7 @@
         <v>78</v>
       </c>
       <c r="B164" s="52" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="C164" s="50" t="s">
         <v>45</v>
@@ -9484,7 +9480,7 @@
       <c r="R164" s="50"/>
       <c r="S164" s="50"/>
       <c r="T164" s="50" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="U164" s="50"/>
       <c r="V164" s="50"/>
@@ -9499,107 +9495,107 @@
       <c r="AE164" s="50"/>
       <c r="AF164" s="50"/>
       <c r="AG164" s="51" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AH164" s="50"/>
       <c r="AI164" s="50"/>
     </row>
     <row r="165" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B165" s="52" t="s">
-        <v>170</v>
+      <c r="A165" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B165" s="53" t="s">
+        <v>186</v>
       </c>
       <c r="C165" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D165" s="50"/>
-      <c r="E165" s="50"/>
-      <c r="F165" s="50"/>
-      <c r="G165" s="50"/>
-      <c r="H165" s="50"/>
-      <c r="I165" s="50"/>
-      <c r="J165" s="50"/>
-      <c r="K165" s="50"/>
-      <c r="L165" s="50"/>
-      <c r="M165" s="50"/>
-      <c r="N165" s="50"/>
-      <c r="O165" s="50"/>
-      <c r="P165" s="50"/>
-      <c r="Q165" s="50"/>
-      <c r="R165" s="50"/>
-      <c r="S165" s="50"/>
-      <c r="T165" s="50" t="s">
-        <v>506</v>
-      </c>
-      <c r="U165" s="50"/>
-      <c r="V165" s="50"/>
-      <c r="W165" s="50"/>
-      <c r="X165" s="50"/>
-      <c r="Y165" s="50"/>
-      <c r="Z165" s="50"/>
-      <c r="AA165" s="50"/>
-      <c r="AB165" s="50"/>
-      <c r="AC165" s="50"/>
-      <c r="AD165" s="50"/>
-      <c r="AE165" s="50"/>
-      <c r="AF165" s="50"/>
-      <c r="AG165" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="AH165" s="50"/>
-      <c r="AI165" s="50"/>
+      <c r="D165" s="51"/>
+      <c r="E165" s="51"/>
+      <c r="F165" s="51"/>
+      <c r="G165" s="51"/>
+      <c r="H165" s="51"/>
+      <c r="I165" s="51"/>
+      <c r="J165" s="51"/>
+      <c r="K165" s="51"/>
+      <c r="L165" s="51"/>
+      <c r="M165" s="51"/>
+      <c r="N165" s="51"/>
+      <c r="O165" s="51"/>
+      <c r="P165" s="51"/>
+      <c r="Q165" s="51"/>
+      <c r="R165" s="51"/>
+      <c r="S165" s="51"/>
+      <c r="T165" s="51"/>
+      <c r="U165" s="51"/>
+      <c r="V165" s="51"/>
+      <c r="W165" s="51"/>
+      <c r="X165" s="51"/>
+      <c r="Y165" s="51"/>
+      <c r="Z165" s="51"/>
+      <c r="AA165" s="51"/>
+      <c r="AB165" s="51"/>
+      <c r="AC165" s="51"/>
+      <c r="AD165" s="51"/>
+      <c r="AE165" s="51"/>
+      <c r="AF165" s="51"/>
+      <c r="AG165" s="51"/>
+      <c r="AH165" s="51"/>
+      <c r="AI165" s="51"/>
     </row>
     <row r="166" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B166" s="53" t="s">
-        <v>186</v>
+      <c r="A166" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B166" s="52" t="s">
+        <v>189</v>
       </c>
       <c r="C166" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D166" s="51"/>
-      <c r="E166" s="51"/>
-      <c r="F166" s="51"/>
-      <c r="G166" s="51"/>
-      <c r="H166" s="51"/>
-      <c r="I166" s="51"/>
-      <c r="J166" s="51"/>
-      <c r="K166" s="51"/>
-      <c r="L166" s="51"/>
-      <c r="M166" s="51"/>
-      <c r="N166" s="51"/>
-      <c r="O166" s="51"/>
-      <c r="P166" s="51"/>
-      <c r="Q166" s="51"/>
-      <c r="R166" s="51"/>
-      <c r="S166" s="51"/>
-      <c r="T166" s="51"/>
-      <c r="U166" s="51"/>
-      <c r="V166" s="51"/>
-      <c r="W166" s="51"/>
-      <c r="X166" s="51"/>
-      <c r="Y166" s="51"/>
-      <c r="Z166" s="51"/>
-      <c r="AA166" s="51"/>
-      <c r="AB166" s="51"/>
-      <c r="AC166" s="51"/>
-      <c r="AD166" s="51"/>
-      <c r="AE166" s="51"/>
-      <c r="AF166" s="51"/>
-      <c r="AG166" s="51"/>
-      <c r="AH166" s="51"/>
-      <c r="AI166" s="51"/>
+      <c r="D166" s="50"/>
+      <c r="E166" s="50"/>
+      <c r="F166" s="50"/>
+      <c r="G166" s="50"/>
+      <c r="H166" s="50"/>
+      <c r="I166" s="50"/>
+      <c r="J166" s="50"/>
+      <c r="K166" s="50"/>
+      <c r="L166" s="50"/>
+      <c r="M166" s="50"/>
+      <c r="N166" s="50"/>
+      <c r="O166" s="50"/>
+      <c r="P166" s="50"/>
+      <c r="Q166" s="50"/>
+      <c r="R166" s="50"/>
+      <c r="S166" s="50"/>
+      <c r="T166" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="U166" s="50"/>
+      <c r="V166" s="50"/>
+      <c r="W166" s="50"/>
+      <c r="X166" s="50"/>
+      <c r="Y166" s="50"/>
+      <c r="Z166" s="50"/>
+      <c r="AA166" s="50"/>
+      <c r="AB166" s="50"/>
+      <c r="AC166" s="50"/>
+      <c r="AD166" s="50"/>
+      <c r="AE166" s="50"/>
+      <c r="AF166" s="50"/>
+      <c r="AG166" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH166" s="50"/>
+      <c r="AI166" s="50"/>
     </row>
     <row r="167" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="49" t="s">
         <v>78</v>
       </c>
       <c r="B167" s="52" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C167" s="50" t="s">
         <v>45</v>
@@ -9621,7 +9617,7 @@
       <c r="R167" s="50"/>
       <c r="S167" s="50"/>
       <c r="T167" s="51" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="U167" s="50"/>
       <c r="V167" s="50"/>
@@ -9636,7 +9632,7 @@
       <c r="AE167" s="50"/>
       <c r="AF167" s="50"/>
       <c r="AG167" s="51" t="s">
-        <v>191</v>
+        <v>67</v>
       </c>
       <c r="AH167" s="50"/>
       <c r="AI167" s="50"/>
@@ -9646,7 +9642,7 @@
         <v>78</v>
       </c>
       <c r="B168" s="52" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C168" s="50" t="s">
         <v>45</v>
@@ -9668,7 +9664,7 @@
       <c r="R168" s="50"/>
       <c r="S168" s="50"/>
       <c r="T168" s="51" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U168" s="50"/>
       <c r="V168" s="50"/>
@@ -9683,7 +9679,7 @@
       <c r="AE168" s="50"/>
       <c r="AF168" s="50"/>
       <c r="AG168" s="51" t="s">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c r="AH168" s="50"/>
       <c r="AI168" s="50"/>
@@ -9693,7 +9689,7 @@
         <v>78</v>
       </c>
       <c r="B169" s="52" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C169" s="50" t="s">
         <v>45</v>
@@ -9715,7 +9711,7 @@
       <c r="R169" s="50"/>
       <c r="S169" s="50"/>
       <c r="T169" s="51" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="U169" s="50"/>
       <c r="V169" s="50"/>
@@ -9730,7 +9726,7 @@
       <c r="AE169" s="50"/>
       <c r="AF169" s="50"/>
       <c r="AG169" s="51" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="AH169" s="50"/>
       <c r="AI169" s="50"/>
@@ -9740,7 +9736,7 @@
         <v>78</v>
       </c>
       <c r="B170" s="52" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C170" s="50" t="s">
         <v>45</v>
@@ -9762,7 +9758,7 @@
       <c r="R170" s="50"/>
       <c r="S170" s="50"/>
       <c r="T170" s="51" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="U170" s="50"/>
       <c r="V170" s="50"/>
@@ -9777,64 +9773,58 @@
       <c r="AE170" s="50"/>
       <c r="AF170" s="50"/>
       <c r="AG170" s="51" t="s">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="AH170" s="50"/>
       <c r="AI170" s="50"/>
     </row>
     <row r="171" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B171" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="C171" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D171" s="50"/>
-      <c r="E171" s="50"/>
-      <c r="F171" s="50"/>
-      <c r="G171" s="50"/>
-      <c r="H171" s="50"/>
-      <c r="I171" s="50"/>
-      <c r="J171" s="50"/>
-      <c r="K171" s="50"/>
-      <c r="L171" s="50"/>
-      <c r="M171" s="50"/>
-      <c r="N171" s="50"/>
-      <c r="O171" s="50"/>
-      <c r="P171" s="50"/>
-      <c r="Q171" s="50"/>
-      <c r="R171" s="50"/>
-      <c r="S171" s="50"/>
-      <c r="T171" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="U171" s="50"/>
-      <c r="V171" s="50"/>
-      <c r="W171" s="50"/>
-      <c r="X171" s="50"/>
-      <c r="Y171" s="50"/>
-      <c r="Z171" s="50"/>
-      <c r="AA171" s="50"/>
-      <c r="AB171" s="50"/>
-      <c r="AC171" s="50"/>
-      <c r="AD171" s="50"/>
-      <c r="AE171" s="50"/>
-      <c r="AF171" s="50"/>
-      <c r="AG171" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="AH171" s="50"/>
-      <c r="AI171" s="50"/>
+      <c r="A171" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B171" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="C171" s="51"/>
+      <c r="D171" s="51"/>
+      <c r="E171" s="51"/>
+      <c r="F171" s="51"/>
+      <c r="G171" s="51"/>
+      <c r="H171" s="51"/>
+      <c r="I171" s="51"/>
+      <c r="J171" s="51"/>
+      <c r="K171" s="51"/>
+      <c r="L171" s="51"/>
+      <c r="M171" s="51"/>
+      <c r="N171" s="51"/>
+      <c r="O171" s="51"/>
+      <c r="P171" s="51"/>
+      <c r="Q171" s="51"/>
+      <c r="R171" s="51"/>
+      <c r="S171" s="51"/>
+      <c r="T171" s="51"/>
+      <c r="U171" s="51"/>
+      <c r="V171" s="51"/>
+      <c r="W171" s="51"/>
+      <c r="X171" s="51"/>
+      <c r="Y171" s="51"/>
+      <c r="Z171" s="51"/>
+      <c r="AA171" s="51"/>
+      <c r="AB171" s="51"/>
+      <c r="AC171" s="51"/>
+      <c r="AD171" s="51"/>
+      <c r="AE171" s="51"/>
+      <c r="AF171" s="51"/>
+      <c r="AG171" s="51"/>
+      <c r="AH171" s="51"/>
+      <c r="AI171" s="51"/>
     </row>
     <row r="172" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="53" t="s">
         <v>68</v>
       </c>
       <c r="B172" s="53" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="C172" s="51"/>
       <c r="D172" s="51"/>
@@ -9870,53 +9860,12 @@
       <c r="AH172" s="51"/>
       <c r="AI172" s="51"/>
     </row>
-    <row r="173" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B173" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C173" s="51"/>
-      <c r="D173" s="51"/>
-      <c r="E173" s="51"/>
-      <c r="F173" s="51"/>
-      <c r="G173" s="51"/>
-      <c r="H173" s="51"/>
-      <c r="I173" s="51"/>
-      <c r="J173" s="51"/>
-      <c r="K173" s="51"/>
-      <c r="L173" s="51"/>
-      <c r="M173" s="51"/>
-      <c r="N173" s="51"/>
-      <c r="O173" s="51"/>
-      <c r="P173" s="51"/>
-      <c r="Q173" s="51"/>
-      <c r="R173" s="51"/>
-      <c r="S173" s="51"/>
-      <c r="T173" s="51"/>
-      <c r="U173" s="51"/>
-      <c r="V173" s="51"/>
-      <c r="W173" s="51"/>
-      <c r="X173" s="51"/>
-      <c r="Y173" s="51"/>
-      <c r="Z173" s="51"/>
-      <c r="AA173" s="51"/>
-      <c r="AB173" s="51"/>
-      <c r="AC173" s="51"/>
-      <c r="AD173" s="51"/>
-      <c r="AE173" s="51"/>
-      <c r="AF173" s="51"/>
-      <c r="AG173" s="51"/>
-      <c r="AH173" s="51"/>
-      <c r="AI173" s="51"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="A73:A97 A99:A103 A105:A152">
+    <dataValidation type="list" allowBlank="1" sqref="A72:A96 A98:A102 A104:A151">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:F16 I17:I173">
+    <dataValidation type="list" allowBlank="1" sqref="I16:I172 E2:F15">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12006,7 +11955,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44125.854735069443</v>
+        <v>44129.612407060187</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>

--- a/forms/app/hbc_registration.xlsx
+++ b/forms/app/hbc_registration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1640,9 +1640,6 @@
     <t>Home Based Care Follow Up</t>
   </si>
   <si>
-    <t>hbc_follow</t>
-  </si>
-  <si>
     <t>Unknown/lost to follow-up</t>
   </si>
   <si>
@@ -1749,6 +1746,9 @@
   </si>
   <si>
     <t>selected(../../condition/patient_outcome, 'ill')</t>
+  </si>
+  <si>
+    <t>hbc_registration</t>
   </si>
 </sst>
 </file>
@@ -1769,30 +1769,36 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2336,7 +2342,7 @@
   </sheetPr>
   <dimension ref="A1:AJ192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3145,7 +3151,7 @@
         <v>42</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>45</v>
@@ -3186,13 +3192,13 @@
     </row>
     <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
+        <v>536</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>535</v>
+      </c>
+      <c r="C22" s="34" t="s">
         <v>537</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>538</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
@@ -3323,7 +3329,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
       <c r="J25" s="34" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K25" s="35" t="s">
         <v>47</v>
@@ -3500,14 +3506,14 @@
         <v>492</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D29" s="35" t="s">
         <v>57</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="35" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
@@ -3515,7 +3521,7 @@
         <v>57</v>
       </c>
       <c r="J29" s="34" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K29" s="35"/>
       <c r="L29" s="35"/>
@@ -4750,24 +4756,24 @@
     </row>
     <row r="57" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="37" t="s">
+        <v>556</v>
+      </c>
+      <c r="B57" s="37" t="s">
         <v>557</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="C57" s="35" t="s">
         <v>558</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>559</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
       <c r="F57" s="35" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
       <c r="J57" s="35" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K57" s="35"/>
       <c r="L57" s="35"/>
@@ -7925,7 +7931,7 @@
       <c r="H132" s="35"/>
       <c r="I132" s="36"/>
       <c r="J132" s="34" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K132" s="36" t="s">
         <v>47</v>
@@ -8506,7 +8512,7 @@
       <c r="H145" s="46"/>
       <c r="I145" s="47"/>
       <c r="J145" s="45" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K145" s="47" t="s">
         <v>352</v>
@@ -8553,7 +8559,7 @@
       <c r="H146" s="46"/>
       <c r="I146" s="47"/>
       <c r="J146" s="45" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K146" s="47" t="s">
         <v>352</v>
@@ -10779,10 +10785,10 @@
         <v>240</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>562</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>563</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -10803,10 +10809,10 @@
         <v>240</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -10851,10 +10857,10 @@
         <v>240</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -11208,79 +11214,79 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>540</v>
-      </c>
       <c r="C22" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="B25" s="60" t="s">
         <v>549</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="C25" s="61" t="s">
         <v>550</v>
-      </c>
-      <c r="C25" s="61" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B26" s="60" t="s">
+        <v>551</v>
+      </c>
+      <c r="C26" s="61" t="s">
         <v>552</v>
-      </c>
-      <c r="C26" s="61" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B27" s="60" t="s">
+        <v>553</v>
+      </c>
+      <c r="C27" s="61" t="s">
         <v>554</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B28" s="60" t="s">
         <v>115</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11304,9 +11310,9 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11364,11 +11370,11 @@
         <v>531</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>532</v>
+        <v>568</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44135.407706481485</v>
+        <v>44135.521256828702</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>

--- a/forms/app/hbc_registration.xlsx
+++ b/forms/app/hbc_registration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="553">
   <si>
     <t>form_title</t>
   </si>
@@ -1031,42 +1031,6 @@
     <t>field-list summary</t>
   </si>
   <si>
-    <t>who_note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The WHO recommends PNC visits within 24 hours and on 3 days, 7 days, and 6 weeks from date of delivery. </t>
-  </si>
-  <si>
-    <t>select_multiple pnc_visits</t>
-  </si>
-  <si>
-    <t>pnc_visits_attended</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which PNC visits have taken place  so far? </t>
-  </si>
-  <si>
-    <t>not(selected(.,'none')) or count-selected(.) &lt; 2</t>
-  </si>
-  <si>
-    <t>count &lt;= ${days}</t>
-  </si>
-  <si>
-    <t>pnc_visits_additional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any additional PNC visits, please report the number of visits below to be counted in the total. </t>
-  </si>
-  <si>
-    <t>. &gt;=0 and . &lt;= 6</t>
-  </si>
-  <si>
-    <t>Must be between 0 and 6.</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
     <t>summary</t>
   </si>
   <si>
@@ -1221,12 +1185,6 @@
     <t>safe_isolation_practices</t>
   </si>
   <si>
-    <t>post_discharge_visits</t>
-  </si>
-  <si>
-    <t>Post discharge Visits</t>
-  </si>
-  <si>
     <t>Patient Outcome&lt;i class="fa fa-user"&gt;&lt;/i&gt;</t>
   </si>
   <si>
@@ -1363,9 +1321,6 @@
   </si>
   <si>
     <t>Place of Death: ${patient_death_place}</t>
-  </si>
-  <si>
-    <t>floor(decimal-date-time(today())) - decimal-date-time(${discharge_date})</t>
   </si>
   <si>
     <t>form_date</t>
@@ -1737,9 +1692,6 @@
   </si>
   <si>
     <t>selected(../condition/patient_outcome, 'ill')</t>
-  </si>
-  <si>
-    <t>selected(../condition/patient_outcome, 'recovered')</t>
   </si>
   <si>
     <t>selected(../../condition/patient_outcome, 'recovered')</t>
@@ -2340,13 +2292,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ192"/>
+  <dimension ref="A1:AJ186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
+      <selection pane="bottomRight" activeCell="A132" sqref="A132:XFD137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2734,10 +2686,10 @@
         <v>50</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -2887,7 +2839,7 @@
       <c r="R13" s="21"/>
       <c r="S13" s="22"/>
       <c r="T13" s="21" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
@@ -2986,7 +2938,7 @@
         <v>239</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
@@ -3024,7 +2976,7 @@
     </row>
     <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>240</v>
@@ -3151,7 +3103,7 @@
         <v>42</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>45</v>
@@ -3192,13 +3144,13 @@
     </row>
     <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
@@ -3317,10 +3269,10 @@
         <v>42</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
@@ -3329,7 +3281,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
       <c r="J25" s="34" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="K25" s="35" t="s">
         <v>47</v>
@@ -3412,7 +3364,7 @@
         <v>207</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
@@ -3459,7 +3411,7 @@
         <v>118</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
@@ -3503,17 +3455,17 @@
         <v>316</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="D29" s="35" t="s">
         <v>57</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="35" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
@@ -3521,7 +3473,7 @@
         <v>57</v>
       </c>
       <c r="J29" s="34" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="K29" s="35"/>
       <c r="L29" s="35"/>
@@ -3549,7 +3501,7 @@
         <v>208</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
@@ -3596,7 +3548,7 @@
         <v>209</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -3640,10 +3592,10 @@
         <v>110</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
@@ -3687,10 +3639,10 @@
         <v>110</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
@@ -4016,10 +3968,10 @@
         <v>110</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
@@ -4063,10 +4015,10 @@
         <v>110</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
@@ -4327,10 +4279,10 @@
         <v>42</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -4372,10 +4324,10 @@
         <v>117</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -4415,10 +4367,10 @@
         <v>117</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -4458,10 +4410,10 @@
         <v>110</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
@@ -4501,10 +4453,10 @@
         <v>110</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
@@ -4544,10 +4496,10 @@
         <v>110</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -4587,10 +4539,10 @@
         <v>110</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
@@ -4630,10 +4582,10 @@
         <v>110</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
@@ -4673,10 +4625,10 @@
         <v>110</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
@@ -4716,10 +4668,10 @@
         <v>110</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
@@ -4756,24 +4708,24 @@
     </row>
     <row r="57" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="37" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
       <c r="F57" s="35" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
       <c r="J57" s="35" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="K57" s="35"/>
       <c r="L57" s="35"/>
@@ -4806,10 +4758,10 @@
         <v>110</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
@@ -4849,10 +4801,10 @@
         <v>110</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
@@ -4892,10 +4844,10 @@
         <v>110</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
@@ -4935,10 +4887,10 @@
         <v>110</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
@@ -4978,10 +4930,10 @@
         <v>110</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
@@ -5097,10 +5049,10 @@
         <v>42</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
@@ -5142,10 +5094,10 @@
         <v>316</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -5185,10 +5137,10 @@
         <v>316</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
@@ -5228,10 +5180,10 @@
         <v>316</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
@@ -5271,10 +5223,10 @@
         <v>316</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -5314,10 +5266,10 @@
         <v>316</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -5433,10 +5385,10 @@
         <v>42</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
@@ -5478,10 +5430,10 @@
         <v>316</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
@@ -5521,10 +5473,10 @@
         <v>316</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="D75" s="35"/>
       <c r="E75" s="35"/>
@@ -5564,10 +5516,10 @@
         <v>316</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="D76" s="35"/>
       <c r="E76" s="35"/>
@@ -5607,10 +5559,10 @@
         <v>316</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="35"/>
@@ -5650,10 +5602,10 @@
         <v>316</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="35"/>
@@ -5662,7 +5614,7 @@
       <c r="H78" s="35"/>
       <c r="I78" s="35"/>
       <c r="J78" s="35" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="K78" s="35"/>
       <c r="L78" s="35"/>
@@ -5771,7 +5723,7 @@
         <v>42</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="C81" s="35" t="s">
         <v>45</v>
@@ -5816,10 +5768,10 @@
         <v>110</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="C82" s="35" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="D82" s="35"/>
       <c r="E82" s="35"/>
@@ -5858,13 +5810,13 @@
     </row>
     <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="37" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="C83" s="35" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="D83" s="35"/>
       <c r="E83" s="35"/>
@@ -5873,7 +5825,7 @@
       <c r="H83" s="35"/>
       <c r="I83" s="35"/>
       <c r="J83" s="35" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="K83" s="35"/>
       <c r="L83" s="35"/>
@@ -5906,10 +5858,10 @@
         <v>268</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="35"/>
@@ -5918,7 +5870,7 @@
       <c r="H84" s="35"/>
       <c r="I84" s="35"/>
       <c r="J84" s="35" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="K84" s="35"/>
       <c r="L84" s="35"/>
@@ -5948,13 +5900,13 @@
     </row>
     <row r="85" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="37" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="C85" s="35" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="35"/>
@@ -5963,7 +5915,7 @@
       <c r="H85" s="35"/>
       <c r="I85" s="35"/>
       <c r="J85" s="35" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="K85" s="35"/>
       <c r="L85" s="35"/>
@@ -6072,7 +6024,7 @@
         <v>42</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="C88" s="35" t="s">
         <v>45</v>
@@ -6115,10 +6067,10 @@
         <v>110</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="D89" s="35"/>
       <c r="E89" s="35"/>
@@ -6456,7 +6408,7 @@
       <c r="H97" s="35"/>
       <c r="I97" s="36"/>
       <c r="J97" s="36" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="K97" s="36"/>
       <c r="L97" s="36"/>
@@ -7579,10 +7531,10 @@
         <v>42</v>
       </c>
       <c r="B124" s="33" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C124" s="34" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="D124" s="35"/>
       <c r="E124" s="35"/>
@@ -7628,10 +7580,10 @@
         <v>117</v>
       </c>
       <c r="B125" s="33" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="D125" s="35"/>
       <c r="E125" s="35"/>
@@ -7671,10 +7623,10 @@
         <v>117</v>
       </c>
       <c r="B126" s="33" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C126" s="34" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D126" s="35"/>
       <c r="E126" s="35"/>
@@ -7714,10 +7666,10 @@
         <v>117</v>
       </c>
       <c r="B127" s="33" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C127" s="34" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D127" s="35"/>
       <c r="E127" s="35"/>
@@ -7757,10 +7709,10 @@
         <v>117</v>
       </c>
       <c r="B128" s="33" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C128" s="34" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D128" s="35"/>
       <c r="E128" s="35"/>
@@ -7800,10 +7752,10 @@
         <v>117</v>
       </c>
       <c r="B129" s="33" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C129" s="34" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D129" s="35"/>
       <c r="E129" s="35"/>
@@ -7915,327 +7867,319 @@
       <c r="AI131" s="43"/>
     </row>
     <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="33" t="s">
+      <c r="A132" s="42"/>
+      <c r="B132" s="42"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="31"/>
+      <c r="E132" s="31"/>
+      <c r="F132" s="31"/>
+      <c r="G132" s="31"/>
+      <c r="H132" s="31"/>
+      <c r="I132" s="43"/>
+      <c r="J132" s="43"/>
+      <c r="K132" s="43"/>
+      <c r="L132" s="43"/>
+      <c r="M132" s="42"/>
+      <c r="N132" s="42"/>
+      <c r="O132" s="42"/>
+      <c r="P132" s="42"/>
+      <c r="Q132" s="42"/>
+      <c r="R132" s="42"/>
+      <c r="S132" s="42"/>
+      <c r="T132" s="42"/>
+      <c r="U132" s="43"/>
+      <c r="V132" s="42"/>
+      <c r="W132" s="43"/>
+      <c r="X132" s="43"/>
+      <c r="Y132" s="43"/>
+      <c r="Z132" s="43"/>
+      <c r="AA132" s="43"/>
+      <c r="AB132" s="43"/>
+      <c r="AC132" s="43"/>
+      <c r="AD132" s="43"/>
+      <c r="AE132" s="43"/>
+      <c r="AF132" s="43"/>
+      <c r="AG132" s="43"/>
+      <c r="AH132" s="43"/>
+      <c r="AI132" s="43"/>
+    </row>
+    <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B132" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="C132" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="D132" s="35"/>
-      <c r="E132" s="35"/>
-      <c r="F132" s="35"/>
-      <c r="G132" s="35"/>
-      <c r="H132" s="35"/>
-      <c r="I132" s="36"/>
-      <c r="J132" s="34" t="s">
-        <v>565</v>
-      </c>
-      <c r="K132" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="L132" s="36"/>
-      <c r="M132" s="34"/>
-      <c r="N132" s="34"/>
-      <c r="O132" s="34"/>
-      <c r="P132" s="34"/>
-      <c r="Q132" s="34"/>
-      <c r="R132" s="34"/>
-      <c r="S132" s="34"/>
-      <c r="T132" s="34"/>
-      <c r="U132" s="36"/>
-      <c r="V132" s="34"/>
-      <c r="W132" s="36"/>
-      <c r="X132" s="36"/>
-      <c r="Y132" s="36"/>
-      <c r="Z132" s="36"/>
-      <c r="AA132" s="36"/>
-      <c r="AB132" s="36"/>
-      <c r="AC132" s="36"/>
-      <c r="AD132" s="36"/>
-      <c r="AE132" s="36"/>
-      <c r="AF132" s="36"/>
-      <c r="AG132" s="36"/>
-      <c r="AH132" s="36"/>
-      <c r="AI132" s="36"/>
-    </row>
-    <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="33" t="s">
+      <c r="B133" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="C133" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D133" s="46"/>
+      <c r="E133" s="46"/>
+      <c r="F133" s="46"/>
+      <c r="G133" s="46"/>
+      <c r="H133" s="46"/>
+      <c r="I133" s="47"/>
+      <c r="J133" s="47"/>
+      <c r="K133" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="L133" s="47"/>
+      <c r="M133" s="45"/>
+      <c r="N133" s="45"/>
+      <c r="O133" s="45"/>
+      <c r="P133" s="45"/>
+      <c r="Q133" s="45"/>
+      <c r="R133" s="45"/>
+      <c r="S133" s="45"/>
+      <c r="T133" s="45"/>
+      <c r="U133" s="47"/>
+      <c r="V133" s="45"/>
+      <c r="W133" s="47"/>
+      <c r="X133" s="47"/>
+      <c r="Y133" s="47"/>
+      <c r="Z133" s="47"/>
+      <c r="AA133" s="47"/>
+      <c r="AB133" s="47"/>
+      <c r="AC133" s="47"/>
+      <c r="AD133" s="47"/>
+      <c r="AE133" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF133" s="47"/>
+      <c r="AG133" s="47"/>
+      <c r="AH133" s="47"/>
+      <c r="AI133" s="47"/>
+    </row>
+    <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="B133" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="C133" s="34" t="s">
+      <c r="B134" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="D133" s="35"/>
-      <c r="E133" s="35"/>
-      <c r="F133" s="35"/>
-      <c r="G133" s="35"/>
-      <c r="H133" s="35"/>
-      <c r="I133" s="36"/>
-      <c r="J133" s="36"/>
-      <c r="K133" s="36"/>
-      <c r="L133" s="36"/>
-      <c r="M133" s="34"/>
-      <c r="N133" s="34"/>
-      <c r="O133" s="34"/>
-      <c r="P133" s="34"/>
-      <c r="Q133" s="34"/>
-      <c r="R133" s="34"/>
-      <c r="S133" s="34"/>
-      <c r="T133" s="34"/>
-      <c r="U133" s="36"/>
-      <c r="V133" s="34"/>
-      <c r="W133" s="36"/>
-      <c r="X133" s="36"/>
-      <c r="Y133" s="36"/>
-      <c r="Z133" s="36"/>
-      <c r="AA133" s="36"/>
-      <c r="AB133" s="36"/>
-      <c r="AC133" s="36"/>
-      <c r="AD133" s="36"/>
-      <c r="AE133" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF133" s="36"/>
-      <c r="AG133" s="36"/>
-      <c r="AH133" s="36"/>
-      <c r="AI133" s="36"/>
-    </row>
-    <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="33" t="s">
+      <c r="C134" s="45" t="s">
         <v>332</v>
       </c>
-      <c r="B134" s="33" t="s">
+      <c r="D134" s="47"/>
+      <c r="E134" s="47"/>
+      <c r="F134" s="47"/>
+      <c r="G134" s="47"/>
+      <c r="H134" s="47"/>
+      <c r="I134" s="47"/>
+      <c r="J134" s="47"/>
+      <c r="K134" s="47"/>
+      <c r="L134" s="47"/>
+      <c r="M134" s="47"/>
+      <c r="N134" s="47"/>
+      <c r="O134" s="47"/>
+      <c r="P134" s="47"/>
+      <c r="Q134" s="47"/>
+      <c r="R134" s="47"/>
+      <c r="S134" s="47"/>
+      <c r="T134" s="47"/>
+      <c r="U134" s="47"/>
+      <c r="V134" s="47"/>
+      <c r="W134" s="47"/>
+      <c r="X134" s="47"/>
+      <c r="Y134" s="47"/>
+      <c r="Z134" s="47"/>
+      <c r="AA134" s="47"/>
+      <c r="AB134" s="47"/>
+      <c r="AC134" s="47"/>
+      <c r="AD134" s="47"/>
+      <c r="AE134" s="47"/>
+      <c r="AF134" s="47"/>
+      <c r="AG134" s="47"/>
+      <c r="AH134" s="47"/>
+      <c r="AI134" s="47"/>
+    </row>
+    <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B135" s="44" t="s">
         <v>333</v>
       </c>
-      <c r="C134" s="34" t="s">
+      <c r="C135" s="45" t="s">
         <v>334</v>
       </c>
-      <c r="D134" s="35"/>
-      <c r="E134" s="35"/>
-      <c r="F134" s="35"/>
-      <c r="G134" s="35"/>
-      <c r="H134" s="35"/>
-      <c r="I134" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="J134" s="36"/>
-      <c r="K134" s="36"/>
-      <c r="L134" s="36" t="s">
+      <c r="D135" s="47"/>
+      <c r="E135" s="47"/>
+      <c r="F135" s="47"/>
+      <c r="G135" s="47"/>
+      <c r="H135" s="47"/>
+      <c r="I135" s="47"/>
+      <c r="J135" s="47"/>
+      <c r="K135" s="45" t="s">
         <v>335</v>
       </c>
-      <c r="M134" s="35"/>
-      <c r="N134" s="34"/>
-      <c r="O134" s="34"/>
-      <c r="P134" s="34"/>
-      <c r="Q134" s="34"/>
-      <c r="R134" s="34"/>
-      <c r="S134" s="34"/>
-      <c r="T134" s="34"/>
-      <c r="U134" s="34" t="s">
+      <c r="L135" s="47"/>
+      <c r="M135" s="47"/>
+      <c r="N135" s="47"/>
+      <c r="O135" s="47"/>
+      <c r="P135" s="47"/>
+      <c r="Q135" s="47"/>
+      <c r="R135" s="47"/>
+      <c r="S135" s="47"/>
+      <c r="T135" s="47"/>
+      <c r="U135" s="47"/>
+      <c r="V135" s="47"/>
+      <c r="W135" s="47"/>
+      <c r="X135" s="47"/>
+      <c r="Y135" s="47"/>
+      <c r="Z135" s="47"/>
+      <c r="AA135" s="47"/>
+      <c r="AB135" s="47"/>
+      <c r="AC135" s="47"/>
+      <c r="AD135" s="47"/>
+      <c r="AE135" s="47"/>
+      <c r="AF135" s="47"/>
+      <c r="AG135" s="47"/>
+      <c r="AH135" s="47"/>
+      <c r="AI135" s="47"/>
+    </row>
+    <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B136" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="V134" s="34"/>
-      <c r="W134" s="36"/>
-      <c r="X134" s="36"/>
-      <c r="Y134" s="36"/>
-      <c r="Z134" s="36"/>
-      <c r="AA134" s="36"/>
-      <c r="AB134" s="36"/>
-      <c r="AC134" s="36"/>
-      <c r="AD134" s="36"/>
-      <c r="AE134" s="36"/>
-      <c r="AF134" s="36"/>
-      <c r="AG134" s="36"/>
-      <c r="AH134" s="36"/>
-      <c r="AI134" s="36"/>
-    </row>
-    <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B135" s="33" t="s">
+      <c r="C136" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="D136" s="47"/>
+      <c r="E136" s="47"/>
+      <c r="F136" s="47"/>
+      <c r="G136" s="47"/>
+      <c r="H136" s="47"/>
+      <c r="I136" s="47"/>
+      <c r="J136" s="47"/>
+      <c r="K136" s="45"/>
+      <c r="L136" s="47"/>
+      <c r="M136" s="47"/>
+      <c r="N136" s="47"/>
+      <c r="O136" s="47"/>
+      <c r="P136" s="47"/>
+      <c r="Q136" s="47"/>
+      <c r="R136" s="47"/>
+      <c r="S136" s="47"/>
+      <c r="T136" s="47"/>
+      <c r="U136" s="47"/>
+      <c r="V136" s="47"/>
+      <c r="W136" s="47"/>
+      <c r="X136" s="47"/>
+      <c r="Y136" s="47"/>
+      <c r="Z136" s="47"/>
+      <c r="AA136" s="47"/>
+      <c r="AB136" s="47"/>
+      <c r="AC136" s="47"/>
+      <c r="AD136" s="47"/>
+      <c r="AE136" s="47"/>
+      <c r="AF136" s="47"/>
+      <c r="AG136" s="47"/>
+      <c r="AH136" s="47"/>
+      <c r="AI136" s="47"/>
+    </row>
+    <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B137" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="C137" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="D137" s="47"/>
+      <c r="E137" s="47"/>
+      <c r="F137" s="47"/>
+      <c r="G137" s="47"/>
+      <c r="H137" s="47"/>
+      <c r="I137" s="47"/>
+      <c r="J137" s="47"/>
+      <c r="K137" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="L137" s="47"/>
+      <c r="M137" s="47"/>
+      <c r="N137" s="47"/>
+      <c r="O137" s="47"/>
+      <c r="P137" s="47"/>
+      <c r="Q137" s="47"/>
+      <c r="R137" s="47"/>
+      <c r="S137" s="47"/>
+      <c r="T137" s="47"/>
+      <c r="U137" s="47"/>
+      <c r="V137" s="47"/>
+      <c r="W137" s="47"/>
+      <c r="X137" s="47"/>
+      <c r="Y137" s="47"/>
+      <c r="Z137" s="47"/>
+      <c r="AA137" s="47"/>
+      <c r="AB137" s="47"/>
+      <c r="AC137" s="47"/>
+      <c r="AD137" s="47"/>
+      <c r="AE137" s="47"/>
+      <c r="AF137" s="47"/>
+      <c r="AG137" s="47"/>
+      <c r="AH137" s="47"/>
+      <c r="AI137" s="47"/>
+    </row>
+    <row r="138" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B138" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="C135" s="34" t="s">
+      <c r="C138" s="47" t="s">
+        <v>382</v>
+      </c>
+      <c r="D138" s="47"/>
+      <c r="E138" s="47"/>
+      <c r="F138" s="47"/>
+      <c r="G138" s="47"/>
+      <c r="H138" s="47"/>
+      <c r="I138" s="47"/>
+      <c r="J138" s="46"/>
+      <c r="K138" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="D135" s="36"/>
-      <c r="E135" s="36"/>
-      <c r="F135" s="36"/>
-      <c r="G135" s="36"/>
-      <c r="H135" s="36"/>
-      <c r="I135" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="J135" s="36"/>
-      <c r="K135" s="34"/>
-      <c r="L135" s="36" t="s">
-        <v>339</v>
-      </c>
-      <c r="M135" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="N135" s="36"/>
-      <c r="O135" s="36"/>
-      <c r="P135" s="36"/>
-      <c r="Q135" s="36"/>
-      <c r="R135" s="36"/>
-      <c r="S135" s="36"/>
-      <c r="T135" s="36"/>
-      <c r="U135" s="36"/>
-      <c r="V135" s="36"/>
-      <c r="W135" s="36"/>
-      <c r="X135" s="36"/>
-      <c r="Y135" s="36"/>
-      <c r="Z135" s="36"/>
-      <c r="AA135" s="36"/>
-      <c r="AB135" s="36"/>
-      <c r="AC135" s="36"/>
-      <c r="AD135" s="36"/>
-      <c r="AE135" s="36"/>
-      <c r="AF135" s="36"/>
-      <c r="AG135" s="36"/>
-      <c r="AH135" s="36"/>
-      <c r="AI135" s="36"/>
-    </row>
-    <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B136" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="C136" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D136" s="36"/>
-      <c r="E136" s="36"/>
-      <c r="F136" s="36"/>
-      <c r="G136" s="36"/>
-      <c r="H136" s="36"/>
-      <c r="I136" s="36"/>
-      <c r="J136" s="34"/>
-      <c r="K136" s="34"/>
-      <c r="L136" s="36"/>
-      <c r="M136" s="36"/>
-      <c r="N136" s="36"/>
-      <c r="O136" s="36"/>
-      <c r="P136" s="36"/>
-      <c r="Q136" s="36"/>
-      <c r="R136" s="36"/>
-      <c r="S136" s="36"/>
-      <c r="T136" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="U136" s="36"/>
-      <c r="V136" s="36"/>
-      <c r="W136" s="36"/>
-      <c r="X136" s="36"/>
-      <c r="Y136" s="36"/>
-      <c r="Z136" s="36"/>
-      <c r="AA136" s="36"/>
-      <c r="AB136" s="36"/>
-      <c r="AC136" s="36"/>
-      <c r="AD136" s="36"/>
-      <c r="AE136" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF136" s="36"/>
-      <c r="AG136" s="36"/>
-      <c r="AH136" s="36"/>
-      <c r="AI136" s="36"/>
-    </row>
-    <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B137" s="33"/>
-      <c r="C137" s="34"/>
-      <c r="D137" s="35"/>
-      <c r="E137" s="35"/>
-      <c r="F137" s="35"/>
-      <c r="G137" s="35"/>
-      <c r="H137" s="35"/>
-      <c r="I137" s="36"/>
-      <c r="J137" s="36"/>
-      <c r="K137" s="36"/>
-      <c r="L137" s="36"/>
-      <c r="M137" s="34"/>
-      <c r="N137" s="34"/>
-      <c r="O137" s="34"/>
-      <c r="P137" s="34"/>
-      <c r="Q137" s="34"/>
-      <c r="R137" s="34"/>
-      <c r="S137" s="34"/>
-      <c r="T137" s="34"/>
-      <c r="U137" s="36"/>
-      <c r="V137" s="34"/>
-      <c r="W137" s="36"/>
-      <c r="X137" s="36"/>
-      <c r="Y137" s="36"/>
-      <c r="Z137" s="36"/>
-      <c r="AA137" s="36"/>
-      <c r="AB137" s="36"/>
-      <c r="AC137" s="36"/>
-      <c r="AD137" s="36"/>
-      <c r="AE137" s="36"/>
-      <c r="AF137" s="36"/>
-      <c r="AG137" s="36"/>
-      <c r="AH137" s="36"/>
-      <c r="AI137" s="36"/>
-    </row>
-    <row r="138" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="42"/>
-      <c r="B138" s="42"/>
-      <c r="C138" s="42"/>
-      <c r="D138" s="31"/>
-      <c r="E138" s="31"/>
-      <c r="F138" s="31"/>
-      <c r="G138" s="31"/>
-      <c r="H138" s="31"/>
-      <c r="I138" s="43"/>
-      <c r="J138" s="43"/>
-      <c r="K138" s="43"/>
-      <c r="L138" s="43"/>
-      <c r="M138" s="42"/>
-      <c r="N138" s="42"/>
-      <c r="O138" s="42"/>
-      <c r="P138" s="42"/>
-      <c r="Q138" s="42"/>
-      <c r="R138" s="42"/>
-      <c r="S138" s="42"/>
-      <c r="T138" s="42"/>
-      <c r="U138" s="43"/>
-      <c r="V138" s="42"/>
-      <c r="W138" s="43"/>
-      <c r="X138" s="43"/>
-      <c r="Y138" s="43"/>
-      <c r="Z138" s="43"/>
-      <c r="AA138" s="43"/>
-      <c r="AB138" s="43"/>
-      <c r="AC138" s="43"/>
-      <c r="AD138" s="43"/>
-      <c r="AE138" s="43"/>
-      <c r="AF138" s="43"/>
-      <c r="AG138" s="43"/>
-      <c r="AH138" s="43"/>
-      <c r="AI138" s="43"/>
+      <c r="L138" s="47"/>
+      <c r="M138" s="47"/>
+      <c r="N138" s="47"/>
+      <c r="O138" s="47"/>
+      <c r="P138" s="47"/>
+      <c r="Q138" s="47"/>
+      <c r="R138" s="47"/>
+      <c r="S138" s="47"/>
+      <c r="T138" s="47"/>
+      <c r="U138" s="47"/>
+      <c r="V138" s="47"/>
+      <c r="W138" s="47"/>
+      <c r="X138" s="47"/>
+      <c r="Y138" s="47"/>
+      <c r="Z138" s="47"/>
+      <c r="AA138" s="47"/>
+      <c r="AB138" s="47"/>
+      <c r="AC138" s="47"/>
+      <c r="AD138" s="47"/>
+      <c r="AE138" s="47"/>
+      <c r="AF138" s="47"/>
+      <c r="AG138" s="47"/>
+      <c r="AH138" s="47"/>
+      <c r="AI138" s="47"/>
     </row>
     <row r="139" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="44" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B139" s="44" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C139" s="45" t="s">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="D139" s="46"/>
       <c r="E139" s="46"/>
@@ -8243,9 +8187,11 @@
       <c r="G139" s="46"/>
       <c r="H139" s="46"/>
       <c r="I139" s="47"/>
-      <c r="J139" s="47"/>
+      <c r="J139" s="45" t="s">
+        <v>550</v>
+      </c>
       <c r="K139" s="47" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="L139" s="47"/>
       <c r="M139" s="45"/>
@@ -8266,43 +8212,45 @@
       <c r="AB139" s="47"/>
       <c r="AC139" s="47"/>
       <c r="AD139" s="47"/>
-      <c r="AE139" s="47" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE139" s="47"/>
       <c r="AF139" s="47"/>
       <c r="AG139" s="47"/>
       <c r="AH139" s="47"/>
       <c r="AI139" s="47"/>
     </row>
     <row r="140" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="48" t="s">
+      <c r="A140" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B140" s="48" t="s">
-        <v>343</v>
+      <c r="B140" s="44" t="s">
+        <v>341</v>
       </c>
       <c r="C140" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="D140" s="47"/>
-      <c r="E140" s="47"/>
-      <c r="F140" s="47"/>
-      <c r="G140" s="47"/>
-      <c r="H140" s="47"/>
+        <v>248</v>
+      </c>
+      <c r="D140" s="46"/>
+      <c r="E140" s="46"/>
+      <c r="F140" s="46"/>
+      <c r="G140" s="46"/>
+      <c r="H140" s="46"/>
       <c r="I140" s="47"/>
-      <c r="J140" s="47"/>
-      <c r="K140" s="47"/>
+      <c r="J140" s="45" t="s">
+        <v>551</v>
+      </c>
+      <c r="K140" s="47" t="s">
+        <v>340</v>
+      </c>
       <c r="L140" s="47"/>
-      <c r="M140" s="47"/>
-      <c r="N140" s="47"/>
-      <c r="O140" s="47"/>
-      <c r="P140" s="47"/>
-      <c r="Q140" s="47"/>
-      <c r="R140" s="47"/>
-      <c r="S140" s="47"/>
-      <c r="T140" s="47"/>
+      <c r="M140" s="45"/>
+      <c r="N140" s="45"/>
+      <c r="O140" s="45"/>
+      <c r="P140" s="45"/>
+      <c r="Q140" s="45"/>
+      <c r="R140" s="45"/>
+      <c r="S140" s="45"/>
+      <c r="T140" s="45"/>
       <c r="U140" s="47"/>
-      <c r="V140" s="47"/>
+      <c r="V140" s="45"/>
       <c r="W140" s="47"/>
       <c r="X140" s="47"/>
       <c r="Y140" s="47"/>
@@ -8322,32 +8270,34 @@
         <v>117</v>
       </c>
       <c r="B141" s="44" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C141" s="45" t="s">
-        <v>346</v>
-      </c>
-      <c r="D141" s="47"/>
-      <c r="E141" s="47"/>
-      <c r="F141" s="47"/>
-      <c r="G141" s="47"/>
-      <c r="H141" s="47"/>
+        <v>250</v>
+      </c>
+      <c r="D141" s="46"/>
+      <c r="E141" s="46"/>
+      <c r="F141" s="46"/>
+      <c r="G141" s="46"/>
+      <c r="H141" s="46"/>
       <c r="I141" s="47"/>
-      <c r="J141" s="47"/>
-      <c r="K141" s="45" t="s">
-        <v>347</v>
+      <c r="J141" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="K141" s="47" t="s">
+        <v>340</v>
       </c>
       <c r="L141" s="47"/>
-      <c r="M141" s="47"/>
-      <c r="N141" s="47"/>
-      <c r="O141" s="47"/>
-      <c r="P141" s="47"/>
-      <c r="Q141" s="47"/>
-      <c r="R141" s="47"/>
-      <c r="S141" s="47"/>
-      <c r="T141" s="47"/>
+      <c r="M141" s="45"/>
+      <c r="N141" s="45"/>
+      <c r="O141" s="45"/>
+      <c r="P141" s="45"/>
+      <c r="Q141" s="45"/>
+      <c r="R141" s="45"/>
+      <c r="S141" s="45"/>
+      <c r="T141" s="45"/>
       <c r="U141" s="47"/>
-      <c r="V141" s="47"/>
+      <c r="V141" s="45"/>
       <c r="W141" s="47"/>
       <c r="X141" s="47"/>
       <c r="Y141" s="47"/>
@@ -8367,10 +8317,10 @@
         <v>117</v>
       </c>
       <c r="B142" s="44" t="s">
-        <v>348</v>
-      </c>
-      <c r="C142" s="45" t="s">
-        <v>445</v>
+        <v>384</v>
+      </c>
+      <c r="C142" s="47" t="s">
+        <v>343</v>
       </c>
       <c r="D142" s="47"/>
       <c r="E142" s="47"/>
@@ -8378,8 +8328,12 @@
       <c r="G142" s="47"/>
       <c r="H142" s="47"/>
       <c r="I142" s="47"/>
-      <c r="J142" s="47"/>
-      <c r="K142" s="45"/>
+      <c r="J142" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="K142" s="45" t="s">
+        <v>338</v>
+      </c>
       <c r="L142" s="47"/>
       <c r="M142" s="47"/>
       <c r="N142" s="47"/>
@@ -8410,32 +8364,34 @@
         <v>117</v>
       </c>
       <c r="B143" s="44" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="C143" s="45" t="s">
-        <v>395</v>
-      </c>
-      <c r="D143" s="47"/>
-      <c r="E143" s="47"/>
-      <c r="F143" s="47"/>
-      <c r="G143" s="47"/>
-      <c r="H143" s="47"/>
+        <v>383</v>
+      </c>
+      <c r="D143" s="46"/>
+      <c r="E143" s="46"/>
+      <c r="F143" s="46"/>
+      <c r="G143" s="46"/>
+      <c r="H143" s="46"/>
       <c r="I143" s="47"/>
-      <c r="J143" s="47"/>
-      <c r="K143" s="45" t="s">
-        <v>347</v>
+      <c r="J143" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="K143" s="47" t="s">
+        <v>340</v>
       </c>
       <c r="L143" s="47"/>
-      <c r="M143" s="47"/>
-      <c r="N143" s="47"/>
-      <c r="O143" s="47"/>
-      <c r="P143" s="47"/>
-      <c r="Q143" s="47"/>
-      <c r="R143" s="47"/>
-      <c r="S143" s="47"/>
-      <c r="T143" s="47"/>
+      <c r="M143" s="45"/>
+      <c r="N143" s="45"/>
+      <c r="O143" s="45"/>
+      <c r="P143" s="45"/>
+      <c r="Q143" s="45"/>
+      <c r="R143" s="45"/>
+      <c r="S143" s="45"/>
+      <c r="T143" s="45"/>
       <c r="U143" s="47"/>
-      <c r="V143" s="47"/>
+      <c r="V143" s="45"/>
       <c r="W143" s="47"/>
       <c r="X143" s="47"/>
       <c r="Y143" s="47"/>
@@ -8455,32 +8411,34 @@
         <v>117</v>
       </c>
       <c r="B144" s="44" t="s">
-        <v>349</v>
-      </c>
-      <c r="C144" s="47" t="s">
-        <v>396</v>
-      </c>
-      <c r="D144" s="47"/>
-      <c r="E144" s="47"/>
-      <c r="F144" s="47"/>
-      <c r="G144" s="47"/>
-      <c r="H144" s="47"/>
+        <v>345</v>
+      </c>
+      <c r="C144" s="45" t="s">
+        <v>426</v>
+      </c>
+      <c r="D144" s="46"/>
+      <c r="E144" s="46"/>
+      <c r="F144" s="46"/>
+      <c r="G144" s="46"/>
+      <c r="H144" s="46"/>
       <c r="I144" s="47"/>
-      <c r="J144" s="46"/>
-      <c r="K144" s="45" t="s">
-        <v>350</v>
+      <c r="J144" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="K144" s="47" t="s">
+        <v>340</v>
       </c>
       <c r="L144" s="47"/>
-      <c r="M144" s="47"/>
-      <c r="N144" s="47"/>
-      <c r="O144" s="47"/>
-      <c r="P144" s="47"/>
-      <c r="Q144" s="47"/>
-      <c r="R144" s="47"/>
-      <c r="S144" s="47"/>
-      <c r="T144" s="47"/>
+      <c r="M144" s="45"/>
+      <c r="N144" s="45"/>
+      <c r="O144" s="45"/>
+      <c r="P144" s="45"/>
+      <c r="Q144" s="45"/>
+      <c r="R144" s="45"/>
+      <c r="S144" s="45"/>
+      <c r="T144" s="45"/>
       <c r="U144" s="47"/>
-      <c r="V144" s="47"/>
+      <c r="V144" s="45"/>
       <c r="W144" s="47"/>
       <c r="X144" s="47"/>
       <c r="Y144" s="47"/>
@@ -8500,10 +8458,10 @@
         <v>117</v>
       </c>
       <c r="B145" s="44" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="C145" s="45" t="s">
-        <v>247</v>
+        <v>399</v>
       </c>
       <c r="D145" s="46"/>
       <c r="E145" s="46"/>
@@ -8512,10 +8470,10 @@
       <c r="H145" s="46"/>
       <c r="I145" s="47"/>
       <c r="J145" s="45" t="s">
-        <v>566</v>
-      </c>
-      <c r="K145" s="47" t="s">
-        <v>352</v>
+        <v>400</v>
+      </c>
+      <c r="K145" s="45" t="s">
+        <v>338</v>
       </c>
       <c r="L145" s="47"/>
       <c r="M145" s="45"/>
@@ -8547,34 +8505,34 @@
         <v>117</v>
       </c>
       <c r="B146" s="44" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="C146" s="45" t="s">
-        <v>248</v>
-      </c>
-      <c r="D146" s="46"/>
-      <c r="E146" s="46"/>
-      <c r="F146" s="46"/>
-      <c r="G146" s="46"/>
-      <c r="H146" s="46"/>
+        <v>410</v>
+      </c>
+      <c r="D146" s="47"/>
+      <c r="E146" s="47"/>
+      <c r="F146" s="47"/>
+      <c r="G146" s="47"/>
+      <c r="H146" s="47"/>
       <c r="I146" s="47"/>
       <c r="J146" s="45" t="s">
-        <v>567</v>
-      </c>
-      <c r="K146" s="47" t="s">
-        <v>352</v>
+        <v>401</v>
+      </c>
+      <c r="K146" s="45" t="s">
+        <v>340</v>
       </c>
       <c r="L146" s="47"/>
-      <c r="M146" s="45"/>
-      <c r="N146" s="45"/>
-      <c r="O146" s="45"/>
-      <c r="P146" s="45"/>
-      <c r="Q146" s="45"/>
-      <c r="R146" s="45"/>
-      <c r="S146" s="45"/>
-      <c r="T146" s="45"/>
+      <c r="M146" s="47"/>
+      <c r="N146" s="47"/>
+      <c r="O146" s="47"/>
+      <c r="P146" s="47"/>
+      <c r="Q146" s="47"/>
+      <c r="R146" s="47"/>
+      <c r="S146" s="47"/>
+      <c r="T146" s="47"/>
       <c r="U146" s="47"/>
-      <c r="V146" s="45"/>
+      <c r="V146" s="47"/>
       <c r="W146" s="47"/>
       <c r="X146" s="47"/>
       <c r="Y146" s="47"/>
@@ -8594,34 +8552,34 @@
         <v>117</v>
       </c>
       <c r="B147" s="44" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="C147" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="D147" s="46"/>
-      <c r="E147" s="46"/>
-      <c r="F147" s="46"/>
-      <c r="G147" s="46"/>
-      <c r="H147" s="46"/>
+        <v>411</v>
+      </c>
+      <c r="D147" s="47"/>
+      <c r="E147" s="47"/>
+      <c r="F147" s="47"/>
+      <c r="G147" s="47"/>
+      <c r="H147" s="47"/>
       <c r="I147" s="47"/>
       <c r="J147" s="45" t="s">
-        <v>401</v>
-      </c>
-      <c r="K147" s="47" t="s">
-        <v>352</v>
+        <v>402</v>
+      </c>
+      <c r="K147" s="45" t="s">
+        <v>340</v>
       </c>
       <c r="L147" s="47"/>
-      <c r="M147" s="45"/>
-      <c r="N147" s="45"/>
-      <c r="O147" s="45"/>
-      <c r="P147" s="45"/>
-      <c r="Q147" s="45"/>
-      <c r="R147" s="45"/>
-      <c r="S147" s="45"/>
-      <c r="T147" s="45"/>
+      <c r="M147" s="47"/>
+      <c r="N147" s="47"/>
+      <c r="O147" s="47"/>
+      <c r="P147" s="47"/>
+      <c r="Q147" s="47"/>
+      <c r="R147" s="47"/>
+      <c r="S147" s="47"/>
+      <c r="T147" s="47"/>
       <c r="U147" s="47"/>
-      <c r="V147" s="45"/>
+      <c r="V147" s="47"/>
       <c r="W147" s="47"/>
       <c r="X147" s="47"/>
       <c r="Y147" s="47"/>
@@ -8641,10 +8599,10 @@
         <v>117</v>
       </c>
       <c r="B148" s="44" t="s">
-        <v>398</v>
-      </c>
-      <c r="C148" s="47" t="s">
-        <v>355</v>
+        <v>392</v>
+      </c>
+      <c r="C148" s="45" t="s">
+        <v>412</v>
       </c>
       <c r="D148" s="47"/>
       <c r="E148" s="47"/>
@@ -8653,10 +8611,10 @@
       <c r="H148" s="47"/>
       <c r="I148" s="47"/>
       <c r="J148" s="45" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K148" s="45" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L148" s="47"/>
       <c r="M148" s="47"/>
@@ -8688,34 +8646,34 @@
         <v>117</v>
       </c>
       <c r="B149" s="44" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="C149" s="45" t="s">
-        <v>397</v>
-      </c>
-      <c r="D149" s="46"/>
-      <c r="E149" s="46"/>
-      <c r="F149" s="46"/>
-      <c r="G149" s="46"/>
-      <c r="H149" s="46"/>
+        <v>210</v>
+      </c>
+      <c r="D149" s="47"/>
+      <c r="E149" s="47"/>
+      <c r="F149" s="47"/>
+      <c r="G149" s="47"/>
+      <c r="H149" s="47"/>
       <c r="I149" s="47"/>
       <c r="J149" s="45" t="s">
-        <v>401</v>
-      </c>
-      <c r="K149" s="47" t="s">
-        <v>352</v>
+        <v>404</v>
+      </c>
+      <c r="K149" s="45" t="s">
+        <v>340</v>
       </c>
       <c r="L149" s="47"/>
-      <c r="M149" s="45"/>
-      <c r="N149" s="45"/>
-      <c r="O149" s="45"/>
-      <c r="P149" s="45"/>
-      <c r="Q149" s="45"/>
-      <c r="R149" s="45"/>
-      <c r="S149" s="45"/>
-      <c r="T149" s="45"/>
+      <c r="M149" s="47"/>
+      <c r="N149" s="47"/>
+      <c r="O149" s="47"/>
+      <c r="P149" s="47"/>
+      <c r="Q149" s="47"/>
+      <c r="R149" s="47"/>
+      <c r="S149" s="47"/>
+      <c r="T149" s="47"/>
       <c r="U149" s="47"/>
-      <c r="V149" s="45"/>
+      <c r="V149" s="47"/>
       <c r="W149" s="47"/>
       <c r="X149" s="47"/>
       <c r="Y149" s="47"/>
@@ -8735,34 +8693,34 @@
         <v>117</v>
       </c>
       <c r="B150" s="44" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="C150" s="45" t="s">
-        <v>440</v>
-      </c>
-      <c r="D150" s="46"/>
-      <c r="E150" s="46"/>
-      <c r="F150" s="46"/>
-      <c r="G150" s="46"/>
-      <c r="H150" s="46"/>
+        <v>211</v>
+      </c>
+      <c r="D150" s="47"/>
+      <c r="E150" s="47"/>
+      <c r="F150" s="47"/>
+      <c r="G150" s="47"/>
+      <c r="H150" s="47"/>
       <c r="I150" s="47"/>
       <c r="J150" s="45" t="s">
-        <v>401</v>
-      </c>
-      <c r="K150" s="47" t="s">
-        <v>352</v>
+        <v>405</v>
+      </c>
+      <c r="K150" s="45" t="s">
+        <v>340</v>
       </c>
       <c r="L150" s="47"/>
-      <c r="M150" s="45"/>
-      <c r="N150" s="45"/>
-      <c r="O150" s="45"/>
-      <c r="P150" s="45"/>
-      <c r="Q150" s="45"/>
-      <c r="R150" s="45"/>
-      <c r="S150" s="45"/>
-      <c r="T150" s="45"/>
+      <c r="M150" s="47"/>
+      <c r="N150" s="47"/>
+      <c r="O150" s="47"/>
+      <c r="P150" s="47"/>
+      <c r="Q150" s="47"/>
+      <c r="R150" s="47"/>
+      <c r="S150" s="47"/>
+      <c r="T150" s="47"/>
       <c r="U150" s="47"/>
-      <c r="V150" s="45"/>
+      <c r="V150" s="47"/>
       <c r="W150" s="47"/>
       <c r="X150" s="47"/>
       <c r="Y150" s="47"/>
@@ -8782,34 +8740,34 @@
         <v>117</v>
       </c>
       <c r="B151" s="44" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C151" s="45" t="s">
-        <v>413</v>
-      </c>
-      <c r="D151" s="46"/>
-      <c r="E151" s="46"/>
-      <c r="F151" s="46"/>
-      <c r="G151" s="46"/>
-      <c r="H151" s="46"/>
+        <v>212</v>
+      </c>
+      <c r="D151" s="47"/>
+      <c r="E151" s="47"/>
+      <c r="F151" s="47"/>
+      <c r="G151" s="47"/>
+      <c r="H151" s="47"/>
       <c r="I151" s="47"/>
       <c r="J151" s="45" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="K151" s="45" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L151" s="47"/>
-      <c r="M151" s="45"/>
-      <c r="N151" s="45"/>
-      <c r="O151" s="45"/>
-      <c r="P151" s="45"/>
-      <c r="Q151" s="45"/>
-      <c r="R151" s="45"/>
-      <c r="S151" s="45"/>
-      <c r="T151" s="45"/>
+      <c r="M151" s="47"/>
+      <c r="N151" s="47"/>
+      <c r="O151" s="47"/>
+      <c r="P151" s="47"/>
+      <c r="Q151" s="47"/>
+      <c r="R151" s="47"/>
+      <c r="S151" s="47"/>
+      <c r="T151" s="47"/>
       <c r="U151" s="47"/>
-      <c r="V151" s="45"/>
+      <c r="V151" s="47"/>
       <c r="W151" s="47"/>
       <c r="X151" s="47"/>
       <c r="Y151" s="47"/>
@@ -8829,10 +8787,10 @@
         <v>117</v>
       </c>
       <c r="B152" s="44" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C152" s="45" t="s">
-        <v>424</v>
+        <v>213</v>
       </c>
       <c r="D152" s="47"/>
       <c r="E152" s="47"/>
@@ -8841,10 +8799,10 @@
       <c r="H152" s="47"/>
       <c r="I152" s="47"/>
       <c r="J152" s="45" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="K152" s="45" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="L152" s="47"/>
       <c r="M152" s="47"/>
@@ -8876,10 +8834,10 @@
         <v>117</v>
       </c>
       <c r="B153" s="44" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C153" s="45" t="s">
-        <v>425</v>
+        <v>214</v>
       </c>
       <c r="D153" s="47"/>
       <c r="E153" s="47"/>
@@ -8888,10 +8846,10 @@
       <c r="H153" s="47"/>
       <c r="I153" s="47"/>
       <c r="J153" s="45" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="K153" s="45" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="L153" s="47"/>
       <c r="M153" s="47"/>
@@ -8923,10 +8881,10 @@
         <v>117</v>
       </c>
       <c r="B154" s="44" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C154" s="45" t="s">
-        <v>426</v>
+        <v>215</v>
       </c>
       <c r="D154" s="47"/>
       <c r="E154" s="47"/>
@@ -8935,10 +8893,10 @@
       <c r="H154" s="47"/>
       <c r="I154" s="47"/>
       <c r="J154" s="45" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="K154" s="45" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="L154" s="47"/>
       <c r="M154" s="47"/>
@@ -8970,10 +8928,10 @@
         <v>117</v>
       </c>
       <c r="B155" s="44" t="s">
-        <v>407</v>
+        <v>347</v>
       </c>
       <c r="C155" s="45" t="s">
-        <v>210</v>
+        <v>348</v>
       </c>
       <c r="D155" s="47"/>
       <c r="E155" s="47"/>
@@ -8981,11 +8939,11 @@
       <c r="G155" s="47"/>
       <c r="H155" s="47"/>
       <c r="I155" s="47"/>
-      <c r="J155" s="45" t="s">
-        <v>418</v>
+      <c r="J155" s="47" t="s">
+        <v>413</v>
       </c>
       <c r="K155" s="45" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L155" s="47"/>
       <c r="M155" s="47"/>
@@ -9017,10 +8975,10 @@
         <v>117</v>
       </c>
       <c r="B156" s="44" t="s">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="C156" s="45" t="s">
-        <v>211</v>
+        <v>351</v>
       </c>
       <c r="D156" s="47"/>
       <c r="E156" s="47"/>
@@ -9029,11 +8987,9 @@
       <c r="H156" s="47"/>
       <c r="I156" s="47"/>
       <c r="J156" s="45" t="s">
-        <v>419</v>
-      </c>
-      <c r="K156" s="45" t="s">
         <v>352</v>
       </c>
+      <c r="K156" s="45"/>
       <c r="L156" s="47"/>
       <c r="M156" s="47"/>
       <c r="N156" s="47"/>
@@ -9064,10 +9020,10 @@
         <v>117</v>
       </c>
       <c r="B157" s="44" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
       <c r="C157" s="45" t="s">
-        <v>212</v>
+        <v>346</v>
       </c>
       <c r="D157" s="47"/>
       <c r="E157" s="47"/>
@@ -9076,10 +9032,10 @@
       <c r="H157" s="47"/>
       <c r="I157" s="47"/>
       <c r="J157" s="45" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="K157" s="45" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="L157" s="47"/>
       <c r="M157" s="47"/>
@@ -9111,34 +9067,34 @@
         <v>117</v>
       </c>
       <c r="B158" s="44" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="C158" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="D158" s="47"/>
-      <c r="E158" s="47"/>
-      <c r="F158" s="47"/>
-      <c r="G158" s="47"/>
-      <c r="H158" s="47"/>
+        <v>355</v>
+      </c>
+      <c r="D158" s="46"/>
+      <c r="E158" s="46"/>
+      <c r="F158" s="46"/>
+      <c r="G158" s="46"/>
+      <c r="H158" s="46"/>
       <c r="I158" s="47"/>
       <c r="J158" s="45" t="s">
-        <v>421</v>
-      </c>
-      <c r="K158" s="45" t="s">
-        <v>352</v>
+        <v>386</v>
+      </c>
+      <c r="K158" s="47" t="s">
+        <v>340</v>
       </c>
       <c r="L158" s="47"/>
-      <c r="M158" s="47"/>
-      <c r="N158" s="47"/>
-      <c r="O158" s="47"/>
-      <c r="P158" s="47"/>
-      <c r="Q158" s="47"/>
-      <c r="R158" s="47"/>
-      <c r="S158" s="47"/>
-      <c r="T158" s="47"/>
+      <c r="M158" s="45"/>
+      <c r="N158" s="45"/>
+      <c r="O158" s="45"/>
+      <c r="P158" s="45"/>
+      <c r="Q158" s="45"/>
+      <c r="R158" s="45"/>
+      <c r="S158" s="45"/>
+      <c r="T158" s="45"/>
       <c r="U158" s="47"/>
-      <c r="V158" s="47"/>
+      <c r="V158" s="45"/>
       <c r="W158" s="47"/>
       <c r="X158" s="47"/>
       <c r="Y158" s="47"/>
@@ -9158,34 +9114,32 @@
         <v>117</v>
       </c>
       <c r="B159" s="44" t="s">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="C159" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="D159" s="47"/>
-      <c r="E159" s="47"/>
-      <c r="F159" s="47"/>
-      <c r="G159" s="47"/>
-      <c r="H159" s="47"/>
+        <v>357</v>
+      </c>
+      <c r="D159" s="46"/>
+      <c r="E159" s="46"/>
+      <c r="F159" s="46"/>
+      <c r="G159" s="46"/>
+      <c r="H159" s="46"/>
       <c r="I159" s="47"/>
-      <c r="J159" s="45" t="s">
-        <v>422</v>
-      </c>
-      <c r="K159" s="45" t="s">
-        <v>352</v>
-      </c>
+      <c r="J159" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="K159" s="47"/>
       <c r="L159" s="47"/>
-      <c r="M159" s="47"/>
-      <c r="N159" s="47"/>
-      <c r="O159" s="47"/>
-      <c r="P159" s="47"/>
-      <c r="Q159" s="47"/>
-      <c r="R159" s="47"/>
-      <c r="S159" s="47"/>
-      <c r="T159" s="47"/>
+      <c r="M159" s="45"/>
+      <c r="N159" s="45"/>
+      <c r="O159" s="45"/>
+      <c r="P159" s="45"/>
+      <c r="Q159" s="45"/>
+      <c r="R159" s="45"/>
+      <c r="S159" s="45"/>
+      <c r="T159" s="45"/>
       <c r="U159" s="47"/>
-      <c r="V159" s="47"/>
+      <c r="V159" s="45"/>
       <c r="W159" s="47"/>
       <c r="X159" s="47"/>
       <c r="Y159" s="47"/>
@@ -9205,34 +9159,32 @@
         <v>117</v>
       </c>
       <c r="B160" s="44" t="s">
-        <v>412</v>
+        <v>358</v>
       </c>
       <c r="C160" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="D160" s="47"/>
-      <c r="E160" s="47"/>
-      <c r="F160" s="47"/>
-      <c r="G160" s="47"/>
-      <c r="H160" s="47"/>
+        <v>359</v>
+      </c>
+      <c r="D160" s="46"/>
+      <c r="E160" s="46"/>
+      <c r="F160" s="46"/>
+      <c r="G160" s="46"/>
+      <c r="H160" s="46"/>
       <c r="I160" s="47"/>
-      <c r="J160" s="45" t="s">
-        <v>423</v>
-      </c>
-      <c r="K160" s="45" t="s">
-        <v>352</v>
-      </c>
+      <c r="J160" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="K160" s="47"/>
       <c r="L160" s="47"/>
-      <c r="M160" s="47"/>
-      <c r="N160" s="47"/>
-      <c r="O160" s="47"/>
-      <c r="P160" s="47"/>
-      <c r="Q160" s="47"/>
-      <c r="R160" s="47"/>
-      <c r="S160" s="47"/>
-      <c r="T160" s="47"/>
+      <c r="M160" s="45"/>
+      <c r="N160" s="45"/>
+      <c r="O160" s="45"/>
+      <c r="P160" s="45"/>
+      <c r="Q160" s="45"/>
+      <c r="R160" s="45"/>
+      <c r="S160" s="45"/>
+      <c r="T160" s="45"/>
       <c r="U160" s="47"/>
-      <c r="V160" s="47"/>
+      <c r="V160" s="45"/>
       <c r="W160" s="47"/>
       <c r="X160" s="47"/>
       <c r="Y160" s="47"/>
@@ -9252,10 +9204,10 @@
         <v>117</v>
       </c>
       <c r="B161" s="44" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C161" s="45" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D161" s="47"/>
       <c r="E161" s="47"/>
@@ -9263,11 +9215,11 @@
       <c r="G161" s="47"/>
       <c r="H161" s="47"/>
       <c r="I161" s="47"/>
-      <c r="J161" s="47" t="s">
-        <v>427</v>
+      <c r="J161" s="45" t="s">
+        <v>400</v>
       </c>
       <c r="K161" s="45" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L161" s="47"/>
       <c r="M161" s="47"/>
@@ -9299,10 +9251,10 @@
         <v>117</v>
       </c>
       <c r="B162" s="44" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C162" s="45" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D162" s="47"/>
       <c r="E162" s="47"/>
@@ -9311,7 +9263,7 @@
       <c r="H162" s="47"/>
       <c r="I162" s="47"/>
       <c r="J162" s="45" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="K162" s="45"/>
       <c r="L162" s="47"/>
@@ -9347,7 +9299,7 @@
         <v>365</v>
       </c>
       <c r="C163" s="45" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D163" s="47"/>
       <c r="E163" s="47"/>
@@ -9356,11 +9308,9 @@
       <c r="H163" s="47"/>
       <c r="I163" s="47"/>
       <c r="J163" s="45" t="s">
-        <v>414</v>
-      </c>
-      <c r="K163" s="45" t="s">
-        <v>352</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="K163" s="45"/>
       <c r="L163" s="47"/>
       <c r="M163" s="47"/>
       <c r="N163" s="47"/>
@@ -9391,34 +9341,32 @@
         <v>117</v>
       </c>
       <c r="B164" s="44" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C164" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="D164" s="46"/>
-      <c r="E164" s="46"/>
-      <c r="F164" s="46"/>
-      <c r="G164" s="46"/>
-      <c r="H164" s="46"/>
+        <v>368</v>
+      </c>
+      <c r="D164" s="47"/>
+      <c r="E164" s="47"/>
+      <c r="F164" s="47"/>
+      <c r="G164" s="47"/>
+      <c r="H164" s="47"/>
       <c r="I164" s="47"/>
       <c r="J164" s="45" t="s">
         <v>400</v>
       </c>
-      <c r="K164" s="47" t="s">
-        <v>352</v>
-      </c>
+      <c r="K164" s="45"/>
       <c r="L164" s="47"/>
-      <c r="M164" s="45"/>
-      <c r="N164" s="45"/>
-      <c r="O164" s="45"/>
-      <c r="P164" s="45"/>
-      <c r="Q164" s="45"/>
-      <c r="R164" s="45"/>
-      <c r="S164" s="45"/>
-      <c r="T164" s="45"/>
+      <c r="M164" s="47"/>
+      <c r="N164" s="47"/>
+      <c r="O164" s="47"/>
+      <c r="P164" s="47"/>
+      <c r="Q164" s="47"/>
+      <c r="R164" s="47"/>
+      <c r="S164" s="47"/>
+      <c r="T164" s="47"/>
       <c r="U164" s="47"/>
-      <c r="V164" s="45"/>
+      <c r="V164" s="47"/>
       <c r="W164" s="47"/>
       <c r="X164" s="47"/>
       <c r="Y164" s="47"/>
@@ -9435,23 +9383,17 @@
     </row>
     <row r="165" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B165" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="C165" s="45" t="s">
-        <v>369</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B165" s="44"/>
+      <c r="C165" s="45"/>
       <c r="D165" s="46"/>
       <c r="E165" s="46"/>
       <c r="F165" s="46"/>
       <c r="G165" s="46"/>
       <c r="H165" s="46"/>
       <c r="I165" s="47"/>
-      <c r="J165" s="47" t="s">
-        <v>402</v>
-      </c>
+      <c r="J165" s="47"/>
       <c r="K165" s="47"/>
       <c r="L165" s="47"/>
       <c r="M165" s="45"/>
@@ -9479,289 +9421,305 @@
       <c r="AI165" s="47"/>
     </row>
     <row r="166" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B166" s="44" t="s">
-        <v>370</v>
-      </c>
-      <c r="C166" s="45" t="s">
-        <v>371</v>
-      </c>
-      <c r="D166" s="46"/>
-      <c r="E166" s="46"/>
-      <c r="F166" s="46"/>
-      <c r="G166" s="46"/>
-      <c r="H166" s="46"/>
-      <c r="I166" s="47"/>
-      <c r="J166" s="47" t="s">
-        <v>402</v>
-      </c>
-      <c r="K166" s="47"/>
-      <c r="L166" s="47"/>
-      <c r="M166" s="45"/>
-      <c r="N166" s="45"/>
-      <c r="O166" s="45"/>
-      <c r="P166" s="45"/>
-      <c r="Q166" s="45"/>
-      <c r="R166" s="45"/>
-      <c r="S166" s="45"/>
-      <c r="T166" s="45"/>
-      <c r="U166" s="47"/>
-      <c r="V166" s="45"/>
-      <c r="W166" s="47"/>
-      <c r="X166" s="47"/>
-      <c r="Y166" s="47"/>
-      <c r="Z166" s="47"/>
-      <c r="AA166" s="47"/>
-      <c r="AB166" s="47"/>
-      <c r="AC166" s="47"/>
-      <c r="AD166" s="47"/>
-      <c r="AE166" s="47"/>
-      <c r="AF166" s="47"/>
-      <c r="AG166" s="47"/>
-      <c r="AH166" s="47"/>
-      <c r="AI166" s="47"/>
+      <c r="A166" s="31"/>
+      <c r="B166" s="31"/>
+      <c r="C166" s="31"/>
+      <c r="E166" s="31"/>
+      <c r="F166" s="31"/>
+      <c r="AE166" s="31"/>
+      <c r="AF166" s="31"/>
+      <c r="AG166" s="31"/>
+      <c r="AH166" s="31"/>
+      <c r="AI166" s="31"/>
     </row>
     <row r="167" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B167" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="C167" s="45" t="s">
-        <v>373</v>
-      </c>
-      <c r="D167" s="47"/>
-      <c r="E167" s="47"/>
-      <c r="F167" s="47"/>
-      <c r="G167" s="47"/>
-      <c r="H167" s="47"/>
-      <c r="I167" s="47"/>
-      <c r="J167" s="45" t="s">
-        <v>414</v>
-      </c>
-      <c r="K167" s="45" t="s">
-        <v>374</v>
-      </c>
-      <c r="L167" s="47"/>
-      <c r="M167" s="47"/>
-      <c r="N167" s="47"/>
-      <c r="O167" s="47"/>
-      <c r="P167" s="47"/>
-      <c r="Q167" s="47"/>
-      <c r="R167" s="47"/>
-      <c r="S167" s="47"/>
-      <c r="T167" s="47"/>
-      <c r="U167" s="47"/>
-      <c r="V167" s="47"/>
-      <c r="W167" s="47"/>
-      <c r="X167" s="47"/>
-      <c r="Y167" s="47"/>
-      <c r="Z167" s="47"/>
-      <c r="AA167" s="47"/>
-      <c r="AB167" s="47"/>
-      <c r="AC167" s="47"/>
-      <c r="AD167" s="47"/>
-      <c r="AE167" s="47"/>
-      <c r="AF167" s="47"/>
-      <c r="AG167" s="47"/>
-      <c r="AH167" s="47"/>
-      <c r="AI167" s="47"/>
+      <c r="A167" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B167" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C167" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D167" s="50"/>
+      <c r="E167" s="50"/>
+      <c r="F167" s="50"/>
+      <c r="G167" s="50"/>
+      <c r="H167" s="50"/>
+      <c r="I167" s="50"/>
+      <c r="J167" s="50"/>
+      <c r="K167" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="L167" s="50"/>
+      <c r="M167" s="50"/>
+      <c r="N167" s="50"/>
+      <c r="O167" s="50"/>
+      <c r="P167" s="50"/>
+      <c r="Q167" s="50"/>
+      <c r="R167" s="50"/>
+      <c r="S167" s="50"/>
+      <c r="T167" s="50"/>
+      <c r="U167" s="50"/>
+      <c r="V167" s="50"/>
+      <c r="W167" s="50"/>
+      <c r="X167" s="50"/>
+      <c r="Y167" s="50"/>
+      <c r="Z167" s="50"/>
+      <c r="AA167" s="50"/>
+      <c r="AB167" s="50"/>
+      <c r="AC167" s="50"/>
+      <c r="AD167" s="50"/>
+      <c r="AE167" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF167" s="50"/>
+      <c r="AG167" s="50"/>
+      <c r="AH167" s="50"/>
+      <c r="AI167" s="50"/>
     </row>
     <row r="168" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B168" s="44" t="s">
-        <v>375</v>
-      </c>
-      <c r="C168" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D168" s="47"/>
-      <c r="E168" s="47"/>
-      <c r="F168" s="47"/>
-      <c r="G168" s="47"/>
-      <c r="H168" s="47"/>
-      <c r="I168" s="47"/>
-      <c r="J168" s="45" t="s">
-        <v>414</v>
-      </c>
-      <c r="K168" s="45"/>
-      <c r="L168" s="47"/>
-      <c r="M168" s="47"/>
-      <c r="N168" s="47"/>
-      <c r="O168" s="47"/>
-      <c r="P168" s="47"/>
-      <c r="Q168" s="47"/>
-      <c r="R168" s="47"/>
-      <c r="S168" s="47"/>
-      <c r="T168" s="47"/>
-      <c r="U168" s="47"/>
-      <c r="V168" s="47"/>
-      <c r="W168" s="47"/>
-      <c r="X168" s="47"/>
-      <c r="Y168" s="47"/>
-      <c r="Z168" s="47"/>
-      <c r="AA168" s="47"/>
-      <c r="AB168" s="47"/>
-      <c r="AC168" s="47"/>
-      <c r="AD168" s="47"/>
-      <c r="AE168" s="47"/>
-      <c r="AF168" s="47"/>
-      <c r="AG168" s="47"/>
-      <c r="AH168" s="47"/>
-      <c r="AI168" s="47"/>
+      <c r="A168" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B168" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="C168" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D168" s="50"/>
+      <c r="E168" s="50"/>
+      <c r="F168" s="50"/>
+      <c r="G168" s="50"/>
+      <c r="H168" s="50"/>
+      <c r="I168" s="50"/>
+      <c r="J168" s="50"/>
+      <c r="K168" s="50"/>
+      <c r="L168" s="50"/>
+      <c r="M168" s="50"/>
+      <c r="N168" s="50"/>
+      <c r="O168" s="50"/>
+      <c r="P168" s="50"/>
+      <c r="Q168" s="50"/>
+      <c r="R168" s="50"/>
+      <c r="S168" s="50"/>
+      <c r="T168" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="U168" s="50"/>
+      <c r="V168" s="50"/>
+      <c r="W168" s="50"/>
+      <c r="X168" s="50"/>
+      <c r="Y168" s="50"/>
+      <c r="Z168" s="50"/>
+      <c r="AA168" s="50"/>
+      <c r="AB168" s="50"/>
+      <c r="AC168" s="50"/>
+      <c r="AD168" s="50"/>
+      <c r="AE168" s="50"/>
+      <c r="AF168" s="50"/>
+      <c r="AG168" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH168" s="50"/>
+      <c r="AI168" s="50"/>
     </row>
     <row r="169" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B169" s="44" t="s">
-        <v>377</v>
-      </c>
-      <c r="C169" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="D169" s="47"/>
-      <c r="E169" s="47"/>
-      <c r="F169" s="47"/>
-      <c r="G169" s="47"/>
-      <c r="H169" s="47"/>
-      <c r="I169" s="47"/>
-      <c r="J169" s="45" t="s">
-        <v>414</v>
-      </c>
-      <c r="K169" s="45"/>
-      <c r="L169" s="47"/>
-      <c r="M169" s="47"/>
-      <c r="N169" s="47"/>
-      <c r="O169" s="47"/>
-      <c r="P169" s="47"/>
-      <c r="Q169" s="47"/>
-      <c r="R169" s="47"/>
-      <c r="S169" s="47"/>
-      <c r="T169" s="47"/>
-      <c r="U169" s="47"/>
-      <c r="V169" s="47"/>
-      <c r="W169" s="47"/>
-      <c r="X169" s="47"/>
-      <c r="Y169" s="47"/>
-      <c r="Z169" s="47"/>
-      <c r="AA169" s="47"/>
-      <c r="AB169" s="47"/>
-      <c r="AC169" s="47"/>
-      <c r="AD169" s="47"/>
-      <c r="AE169" s="47"/>
-      <c r="AF169" s="47"/>
-      <c r="AG169" s="47"/>
-      <c r="AH169" s="47"/>
-      <c r="AI169" s="47"/>
+      <c r="A169" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B169" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C169" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D169" s="50"/>
+      <c r="E169" s="50"/>
+      <c r="F169" s="50"/>
+      <c r="G169" s="50"/>
+      <c r="H169" s="50"/>
+      <c r="I169" s="50"/>
+      <c r="J169" s="50"/>
+      <c r="K169" s="50"/>
+      <c r="L169" s="50"/>
+      <c r="M169" s="50"/>
+      <c r="N169" s="50"/>
+      <c r="O169" s="50"/>
+      <c r="P169" s="50"/>
+      <c r="Q169" s="50"/>
+      <c r="R169" s="50"/>
+      <c r="S169" s="50"/>
+      <c r="T169" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="U169" s="50"/>
+      <c r="V169" s="50"/>
+      <c r="W169" s="50"/>
+      <c r="X169" s="50"/>
+      <c r="Y169" s="50"/>
+      <c r="Z169" s="50"/>
+      <c r="AA169" s="50"/>
+      <c r="AB169" s="50"/>
+      <c r="AC169" s="50"/>
+      <c r="AD169" s="50"/>
+      <c r="AE169" s="50"/>
+      <c r="AF169" s="50"/>
+      <c r="AG169" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH169" s="50"/>
+      <c r="AI169" s="50"/>
     </row>
     <row r="170" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B170" s="44" t="s">
-        <v>379</v>
-      </c>
-      <c r="C170" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="D170" s="47"/>
-      <c r="E170" s="47"/>
-      <c r="F170" s="47"/>
-      <c r="G170" s="47"/>
-      <c r="H170" s="47"/>
-      <c r="I170" s="47"/>
-      <c r="J170" s="45" t="s">
-        <v>414</v>
-      </c>
-      <c r="K170" s="45"/>
-      <c r="L170" s="47"/>
-      <c r="M170" s="47"/>
-      <c r="N170" s="47"/>
-      <c r="O170" s="47"/>
-      <c r="P170" s="47"/>
-      <c r="Q170" s="47"/>
-      <c r="R170" s="47"/>
-      <c r="S170" s="47"/>
-      <c r="T170" s="47"/>
-      <c r="U170" s="47"/>
-      <c r="V170" s="47"/>
-      <c r="W170" s="47"/>
-      <c r="X170" s="47"/>
-      <c r="Y170" s="47"/>
-      <c r="Z170" s="47"/>
-      <c r="AA170" s="47"/>
-      <c r="AB170" s="47"/>
-      <c r="AC170" s="47"/>
-      <c r="AD170" s="47"/>
-      <c r="AE170" s="47"/>
-      <c r="AF170" s="47"/>
-      <c r="AG170" s="47"/>
-      <c r="AH170" s="47"/>
-      <c r="AI170" s="47"/>
+      <c r="A170" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B170" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="C170" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D170" s="50"/>
+      <c r="E170" s="50"/>
+      <c r="F170" s="50"/>
+      <c r="G170" s="50"/>
+      <c r="H170" s="50"/>
+      <c r="I170" s="50"/>
+      <c r="J170" s="50"/>
+      <c r="K170" s="50"/>
+      <c r="L170" s="50"/>
+      <c r="M170" s="50"/>
+      <c r="N170" s="50"/>
+      <c r="O170" s="50"/>
+      <c r="P170" s="50"/>
+      <c r="Q170" s="50"/>
+      <c r="R170" s="50"/>
+      <c r="S170" s="50"/>
+      <c r="T170" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="U170" s="50"/>
+      <c r="V170" s="50"/>
+      <c r="W170" s="50"/>
+      <c r="X170" s="50"/>
+      <c r="Y170" s="50"/>
+      <c r="Z170" s="50"/>
+      <c r="AA170" s="50"/>
+      <c r="AB170" s="50"/>
+      <c r="AC170" s="50"/>
+      <c r="AD170" s="50"/>
+      <c r="AE170" s="50"/>
+      <c r="AF170" s="50"/>
+      <c r="AG170" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH170" s="50"/>
+      <c r="AI170" s="50"/>
     </row>
     <row r="171" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B171" s="44"/>
-      <c r="C171" s="45"/>
-      <c r="D171" s="46"/>
-      <c r="E171" s="46"/>
-      <c r="F171" s="46"/>
-      <c r="G171" s="46"/>
-      <c r="H171" s="46"/>
-      <c r="I171" s="47"/>
-      <c r="J171" s="47"/>
-      <c r="K171" s="47"/>
-      <c r="L171" s="47"/>
-      <c r="M171" s="45"/>
-      <c r="N171" s="45"/>
-      <c r="O171" s="45"/>
-      <c r="P171" s="45"/>
-      <c r="Q171" s="45"/>
-      <c r="R171" s="45"/>
-      <c r="S171" s="45"/>
-      <c r="T171" s="45"/>
-      <c r="U171" s="47"/>
-      <c r="V171" s="45"/>
-      <c r="W171" s="47"/>
-      <c r="X171" s="47"/>
-      <c r="Y171" s="47"/>
-      <c r="Z171" s="47"/>
-      <c r="AA171" s="47"/>
-      <c r="AB171" s="47"/>
-      <c r="AC171" s="47"/>
-      <c r="AD171" s="47"/>
-      <c r="AE171" s="47"/>
-      <c r="AF171" s="47"/>
-      <c r="AG171" s="47"/>
-      <c r="AH171" s="47"/>
-      <c r="AI171" s="47"/>
+      <c r="A171" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B171" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="C171" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D171" s="50"/>
+      <c r="E171" s="50"/>
+      <c r="F171" s="50"/>
+      <c r="G171" s="50"/>
+      <c r="H171" s="50"/>
+      <c r="I171" s="50"/>
+      <c r="J171" s="50"/>
+      <c r="K171" s="50"/>
+      <c r="L171" s="50"/>
+      <c r="M171" s="50"/>
+      <c r="N171" s="50"/>
+      <c r="O171" s="50"/>
+      <c r="P171" s="50"/>
+      <c r="Q171" s="50"/>
+      <c r="R171" s="50"/>
+      <c r="S171" s="50"/>
+      <c r="T171" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="U171" s="50"/>
+      <c r="V171" s="50"/>
+      <c r="W171" s="50"/>
+      <c r="X171" s="50"/>
+      <c r="Y171" s="50"/>
+      <c r="Z171" s="50"/>
+      <c r="AA171" s="50"/>
+      <c r="AB171" s="50"/>
+      <c r="AC171" s="50"/>
+      <c r="AD171" s="50"/>
+      <c r="AE171" s="50"/>
+      <c r="AF171" s="50"/>
+      <c r="AG171" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH171" s="50"/>
+      <c r="AI171" s="50"/>
     </row>
     <row r="172" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="31"/>
-      <c r="B172" s="31"/>
-      <c r="C172" s="31"/>
-      <c r="E172" s="31"/>
-      <c r="F172" s="31"/>
-      <c r="AE172" s="31"/>
-      <c r="AF172" s="31"/>
-      <c r="AG172" s="31"/>
-      <c r="AH172" s="31"/>
-      <c r="AI172" s="31"/>
+      <c r="A172" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B172" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="C172" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D172" s="50"/>
+      <c r="E172" s="50"/>
+      <c r="F172" s="50"/>
+      <c r="G172" s="50"/>
+      <c r="H172" s="50"/>
+      <c r="I172" s="50"/>
+      <c r="J172" s="50"/>
+      <c r="K172" s="50"/>
+      <c r="L172" s="50"/>
+      <c r="M172" s="50"/>
+      <c r="N172" s="50"/>
+      <c r="O172" s="50"/>
+      <c r="P172" s="50"/>
+      <c r="Q172" s="50"/>
+      <c r="R172" s="50"/>
+      <c r="S172" s="50"/>
+      <c r="T172" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="U172" s="50"/>
+      <c r="V172" s="50"/>
+      <c r="W172" s="50"/>
+      <c r="X172" s="50"/>
+      <c r="Y172" s="50"/>
+      <c r="Z172" s="50"/>
+      <c r="AA172" s="50"/>
+      <c r="AB172" s="50"/>
+      <c r="AC172" s="50"/>
+      <c r="AD172" s="50"/>
+      <c r="AE172" s="50"/>
+      <c r="AF172" s="50"/>
+      <c r="AG172" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH172" s="50"/>
+      <c r="AI172" s="50"/>
     </row>
     <row r="173" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B173" s="49" t="s">
-        <v>48</v>
+        <v>78</v>
+      </c>
+      <c r="B173" s="52" t="s">
+        <v>233</v>
       </c>
       <c r="C173" s="50" t="s">
         <v>45</v>
@@ -9773,9 +9731,7 @@
       <c r="H173" s="50"/>
       <c r="I173" s="50"/>
       <c r="J173" s="50"/>
-      <c r="K173" s="51" t="s">
-        <v>50</v>
-      </c>
+      <c r="K173" s="50"/>
       <c r="L173" s="50"/>
       <c r="M173" s="50"/>
       <c r="N173" s="50"/>
@@ -9784,7 +9740,9 @@
       <c r="Q173" s="50"/>
       <c r="R173" s="50"/>
       <c r="S173" s="50"/>
-      <c r="T173" s="50"/>
+      <c r="T173" s="50" t="s">
+        <v>419</v>
+      </c>
       <c r="U173" s="50"/>
       <c r="V173" s="50"/>
       <c r="W173" s="50"/>
@@ -9795,11 +9753,11 @@
       <c r="AB173" s="50"/>
       <c r="AC173" s="50"/>
       <c r="AD173" s="50"/>
-      <c r="AE173" s="51" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE173" s="50"/>
       <c r="AF173" s="50"/>
-      <c r="AG173" s="50"/>
+      <c r="AG173" s="51" t="s">
+        <v>143</v>
+      </c>
       <c r="AH173" s="50"/>
       <c r="AI173" s="50"/>
     </row>
@@ -9808,7 +9766,7 @@
         <v>78</v>
       </c>
       <c r="B174" s="52" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C174" s="50" t="s">
         <v>45</v>
@@ -9830,7 +9788,7 @@
       <c r="R174" s="50"/>
       <c r="S174" s="50"/>
       <c r="T174" s="50" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="U174" s="50"/>
       <c r="V174" s="50"/>
@@ -9845,7 +9803,7 @@
       <c r="AE174" s="50"/>
       <c r="AF174" s="50"/>
       <c r="AG174" s="51" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="AH174" s="50"/>
       <c r="AI174" s="50"/>
@@ -9855,7 +9813,7 @@
         <v>78</v>
       </c>
       <c r="B175" s="52" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C175" s="50" t="s">
         <v>45</v>
@@ -9877,7 +9835,7 @@
       <c r="R175" s="50"/>
       <c r="S175" s="50"/>
       <c r="T175" s="50" t="s">
-        <v>161</v>
+        <v>421</v>
       </c>
       <c r="U175" s="50"/>
       <c r="V175" s="50"/>
@@ -9892,7 +9850,7 @@
       <c r="AE175" s="50"/>
       <c r="AF175" s="50"/>
       <c r="AG175" s="51" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="AH175" s="50"/>
       <c r="AI175" s="50"/>
@@ -9902,7 +9860,7 @@
         <v>78</v>
       </c>
       <c r="B176" s="52" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C176" s="50" t="s">
         <v>45</v>
@@ -9924,7 +9882,7 @@
       <c r="R176" s="50"/>
       <c r="S176" s="50"/>
       <c r="T176" s="50" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="U176" s="50"/>
       <c r="V176" s="50"/>
@@ -9939,7 +9897,7 @@
       <c r="AE176" s="50"/>
       <c r="AF176" s="50"/>
       <c r="AG176" s="51" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="AH176" s="50"/>
       <c r="AI176" s="50"/>
@@ -9949,7 +9907,7 @@
         <v>78</v>
       </c>
       <c r="B177" s="52" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C177" s="50" t="s">
         <v>45</v>
@@ -9971,7 +9929,7 @@
       <c r="R177" s="50"/>
       <c r="S177" s="50"/>
       <c r="T177" s="50" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="U177" s="50"/>
       <c r="V177" s="50"/>
@@ -9986,7 +9944,7 @@
       <c r="AE177" s="50"/>
       <c r="AF177" s="50"/>
       <c r="AG177" s="51" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="AH177" s="50"/>
       <c r="AI177" s="50"/>
@@ -9996,7 +9954,7 @@
         <v>78</v>
       </c>
       <c r="B178" s="52" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="C178" s="50" t="s">
         <v>45</v>
@@ -10018,7 +9976,7 @@
       <c r="R178" s="50"/>
       <c r="S178" s="50"/>
       <c r="T178" s="50" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="U178" s="50"/>
       <c r="V178" s="50"/>
@@ -10033,64 +9991,60 @@
       <c r="AE178" s="50"/>
       <c r="AF178" s="50"/>
       <c r="AG178" s="51" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="AH178" s="50"/>
       <c r="AI178" s="50"/>
     </row>
     <row r="179" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B179" s="52" t="s">
-        <v>233</v>
+      <c r="A179" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B179" s="53" t="s">
+        <v>186</v>
       </c>
       <c r="C179" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D179" s="50"/>
-      <c r="E179" s="50"/>
-      <c r="F179" s="50"/>
-      <c r="G179" s="50"/>
-      <c r="H179" s="50"/>
-      <c r="I179" s="50"/>
-      <c r="J179" s="50"/>
-      <c r="K179" s="50"/>
-      <c r="L179" s="50"/>
-      <c r="M179" s="50"/>
-      <c r="N179" s="50"/>
-      <c r="O179" s="50"/>
-      <c r="P179" s="50"/>
-      <c r="Q179" s="50"/>
-      <c r="R179" s="50"/>
-      <c r="S179" s="50"/>
-      <c r="T179" s="50" t="s">
-        <v>433</v>
-      </c>
-      <c r="U179" s="50"/>
-      <c r="V179" s="50"/>
-      <c r="W179" s="50"/>
-      <c r="X179" s="50"/>
-      <c r="Y179" s="50"/>
-      <c r="Z179" s="50"/>
-      <c r="AA179" s="50"/>
-      <c r="AB179" s="50"/>
-      <c r="AC179" s="50"/>
-      <c r="AD179" s="50"/>
-      <c r="AE179" s="50"/>
-      <c r="AF179" s="50"/>
-      <c r="AG179" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH179" s="50"/>
-      <c r="AI179" s="50"/>
+      <c r="D179" s="51"/>
+      <c r="E179" s="51"/>
+      <c r="F179" s="51"/>
+      <c r="G179" s="51"/>
+      <c r="H179" s="51"/>
+      <c r="I179" s="51"/>
+      <c r="J179" s="51"/>
+      <c r="K179" s="51"/>
+      <c r="L179" s="51"/>
+      <c r="M179" s="51"/>
+      <c r="N179" s="51"/>
+      <c r="O179" s="51"/>
+      <c r="P179" s="51"/>
+      <c r="Q179" s="51"/>
+      <c r="R179" s="51"/>
+      <c r="S179" s="51"/>
+      <c r="T179" s="51"/>
+      <c r="U179" s="51"/>
+      <c r="V179" s="51"/>
+      <c r="W179" s="51"/>
+      <c r="X179" s="51"/>
+      <c r="Y179" s="51"/>
+      <c r="Z179" s="51"/>
+      <c r="AA179" s="51"/>
+      <c r="AB179" s="51"/>
+      <c r="AC179" s="51"/>
+      <c r="AD179" s="51"/>
+      <c r="AE179" s="51"/>
+      <c r="AF179" s="51"/>
+      <c r="AG179" s="51"/>
+      <c r="AH179" s="51"/>
+      <c r="AI179" s="51"/>
     </row>
     <row r="180" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="49" t="s">
         <v>78</v>
       </c>
       <c r="B180" s="52" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="C180" s="50" t="s">
         <v>45</v>
@@ -10111,8 +10065,8 @@
       <c r="Q180" s="50"/>
       <c r="R180" s="50"/>
       <c r="S180" s="50"/>
-      <c r="T180" s="50" t="s">
-        <v>434</v>
+      <c r="T180" s="51" t="s">
+        <v>190</v>
       </c>
       <c r="U180" s="50"/>
       <c r="V180" s="50"/>
@@ -10127,7 +10081,7 @@
       <c r="AE180" s="50"/>
       <c r="AF180" s="50"/>
       <c r="AG180" s="51" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="AH180" s="50"/>
       <c r="AI180" s="50"/>
@@ -10137,7 +10091,7 @@
         <v>78</v>
       </c>
       <c r="B181" s="52" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="C181" s="50" t="s">
         <v>45</v>
@@ -10158,8 +10112,8 @@
       <c r="Q181" s="50"/>
       <c r="R181" s="50"/>
       <c r="S181" s="50"/>
-      <c r="T181" s="50" t="s">
-        <v>435</v>
+      <c r="T181" s="51" t="s">
+        <v>193</v>
       </c>
       <c r="U181" s="50"/>
       <c r="V181" s="50"/>
@@ -10174,7 +10128,7 @@
       <c r="AE181" s="50"/>
       <c r="AF181" s="50"/>
       <c r="AG181" s="51" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="AH181" s="50"/>
       <c r="AI181" s="50"/>
@@ -10184,7 +10138,7 @@
         <v>78</v>
       </c>
       <c r="B182" s="52" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="C182" s="50" t="s">
         <v>45</v>
@@ -10205,8 +10159,8 @@
       <c r="Q182" s="50"/>
       <c r="R182" s="50"/>
       <c r="S182" s="50"/>
-      <c r="T182" s="50" t="s">
-        <v>436</v>
+      <c r="T182" s="51" t="s">
+        <v>195</v>
       </c>
       <c r="U182" s="50"/>
       <c r="V182" s="50"/>
@@ -10221,7 +10175,7 @@
       <c r="AE182" s="50"/>
       <c r="AF182" s="50"/>
       <c r="AG182" s="51" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="AH182" s="50"/>
       <c r="AI182" s="50"/>
@@ -10231,7 +10185,7 @@
         <v>78</v>
       </c>
       <c r="B183" s="52" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="C183" s="50" t="s">
         <v>45</v>
@@ -10252,8 +10206,8 @@
       <c r="Q183" s="50"/>
       <c r="R183" s="50"/>
       <c r="S183" s="50"/>
-      <c r="T183" s="50" t="s">
-        <v>437</v>
+      <c r="T183" s="51" t="s">
+        <v>198</v>
       </c>
       <c r="U183" s="50"/>
       <c r="V183" s="50"/>
@@ -10268,7 +10222,7 @@
       <c r="AE183" s="50"/>
       <c r="AF183" s="50"/>
       <c r="AG183" s="51" t="s">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="AH183" s="50"/>
       <c r="AI183" s="50"/>
@@ -10278,7 +10232,7 @@
         <v>78</v>
       </c>
       <c r="B184" s="52" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="C184" s="50" t="s">
         <v>45</v>
@@ -10299,8 +10253,8 @@
       <c r="Q184" s="50"/>
       <c r="R184" s="50"/>
       <c r="S184" s="50"/>
-      <c r="T184" s="50" t="s">
-        <v>438</v>
+      <c r="T184" s="51" t="s">
+        <v>200</v>
       </c>
       <c r="U184" s="50"/>
       <c r="V184" s="50"/>
@@ -10315,21 +10269,19 @@
       <c r="AE184" s="50"/>
       <c r="AF184" s="50"/>
       <c r="AG184" s="51" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AH184" s="50"/>
       <c r="AI184" s="50"/>
     </row>
     <row r="185" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="53" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B185" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="C185" s="50" t="s">
-        <v>45</v>
-      </c>
+      <c r="C185" s="51"/>
       <c r="D185" s="51"/>
       <c r="E185" s="51"/>
       <c r="F185" s="51"/>
@@ -10364,328 +10316,52 @@
       <c r="AI185" s="51"/>
     </row>
     <row r="186" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B186" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="C186" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D186" s="50"/>
-      <c r="E186" s="50"/>
-      <c r="F186" s="50"/>
-      <c r="G186" s="50"/>
-      <c r="H186" s="50"/>
-      <c r="I186" s="50"/>
-      <c r="J186" s="50"/>
-      <c r="K186" s="50"/>
-      <c r="L186" s="50"/>
-      <c r="M186" s="50"/>
-      <c r="N186" s="50"/>
-      <c r="O186" s="50"/>
-      <c r="P186" s="50"/>
-      <c r="Q186" s="50"/>
-      <c r="R186" s="50"/>
-      <c r="S186" s="50"/>
-      <c r="T186" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="U186" s="50"/>
-      <c r="V186" s="50"/>
-      <c r="W186" s="50"/>
-      <c r="X186" s="50"/>
-      <c r="Y186" s="50"/>
-      <c r="Z186" s="50"/>
-      <c r="AA186" s="50"/>
-      <c r="AB186" s="50"/>
-      <c r="AC186" s="50"/>
-      <c r="AD186" s="50"/>
-      <c r="AE186" s="50"/>
-      <c r="AF186" s="50"/>
-      <c r="AG186" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH186" s="50"/>
-      <c r="AI186" s="50"/>
-    </row>
-    <row r="187" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B187" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="C187" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D187" s="50"/>
-      <c r="E187" s="50"/>
-      <c r="F187" s="50"/>
-      <c r="G187" s="50"/>
-      <c r="H187" s="50"/>
-      <c r="I187" s="50"/>
-      <c r="J187" s="50"/>
-      <c r="K187" s="50"/>
-      <c r="L187" s="50"/>
-      <c r="M187" s="50"/>
-      <c r="N187" s="50"/>
-      <c r="O187" s="50"/>
-      <c r="P187" s="50"/>
-      <c r="Q187" s="50"/>
-      <c r="R187" s="50"/>
-      <c r="S187" s="50"/>
-      <c r="T187" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="U187" s="50"/>
-      <c r="V187" s="50"/>
-      <c r="W187" s="50"/>
-      <c r="X187" s="50"/>
-      <c r="Y187" s="50"/>
-      <c r="Z187" s="50"/>
-      <c r="AA187" s="50"/>
-      <c r="AB187" s="50"/>
-      <c r="AC187" s="50"/>
-      <c r="AD187" s="50"/>
-      <c r="AE187" s="50"/>
-      <c r="AF187" s="50"/>
-      <c r="AG187" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH187" s="50"/>
-      <c r="AI187" s="50"/>
-    </row>
-    <row r="188" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B188" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="C188" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D188" s="50"/>
-      <c r="E188" s="50"/>
-      <c r="F188" s="50"/>
-      <c r="G188" s="50"/>
-      <c r="H188" s="50"/>
-      <c r="I188" s="50"/>
-      <c r="J188" s="50"/>
-      <c r="K188" s="50"/>
-      <c r="L188" s="50"/>
-      <c r="M188" s="50"/>
-      <c r="N188" s="50"/>
-      <c r="O188" s="50"/>
-      <c r="P188" s="50"/>
-      <c r="Q188" s="50"/>
-      <c r="R188" s="50"/>
-      <c r="S188" s="50"/>
-      <c r="T188" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="U188" s="50"/>
-      <c r="V188" s="50"/>
-      <c r="W188" s="50"/>
-      <c r="X188" s="50"/>
-      <c r="Y188" s="50"/>
-      <c r="Z188" s="50"/>
-      <c r="AA188" s="50"/>
-      <c r="AB188" s="50"/>
-      <c r="AC188" s="50"/>
-      <c r="AD188" s="50"/>
-      <c r="AE188" s="50"/>
-      <c r="AF188" s="50"/>
-      <c r="AG188" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH188" s="50"/>
-      <c r="AI188" s="50"/>
-    </row>
-    <row r="189" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B189" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C189" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D189" s="50"/>
-      <c r="E189" s="50"/>
-      <c r="F189" s="50"/>
-      <c r="G189" s="50"/>
-      <c r="H189" s="50"/>
-      <c r="I189" s="50"/>
-      <c r="J189" s="50"/>
-      <c r="K189" s="50"/>
-      <c r="L189" s="50"/>
-      <c r="M189" s="50"/>
-      <c r="N189" s="50"/>
-      <c r="O189" s="50"/>
-      <c r="P189" s="50"/>
-      <c r="Q189" s="50"/>
-      <c r="R189" s="50"/>
-      <c r="S189" s="50"/>
-      <c r="T189" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="U189" s="50"/>
-      <c r="V189" s="50"/>
-      <c r="W189" s="50"/>
-      <c r="X189" s="50"/>
-      <c r="Y189" s="50"/>
-      <c r="Z189" s="50"/>
-      <c r="AA189" s="50"/>
-      <c r="AB189" s="50"/>
-      <c r="AC189" s="50"/>
-      <c r="AD189" s="50"/>
-      <c r="AE189" s="50"/>
-      <c r="AF189" s="50"/>
-      <c r="AG189" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH189" s="50"/>
-      <c r="AI189" s="50"/>
-    </row>
-    <row r="190" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B190" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="C190" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D190" s="50"/>
-      <c r="E190" s="50"/>
-      <c r="F190" s="50"/>
-      <c r="G190" s="50"/>
-      <c r="H190" s="50"/>
-      <c r="I190" s="50"/>
-      <c r="J190" s="50"/>
-      <c r="K190" s="50"/>
-      <c r="L190" s="50"/>
-      <c r="M190" s="50"/>
-      <c r="N190" s="50"/>
-      <c r="O190" s="50"/>
-      <c r="P190" s="50"/>
-      <c r="Q190" s="50"/>
-      <c r="R190" s="50"/>
-      <c r="S190" s="50"/>
-      <c r="T190" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="U190" s="50"/>
-      <c r="V190" s="50"/>
-      <c r="W190" s="50"/>
-      <c r="X190" s="50"/>
-      <c r="Y190" s="50"/>
-      <c r="Z190" s="50"/>
-      <c r="AA190" s="50"/>
-      <c r="AB190" s="50"/>
-      <c r="AC190" s="50"/>
-      <c r="AD190" s="50"/>
-      <c r="AE190" s="50"/>
-      <c r="AF190" s="50"/>
-      <c r="AG190" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="AH190" s="50"/>
-      <c r="AI190" s="50"/>
-    </row>
-    <row r="191" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="53" t="s">
+      <c r="A186" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B191" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="C191" s="51"/>
-      <c r="D191" s="51"/>
-      <c r="E191" s="51"/>
-      <c r="F191" s="51"/>
-      <c r="G191" s="51"/>
-      <c r="H191" s="51"/>
-      <c r="I191" s="51"/>
-      <c r="J191" s="51"/>
-      <c r="K191" s="51"/>
-      <c r="L191" s="51"/>
-      <c r="M191" s="51"/>
-      <c r="N191" s="51"/>
-      <c r="O191" s="51"/>
-      <c r="P191" s="51"/>
-      <c r="Q191" s="51"/>
-      <c r="R191" s="51"/>
-      <c r="S191" s="51"/>
-      <c r="T191" s="51"/>
-      <c r="U191" s="51"/>
-      <c r="V191" s="51"/>
-      <c r="W191" s="51"/>
-      <c r="X191" s="51"/>
-      <c r="Y191" s="51"/>
-      <c r="Z191" s="51"/>
-      <c r="AA191" s="51"/>
-      <c r="AB191" s="51"/>
-      <c r="AC191" s="51"/>
-      <c r="AD191" s="51"/>
-      <c r="AE191" s="51"/>
-      <c r="AF191" s="51"/>
-      <c r="AG191" s="51"/>
-      <c r="AH191" s="51"/>
-      <c r="AI191" s="51"/>
-    </row>
-    <row r="192" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B192" s="53" t="s">
+      <c r="B186" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C192" s="51"/>
-      <c r="D192" s="51"/>
-      <c r="E192" s="51"/>
-      <c r="F192" s="51"/>
-      <c r="G192" s="51"/>
-      <c r="H192" s="51"/>
-      <c r="I192" s="51"/>
-      <c r="J192" s="51"/>
-      <c r="K192" s="51"/>
-      <c r="L192" s="51"/>
-      <c r="M192" s="51"/>
-      <c r="N192" s="51"/>
-      <c r="O192" s="51"/>
-      <c r="P192" s="51"/>
-      <c r="Q192" s="51"/>
-      <c r="R192" s="51"/>
-      <c r="S192" s="51"/>
-      <c r="T192" s="51"/>
-      <c r="U192" s="51"/>
-      <c r="V192" s="51"/>
-      <c r="W192" s="51"/>
-      <c r="X192" s="51"/>
-      <c r="Y192" s="51"/>
-      <c r="Z192" s="51"/>
-      <c r="AA192" s="51"/>
-      <c r="AB192" s="51"/>
-      <c r="AC192" s="51"/>
-      <c r="AD192" s="51"/>
-      <c r="AE192" s="51"/>
-      <c r="AF192" s="51"/>
-      <c r="AG192" s="51"/>
-      <c r="AH192" s="51"/>
-      <c r="AI192" s="51"/>
+      <c r="C186" s="51"/>
+      <c r="D186" s="51"/>
+      <c r="E186" s="51"/>
+      <c r="F186" s="51"/>
+      <c r="G186" s="51"/>
+      <c r="H186" s="51"/>
+      <c r="I186" s="51"/>
+      <c r="J186" s="51"/>
+      <c r="K186" s="51"/>
+      <c r="L186" s="51"/>
+      <c r="M186" s="51"/>
+      <c r="N186" s="51"/>
+      <c r="O186" s="51"/>
+      <c r="P186" s="51"/>
+      <c r="Q186" s="51"/>
+      <c r="R186" s="51"/>
+      <c r="S186" s="51"/>
+      <c r="T186" s="51"/>
+      <c r="U186" s="51"/>
+      <c r="V186" s="51"/>
+      <c r="W186" s="51"/>
+      <c r="X186" s="51"/>
+      <c r="Y186" s="51"/>
+      <c r="Z186" s="51"/>
+      <c r="AA186" s="51"/>
+      <c r="AB186" s="51"/>
+      <c r="AC186" s="51"/>
+      <c r="AD186" s="51"/>
+      <c r="AE186" s="51"/>
+      <c r="AF186" s="51"/>
+      <c r="AG186" s="51"/>
+      <c r="AH186" s="51"/>
+      <c r="AI186" s="51"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="A92:A116 A118:A122 A124:A171 A17:A24">
+    <dataValidation type="list" allowBlank="1" sqref="A92:A116 A118:A122 A17:A24 A124:A165">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I16 J17:J24 I25:I28 D29:E29 I30:I192 E2:F15">
+    <dataValidation type="list" allowBlank="1" sqref="I16 J17:J24 I25:I28 D29:E29 E2:F15 I30:I186">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10785,10 +10461,10 @@
         <v>240</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -10809,10 +10485,10 @@
         <v>240</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -10857,10 +10533,10 @@
         <v>240</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -11046,7 +10722,7 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>180</v>
@@ -11070,7 +10746,7 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>182</v>
@@ -11094,7 +10770,7 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>264</v>
@@ -11118,7 +10794,7 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>265</v>
@@ -11214,79 +10890,79 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="C27" s="61" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="B28" s="60" t="s">
         <v>115</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11310,7 +10986,7 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
@@ -11367,14 +11043,14 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44135.521256828702</v>
+        <v>44135.532449999999</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>
